--- a/right_hand_Data.xlsx
+++ b/right_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>382.5212097167969</v>
+        <v>259.9367980957031</v>
       </c>
       <c r="C2" t="n">
-        <v>372.1417236328125</v>
+        <v>287.1679382324219</v>
       </c>
       <c r="D2" t="n">
-        <v>368.7732238769531</v>
+        <v>230.9943237304688</v>
       </c>
       <c r="E2" t="n">
-        <v>366.9983520507812</v>
+        <v>223.5751037597656</v>
       </c>
       <c r="F2" t="n">
-        <v>366.1973266601562</v>
+        <v>283.5775756835938</v>
       </c>
       <c r="G2" t="n">
-        <v>366.6903381347656</v>
+        <v>233.3485717773438</v>
       </c>
       <c r="H2" t="n">
-        <v>367.3475646972656</v>
+        <v>237.3144226074219</v>
       </c>
       <c r="I2" t="n">
-        <v>367.1537475585938</v>
+        <v>283.3280639648438</v>
       </c>
       <c r="J2" t="n">
-        <v>366.485107421875</v>
+        <v>235.9179382324219</v>
       </c>
       <c r="K2" t="n">
-        <v>364.5616455078125</v>
+        <v>232.6534729003906</v>
       </c>
       <c r="L2" t="n">
-        <v>364.1512756347656</v>
+        <v>283.8772888183594</v>
       </c>
       <c r="M2" t="n">
-        <v>363.8307495117188</v>
+        <v>235.9832458496094</v>
       </c>
       <c r="N2" t="n">
-        <v>363.9881591796875</v>
+        <v>236.8357543945312</v>
       </c>
       <c r="O2" t="n">
-        <v>364.3526611328125</v>
+        <v>285.0429382324219</v>
       </c>
       <c r="P2" t="n">
-        <v>364.5093078613281</v>
+        <v>285.5114135742188</v>
       </c>
       <c r="Q2" t="n">
-        <v>361.1184387207031</v>
+        <v>285.3864440917969</v>
       </c>
       <c r="R2" t="n">
-        <v>354.1621704101562</v>
+        <v>285.3800354003906</v>
       </c>
       <c r="S2" t="n">
-        <v>347.2393798828125</v>
+        <v>260.8266906738281</v>
       </c>
       <c r="T2" t="n">
-        <v>343.0371704101562</v>
+        <v>246.0041198730469</v>
       </c>
       <c r="U2" t="n">
-        <v>341.2178955078125</v>
+        <v>285.0025024414062</v>
       </c>
       <c r="V2" t="n">
-        <v>339.07421875</v>
+        <v>234.8736267089844</v>
       </c>
       <c r="W2" t="n">
-        <v>337.7638244628906</v>
+        <v>237.6905517578125</v>
       </c>
       <c r="X2" t="n">
-        <v>336.773193359375</v>
+        <v>284.3256530761719</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.3550720214844</v>
+        <v>237.5806274414062</v>
       </c>
       <c r="Z2" t="n">
-        <v>334.0768127441406</v>
+        <v>236.8189239501953</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.8938598632812</v>
+        <v>283.7032775878906</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.8497924804688</v>
+        <v>238.2048187255859</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.0006713867188</v>
+        <v>237.8976593017578</v>
       </c>
       <c r="AD2" t="n">
-        <v>320.8212280273438</v>
+        <v>283.0020446777344</v>
       </c>
       <c r="AE2" t="n">
-        <v>321.7169799804688</v>
+        <v>239.7317657470703</v>
       </c>
       <c r="AF2" t="n">
-        <v>322.8901977539062</v>
+        <v>239.9399566650391</v>
       </c>
       <c r="AG2" t="n">
-        <v>324.8688354492188</v>
+        <v>283.4285278320312</v>
       </c>
       <c r="AH2" t="n">
-        <v>326.6760864257812</v>
+        <v>283.2162475585938</v>
       </c>
       <c r="AI2" t="n">
-        <v>327.9151916503906</v>
+        <v>283.3274841308594</v>
       </c>
       <c r="AJ2" t="n">
-        <v>329.5016174316406</v>
+        <v>284.2036743164062</v>
       </c>
       <c r="AK2" t="n">
-        <v>331.4218139648438</v>
+        <v>258.3380126953125</v>
       </c>
       <c r="AL2" t="n">
-        <v>332.2609252929688</v>
+        <v>286.6762084960938</v>
       </c>
       <c r="AM2" t="n">
-        <v>332.1683044433594</v>
+        <v>243.1295166015625</v>
       </c>
       <c r="AN2" t="n">
-        <v>332.0140075683594</v>
+        <v>285.45263671875</v>
       </c>
       <c r="AO2" t="n">
-        <v>331.794677734375</v>
+        <v>240.0403137207031</v>
       </c>
       <c r="AP2" t="n">
-        <v>331.6299743652344</v>
+        <v>285.1541748046875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>331.0357666015625</v>
+        <v>231.6817626953125</v>
       </c>
       <c r="AR2" t="n">
-        <v>330.0565185546875</v>
+        <v>258.8493041992188</v>
       </c>
       <c r="AS2" t="n">
-        <v>327.4100952148438</v>
+        <v>318.2388916015625</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.3268737792969</v>
+        <v>266.1270141601562</v>
       </c>
       <c r="AU2" t="n">
-        <v>314.8806457519531</v>
+        <v>266.4015197753906</v>
       </c>
       <c r="AV2" t="n">
-        <v>311.4921569824219</v>
+        <v>270.1639709472656</v>
       </c>
       <c r="AW2" t="n">
-        <v>308.3744812011719</v>
+        <v>289.2105102539062</v>
       </c>
       <c r="AX2" t="n">
-        <v>305.256591796875</v>
+        <v>311.3210754394531</v>
       </c>
       <c r="AY2" t="n">
-        <v>303.7288818359375</v>
+        <v>327.1386108398438</v>
       </c>
       <c r="AZ2" t="n">
-        <v>304.001708984375</v>
+        <v>335.9454956054688</v>
       </c>
       <c r="BA2" t="n">
-        <v>304.3504333496094</v>
+        <v>341.13671875</v>
       </c>
       <c r="BB2" t="n">
-        <v>303.8775939941406</v>
+        <v>342.5679016113281</v>
       </c>
       <c r="BC2" t="n">
-        <v>303.7162170410156</v>
+        <v>346.2508544921875</v>
       </c>
       <c r="BD2" t="n">
-        <v>303.737060546875</v>
+        <v>353.7982482910156</v>
       </c>
       <c r="BE2" t="n">
-        <v>304.1356811523438</v>
+        <v>362.4342041015625</v>
       </c>
       <c r="BF2" t="n">
-        <v>303.8823852539062</v>
+        <v>362.5803833007812</v>
       </c>
       <c r="BG2" t="n">
-        <v>303.8115844726562</v>
+        <v>361.8913269042969</v>
       </c>
       <c r="BH2" t="n">
-        <v>303.5995483398438</v>
+        <v>359.4302978515625</v>
       </c>
       <c r="BI2" t="n">
-        <v>303.552490234375</v>
+        <v>357.1332397460938</v>
       </c>
       <c r="BJ2" t="n">
-        <v>304.2732849121094</v>
+        <v>343.1667785644531</v>
       </c>
       <c r="BK2" t="n">
-        <v>305.3486633300781</v>
+        <v>328.2482299804688</v>
       </c>
       <c r="BL2" t="n">
-        <v>305.4844665527344</v>
+        <v>322.546142578125</v>
       </c>
       <c r="BM2" t="n">
-        <v>305.6240234375</v>
+        <v>321.4282836914062</v>
       </c>
       <c r="BN2" t="n">
-        <v>304.6099243164062</v>
+        <v>321.7293701171875</v>
       </c>
       <c r="BO2" t="n">
-        <v>300.2455749511719</v>
+        <v>317.888427734375</v>
       </c>
       <c r="BP2" t="n">
-        <v>290.364990234375</v>
+        <v>310.5345764160156</v>
       </c>
       <c r="BQ2" t="n">
-        <v>284.5584716796875</v>
+        <v>302.4295959472656</v>
       </c>
       <c r="BR2" t="n">
-        <v>280.3125305175781</v>
+        <v>293.1936340332031</v>
       </c>
       <c r="BS2" t="n">
-        <v>275.0272521972656</v>
+        <v>287.3908081054688</v>
       </c>
       <c r="BT2" t="n">
-        <v>269.2717590332031</v>
+        <v>286.9124145507812</v>
       </c>
       <c r="BU2" t="n">
-        <v>264.2306213378906</v>
+        <v>283.9332580566406</v>
       </c>
       <c r="BV2" t="n">
-        <v>260.2760620117188</v>
+        <v>277.6282043457031</v>
       </c>
       <c r="BW2" t="n">
-        <v>252.6996154785156</v>
+        <v>269.6847534179688</v>
       </c>
       <c r="BX2" t="n">
-        <v>249.9091796875</v>
+        <v>264.1446533203125</v>
       </c>
       <c r="BY2" t="n">
-        <v>247.7997131347656</v>
+        <v>256.6801452636719</v>
       </c>
       <c r="BZ2" t="n">
-        <v>227.8403015136719</v>
+        <v>251.2106323242188</v>
       </c>
       <c r="CA2" t="n">
-        <v>215.9852752685547</v>
+        <v>244.4128570556641</v>
       </c>
       <c r="CB2" t="n">
-        <v>199.4273529052734</v>
+        <v>243.4209442138672</v>
       </c>
       <c r="CC2" t="n">
-        <v>188.3485107421875</v>
+        <v>235.7082824707031</v>
       </c>
       <c r="CD2" t="n">
-        <v>179.1098937988281</v>
+        <v>232.3492431640625</v>
       </c>
       <c r="CE2" t="n">
-        <v>172.1042022705078</v>
+        <v>230.8392639160156</v>
       </c>
       <c r="CF2" t="n">
-        <v>160.1755065917969</v>
+        <v>231.7717895507812</v>
       </c>
       <c r="CG2" t="n">
-        <v>152.3378753662109</v>
+        <v>235.2738189697266</v>
       </c>
       <c r="CH2" t="n">
-        <v>145.7276611328125</v>
+        <v>234.6905212402344</v>
       </c>
       <c r="CI2" t="n">
-        <v>138.205078125</v>
+        <v>236.0710144042969</v>
       </c>
       <c r="CJ2" t="n">
-        <v>127.5050811767578</v>
+        <v>235.7807769775391</v>
       </c>
       <c r="CK2" t="n">
-        <v>112.9743804931641</v>
+        <v>231.4055023193359</v>
       </c>
       <c r="CL2" t="n">
-        <v>83.91522216796875</v>
+        <v>225.6466522216797</v>
       </c>
       <c r="CM2" t="n">
-        <v>76.14799499511719</v>
+        <v>221.5127868652344</v>
       </c>
       <c r="CN2" t="n">
-        <v>73.42964935302734</v>
+        <v>215.5418243408203</v>
       </c>
       <c r="CO2" t="n">
-        <v>71.89621734619141</v>
+        <v>209.9453430175781</v>
       </c>
       <c r="CP2" t="n">
-        <v>73.47751617431641</v>
+        <v>205.3416748046875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>72.78187561035156</v>
+        <v>203.8002166748047</v>
       </c>
       <c r="CR2" t="n">
-        <v>69.06930541992188</v>
+        <v>229.2264556884766</v>
       </c>
       <c r="CS2" t="n">
-        <v>68.29139709472656</v>
+        <v>237.5729064941406</v>
       </c>
       <c r="CT2" t="n">
-        <v>67.73490142822266</v>
+        <v>242.2325134277344</v>
       </c>
       <c r="CU2" t="n">
-        <v>73.12540435791016</v>
+        <v>248.4310760498047</v>
       </c>
       <c r="CV2" t="n">
-        <v>75.69075012207031</v>
+        <v>256.1076354980469</v>
       </c>
       <c r="CW2" t="n">
-        <v>73.74404907226562</v>
+        <v>259.9756469726562</v>
       </c>
       <c r="CX2" t="n">
-        <v>72.83387756347656</v>
+        <v>267.1882019042969</v>
       </c>
       <c r="CY2" t="n">
-        <v>56.90624237060547</v>
+        <v>273.1458129882812</v>
       </c>
       <c r="CZ2" t="n">
-        <v>45.67587280273438</v>
+        <v>280.94287109375</v>
       </c>
       <c r="DA2" t="n">
-        <v>39.47196197509766</v>
+        <v>290.6956481933594</v>
       </c>
       <c r="DB2" t="n">
-        <v>36.68872451782227</v>
+        <v>303.3723449707031</v>
       </c>
       <c r="DC2" t="n">
-        <v>47.41909790039062</v>
+        <v>307.9294738769531</v>
       </c>
       <c r="DD2" t="n">
-        <v>53.89692687988281</v>
+        <v>312.6603698730469</v>
       </c>
       <c r="DE2" t="n">
-        <v>63.44620513916016</v>
+        <v>316.5278015136719</v>
       </c>
       <c r="DF2" t="n">
-        <v>86.939453125</v>
+        <v>324.1392517089844</v>
       </c>
       <c r="DG2" t="n">
-        <v>137.2302551269531</v>
+        <v>330.4161987304688</v>
       </c>
       <c r="DH2" t="n">
-        <v>155.1409149169922</v>
+        <v>335.1149291992188</v>
       </c>
       <c r="DI2" t="n">
-        <v>164.8259735107422</v>
+        <v>334.7236328125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>161.8048706054688</v>
+        <v>334.6039428710938</v>
       </c>
       <c r="DK2" t="n">
-        <v>159.9149322509766</v>
+        <v>334.5760498046875</v>
       </c>
       <c r="DL2" t="n">
-        <v>119.5590896606445</v>
+        <v>334.6675109863281</v>
       </c>
       <c r="DM2" t="n">
-        <v>93.06827545166016</v>
+        <v>334.14306640625</v>
       </c>
       <c r="DN2" t="n">
-        <v>70.60012817382812</v>
+        <v>334.2988891601562</v>
       </c>
       <c r="DO2" t="n">
-        <v>63.42810821533203</v>
+        <v>335.835693359375</v>
       </c>
       <c r="DP2" t="n">
-        <v>59.23942184448242</v>
+        <v>335.9687805175781</v>
       </c>
       <c r="DQ2" t="n">
-        <v>54.01660919189453</v>
+        <v>331.9302673339844</v>
       </c>
       <c r="DR2" t="n">
-        <v>51.39748001098633</v>
+        <v>326.2974243164062</v>
       </c>
       <c r="DS2" t="n">
-        <v>61.42317962646484</v>
+        <v>317.0508728027344</v>
       </c>
       <c r="DT2" t="n">
-        <v>72.22251129150391</v>
+        <v>302.0887756347656</v>
       </c>
       <c r="DU2" t="n">
-        <v>79.09696960449219</v>
+        <v>297.0465698242188</v>
       </c>
       <c r="DV2" t="n">
-        <v>84.47216033935547</v>
+        <v>292.0242614746094</v>
       </c>
       <c r="DW2" t="n">
-        <v>85.7930908203125</v>
+        <v>284.4766540527344</v>
       </c>
       <c r="DX2" t="n">
-        <v>85.17868804931641</v>
+        <v>281.1371765136719</v>
       </c>
       <c r="DY2" t="n">
-        <v>83.38606262207031</v>
+        <v>278.0307922363281</v>
       </c>
       <c r="DZ2" t="n">
-        <v>77.83537292480469</v>
+        <v>277.9977416992188</v>
       </c>
       <c r="EA2" t="n">
-        <v>64.89935302734375</v>
+        <v>272.9547424316406</v>
       </c>
       <c r="EB2" t="n">
-        <v>45.65091705322266</v>
+        <v>265.9347534179688</v>
       </c>
       <c r="EC2" t="n">
-        <v>33.7419548034668</v>
+        <v>266.4524230957031</v>
       </c>
       <c r="ED2" t="n">
-        <v>36.04623413085938</v>
+        <v>269.8704223632812</v>
       </c>
       <c r="EE2" t="n">
-        <v>39.4860954284668</v>
+        <v>285.9148559570312</v>
       </c>
       <c r="EF2" t="n">
-        <v>50.93826675415039</v>
+        <v>285.120849609375</v>
       </c>
       <c r="EG2" t="n">
-        <v>69.9912109375</v>
+        <v>285.0447082519531</v>
       </c>
       <c r="EH2" t="n">
-        <v>98.74537658691406</v>
+        <v>283.6638488769531</v>
       </c>
       <c r="EI2" t="n">
-        <v>113.3046646118164</v>
+        <v>281.8995361328125</v>
       </c>
       <c r="EJ2" t="n">
-        <v>131.5021514892578</v>
+        <v>281.7526245117188</v>
       </c>
       <c r="EK2" t="n">
-        <v>132.4756317138672</v>
+        <v>301.7236938476562</v>
       </c>
       <c r="EL2" t="n">
-        <v>131.9571228027344</v>
+        <v>309.0884094238281</v>
       </c>
       <c r="EM2" t="n">
-        <v>130.8296356201172</v>
+        <v>305.5120239257812</v>
       </c>
       <c r="EN2" t="n">
-        <v>127.6091613769531</v>
+        <v>306.1554565429688</v>
       </c>
       <c r="EO2" t="n">
-        <v>125.7885818481445</v>
+        <v>309.6074829101562</v>
       </c>
       <c r="EP2" t="n">
-        <v>123.3559722900391</v>
+        <v>312.3592224121094</v>
       </c>
       <c r="EQ2" t="n">
-        <v>118.5963821411133</v>
+        <v>312.4074401855469</v>
       </c>
       <c r="ER2" t="n">
-        <v>117.4122695922852</v>
+        <v>311.4424743652344</v>
       </c>
       <c r="ES2" t="n">
-        <v>119.1750259399414</v>
+        <v>308.8479309082031</v>
       </c>
       <c r="ET2" t="n">
-        <v>120.1568298339844</v>
+        <v>282.4386596679688</v>
       </c>
       <c r="EU2" t="n">
-        <v>122.432975769043</v>
+        <v>268.6009521484375</v>
       </c>
       <c r="EV2" t="n">
-        <v>132.7960968017578</v>
+        <v>265.2058410644531</v>
       </c>
       <c r="EW2" t="n">
-        <v>139.0954284667969</v>
+        <v>245.9268341064453</v>
       </c>
       <c r="EX2" t="n">
-        <v>140.3399047851562</v>
+        <v>234.467529296875</v>
       </c>
       <c r="EY2" t="n">
-        <v>139.9730987548828</v>
+        <v>222.2340393066406</v>
       </c>
       <c r="EZ2" t="n">
-        <v>140.1920776367188</v>
+        <v>278.2215576171875</v>
       </c>
       <c r="FA2" t="n">
-        <v>139.3148803710938</v>
+        <v>309.9877014160156</v>
       </c>
       <c r="FB2" t="n">
-        <v>138.3993835449219</v>
+        <v>250.7740173339844</v>
       </c>
       <c r="FC2" t="n">
-        <v>137.5210571289062</v>
+        <v>246.2837982177734</v>
       </c>
       <c r="FD2" t="n">
-        <v>142.4274597167969</v>
+        <v>247.0690612792969</v>
       </c>
       <c r="FE2" t="n">
-        <v>146.4644775390625</v>
+        <v>242.1086120605469</v>
       </c>
       <c r="FF2" t="n">
-        <v>146.3245086669922</v>
+        <v>238.4887084960938</v>
       </c>
       <c r="FG2" t="n">
-        <v>145.7256774902344</v>
+        <v>236.2819061279297</v>
       </c>
       <c r="FH2" t="n">
-        <v>145.6874389648438</v>
+        <v>237.3619689941406</v>
       </c>
       <c r="FI2" t="n">
-        <v>146.5859527587891</v>
+        <v>229.5178070068359</v>
       </c>
       <c r="FJ2" t="n">
-        <v>146.3948516845703</v>
+        <v>226.0316162109375</v>
       </c>
       <c r="FK2" t="n">
-        <v>141.9949645996094</v>
+        <v>226.51611328125</v>
       </c>
       <c r="FL2" t="n">
-        <v>136.7365417480469</v>
+        <v>226.1382751464844</v>
       </c>
       <c r="FM2" t="n">
-        <v>132.9181060791016</v>
+        <v>228.2011413574219</v>
       </c>
       <c r="FN2" t="n">
-        <v>121.693603515625</v>
+        <v>237.1652221679688</v>
       </c>
       <c r="FO2" t="n">
-        <v>119.06640625</v>
+        <v>240.8691711425781</v>
       </c>
       <c r="FP2" t="n">
-        <v>128.4091796875</v>
+        <v>247.3046569824219</v>
       </c>
       <c r="FQ2" t="n">
-        <v>149.2030792236328</v>
+        <v>263.0748596191406</v>
       </c>
       <c r="FR2" t="n">
-        <v>153.6901092529297</v>
+        <v>270.8296203613281</v>
       </c>
       <c r="FS2" t="n">
-        <v>166.4491424560547</v>
+        <v>277.8839111328125</v>
       </c>
       <c r="FT2" t="n">
-        <v>189.3050384521484</v>
+        <v>281.3618774414062</v>
       </c>
       <c r="FU2" t="n">
-        <v>195.2103576660156</v>
+        <v>281.8535766601562</v>
       </c>
       <c r="FV2" t="n">
-        <v>205.9391479492188</v>
+        <v>281.6188049316406</v>
       </c>
       <c r="FW2" t="n">
-        <v>216.4298095703125</v>
+        <v>337.0591430664062</v>
       </c>
       <c r="FX2" t="n">
-        <v>225.9718017578125</v>
+        <v>284.5627746582031</v>
       </c>
       <c r="FY2" t="n">
-        <v>231.453857421875</v>
+        <v>274.6191101074219</v>
       </c>
       <c r="FZ2" t="n">
-        <v>233.0401458740234</v>
+        <v>275.8099365234375</v>
       </c>
       <c r="GA2" t="n">
-        <v>231.4553985595703</v>
+        <v>274.6089477539062</v>
       </c>
       <c r="GB2" t="n">
-        <v>227.5135955810547</v>
+        <v>268.3627624511719</v>
       </c>
       <c r="GC2" t="n">
-        <v>224.1903686523438</v>
+        <v>248.9393463134766</v>
       </c>
       <c r="GD2" t="n">
-        <v>204.5948486328125</v>
+        <v>242.2796783447266</v>
       </c>
       <c r="GE2" t="n">
-        <v>202.0390625</v>
+        <v>238.56494140625</v>
       </c>
       <c r="GF2" t="n">
-        <v>182.6149597167969</v>
+        <v>230.7903442382812</v>
       </c>
       <c r="GG2" t="n">
-        <v>171.0282592773438</v>
+        <v>218.4983062744141</v>
       </c>
       <c r="GH2" t="n">
-        <v>153.6982269287109</v>
+        <v>208.7525329589844</v>
       </c>
       <c r="GI2" t="n">
-        <v>135.4886779785156</v>
+        <v>205.8311767578125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>139.86083984375</v>
+        <v>203.3162689208984</v>
       </c>
       <c r="GK2" t="n">
-        <v>150.9407806396484</v>
+        <v>192.0129699707031</v>
       </c>
       <c r="GL2" t="n">
-        <v>142.1920776367188</v>
+        <v>185.0227203369141</v>
       </c>
       <c r="GM2" t="n">
-        <v>128.1448516845703</v>
+        <v>173.0962829589844</v>
       </c>
       <c r="GN2" t="n">
-        <v>121.5026245117188</v>
+        <v>163.0657043457031</v>
       </c>
       <c r="GO2" t="n">
-        <v>116.9234771728516</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>113.3903656005859</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>107.9284210205078</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>93.77635955810547</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>92.02648162841797</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>110.9608917236328</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>141.6968078613281</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>164.4060974121094</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>194.7280731201172</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>207.5846862792969</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>188.422607421875</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>219.3044281005859</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>226.0788879394531</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>237.1777038574219</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>279.3126831054688</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>262.8439025878906</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>298.1644287109375</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>306.3615112304688</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>314.2798767089844</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>315.646728515625</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>318.2690124511719</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>317.4177551269531</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>316.2076110839844</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>289.7654724121094</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>331.511962890625</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>297.4933471679688</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>280.9378356933594</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>272.5001220703125</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>270.28857421875</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>268.134765625</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>266.2225036621094</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>271.1050720214844</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>276.9735412597656</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>284.0377502441406</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>244.7369079589844</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>232.1637268066406</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>260.2392272949219</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>270.7099609375</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>281.5447387695312</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>295.4712524414062</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>299.9590148925781</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>313.3127746582031</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>282.2064514160156</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>291.7200927734375</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>323.1979370117188</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>316.7651062011719</v>
-      </c>
-      <c r="II2" t="n">
-        <v>265.5542297363281</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>253.0376281738281</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>264.146484375</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>279.598388671875</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>343.0654296875</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>353.052734375</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>346.8443603515625</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>346.9897155761719</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>347.0252075195312</v>
+        <v>158.6684722900391</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>466.0660705566406</v>
+        <v>402.298583984375</v>
       </c>
       <c r="C3" t="n">
-        <v>458.2699890136719</v>
+        <v>374.4517822265625</v>
       </c>
       <c r="D3" t="n">
-        <v>453.2864379882812</v>
+        <v>379.3089599609375</v>
       </c>
       <c r="E3" t="n">
-        <v>447.8101806640625</v>
+        <v>372.2236633300781</v>
       </c>
       <c r="F3" t="n">
-        <v>443.5564270019531</v>
+        <v>376.0057373046875</v>
       </c>
       <c r="G3" t="n">
-        <v>440.6341857910156</v>
+        <v>380.0894470214844</v>
       </c>
       <c r="H3" t="n">
-        <v>439.3494262695312</v>
+        <v>380.7416076660156</v>
       </c>
       <c r="I3" t="n">
-        <v>436.4176940917969</v>
+        <v>375.1296997070312</v>
       </c>
       <c r="J3" t="n">
-        <v>437.1740112304688</v>
+        <v>382.5238037109375</v>
       </c>
       <c r="K3" t="n">
-        <v>438.5473327636719</v>
+        <v>381.8178100585938</v>
       </c>
       <c r="L3" t="n">
-        <v>440.2872619628906</v>
+        <v>377.2815856933594</v>
       </c>
       <c r="M3" t="n">
-        <v>438.4698181152344</v>
+        <v>381.6877746582031</v>
       </c>
       <c r="N3" t="n">
-        <v>435.501220703125</v>
+        <v>381.4778137207031</v>
       </c>
       <c r="O3" t="n">
-        <v>431.8652954101562</v>
+        <v>376.9209289550781</v>
       </c>
       <c r="P3" t="n">
-        <v>429.2455139160156</v>
+        <v>376.8079528808594</v>
       </c>
       <c r="Q3" t="n">
-        <v>426.8417053222656</v>
+        <v>376.7940673828125</v>
       </c>
       <c r="R3" t="n">
-        <v>423.9281616210938</v>
+        <v>376.6266784667969</v>
       </c>
       <c r="S3" t="n">
-        <v>420.985107421875</v>
+        <v>386.2693786621094</v>
       </c>
       <c r="T3" t="n">
-        <v>420.3622131347656</v>
+        <v>384.3147277832031</v>
       </c>
       <c r="U3" t="n">
-        <v>417.1384582519531</v>
+        <v>376.3330993652344</v>
       </c>
       <c r="V3" t="n">
-        <v>417.1685180664062</v>
+        <v>384.3645324707031</v>
       </c>
       <c r="W3" t="n">
-        <v>417.6888122558594</v>
+        <v>384.1028137207031</v>
       </c>
       <c r="X3" t="n">
-        <v>418.363037109375</v>
+        <v>375.40673828125</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.69677734375</v>
+        <v>383.6299438476562</v>
       </c>
       <c r="Z3" t="n">
-        <v>416.02294921875</v>
+        <v>383.3056335449219</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.2799072265625</v>
+        <v>375.188720703125</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.0708618164062</v>
+        <v>383.0495300292969</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.9756469726562</v>
+        <v>382.5467224121094</v>
       </c>
       <c r="AD3" t="n">
-        <v>429.7488708496094</v>
+        <v>375.1441650390625</v>
       </c>
       <c r="AE3" t="n">
-        <v>432.1545104980469</v>
+        <v>382.2793884277344</v>
       </c>
       <c r="AF3" t="n">
-        <v>432.1060791015625</v>
+        <v>381.9380798339844</v>
       </c>
       <c r="AG3" t="n">
-        <v>430.914306640625</v>
+        <v>374.3587646484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>424.21923828125</v>
+        <v>374.2984924316406</v>
       </c>
       <c r="AI3" t="n">
-        <v>416.6990966796875</v>
+        <v>374.1250610351562</v>
       </c>
       <c r="AJ3" t="n">
-        <v>411.8778686523438</v>
+        <v>372.6806030273438</v>
       </c>
       <c r="AK3" t="n">
-        <v>409.1583557128906</v>
+        <v>382.8255004882812</v>
       </c>
       <c r="AL3" t="n">
-        <v>406.7097778320312</v>
+        <v>370.6158142089844</v>
       </c>
       <c r="AM3" t="n">
-        <v>407.9670715332031</v>
+        <v>380.7553100585938</v>
       </c>
       <c r="AN3" t="n">
-        <v>405.2703247070312</v>
+        <v>369.4220581054688</v>
       </c>
       <c r="AO3" t="n">
-        <v>406.0240783691406</v>
+        <v>380.2042846679688</v>
       </c>
       <c r="AP3" t="n">
-        <v>408.3935546875</v>
+        <v>369.3370666503906</v>
       </c>
       <c r="AQ3" t="n">
-        <v>409.7892150878906</v>
+        <v>379.6277160644531</v>
       </c>
       <c r="AR3" t="n">
-        <v>410.3541870117188</v>
+        <v>381.3176574707031</v>
       </c>
       <c r="AS3" t="n">
-        <v>411.9787292480469</v>
+        <v>350.130615234375</v>
       </c>
       <c r="AT3" t="n">
-        <v>414.1065673828125</v>
+        <v>467.0580444335938</v>
       </c>
       <c r="AU3" t="n">
-        <v>416.54248046875</v>
+        <v>479.2362060546875</v>
       </c>
       <c r="AV3" t="n">
-        <v>419.0846557617188</v>
+        <v>497.9345397949219</v>
       </c>
       <c r="AW3" t="n">
-        <v>420.4900207519531</v>
+        <v>509.2660217285156</v>
       </c>
       <c r="AX3" t="n">
-        <v>421.3814086914062</v>
+        <v>519.3727416992188</v>
       </c>
       <c r="AY3" t="n">
-        <v>422.5442504882812</v>
+        <v>521.4718627929688</v>
       </c>
       <c r="AZ3" t="n">
-        <v>424.3302917480469</v>
+        <v>515.8993530273438</v>
       </c>
       <c r="BA3" t="n">
-        <v>425.4431762695312</v>
+        <v>512.5789794921875</v>
       </c>
       <c r="BB3" t="n">
-        <v>426.0318298339844</v>
+        <v>506.1815185546875</v>
       </c>
       <c r="BC3" t="n">
-        <v>425.4362487792969</v>
+        <v>502.2572021484375</v>
       </c>
       <c r="BD3" t="n">
-        <v>425.1769714355469</v>
+        <v>500.3824462890625</v>
       </c>
       <c r="BE3" t="n">
-        <v>423.2556457519531</v>
+        <v>497.378662109375</v>
       </c>
       <c r="BF3" t="n">
-        <v>423.5617980957031</v>
+        <v>496.7130737304688</v>
       </c>
       <c r="BG3" t="n">
-        <v>424.149658203125</v>
+        <v>496.5821533203125</v>
       </c>
       <c r="BH3" t="n">
-        <v>424.9634399414062</v>
+        <v>498.337890625</v>
       </c>
       <c r="BI3" t="n">
-        <v>425.8013305664062</v>
+        <v>497.5106506347656</v>
       </c>
       <c r="BJ3" t="n">
-        <v>426.6626586914062</v>
+        <v>502.74267578125</v>
       </c>
       <c r="BK3" t="n">
-        <v>426.1322021484375</v>
+        <v>502.82421875</v>
       </c>
       <c r="BL3" t="n">
-        <v>427.5614318847656</v>
+        <v>504.3046264648438</v>
       </c>
       <c r="BM3" t="n">
-        <v>425.4752502441406</v>
+        <v>504.8988037109375</v>
       </c>
       <c r="BN3" t="n">
-        <v>423.8479614257812</v>
+        <v>500.7978515625</v>
       </c>
       <c r="BO3" t="n">
-        <v>425.9258117675781</v>
+        <v>499.6253051757812</v>
       </c>
       <c r="BP3" t="n">
-        <v>428.7720947265625</v>
+        <v>501.8108520507812</v>
       </c>
       <c r="BQ3" t="n">
-        <v>430.1858520507812</v>
+        <v>505.7138977050781</v>
       </c>
       <c r="BR3" t="n">
-        <v>432.5534973144531</v>
+        <v>505.8063049316406</v>
       </c>
       <c r="BS3" t="n">
-        <v>436.6551818847656</v>
+        <v>503.3013610839844</v>
       </c>
       <c r="BT3" t="n">
-        <v>440.1162109375</v>
+        <v>498.7955017089844</v>
       </c>
       <c r="BU3" t="n">
-        <v>441.072998046875</v>
+        <v>499.2011108398438</v>
       </c>
       <c r="BV3" t="n">
-        <v>441.1555480957031</v>
+        <v>502.4806518554688</v>
       </c>
       <c r="BW3" t="n">
-        <v>438.9598388671875</v>
+        <v>502.6248474121094</v>
       </c>
       <c r="BX3" t="n">
-        <v>438.1237487792969</v>
+        <v>501.5319519042969</v>
       </c>
       <c r="BY3" t="n">
-        <v>434.4648742675781</v>
+        <v>502.1950073242188</v>
       </c>
       <c r="BZ3" t="n">
-        <v>431.5780029296875</v>
+        <v>501.5477294921875</v>
       </c>
       <c r="CA3" t="n">
-        <v>432.5694885253906</v>
+        <v>500.6035461425781</v>
       </c>
       <c r="CB3" t="n">
-        <v>431.7069396972656</v>
+        <v>522.9859619140625</v>
       </c>
       <c r="CC3" t="n">
-        <v>431.0206298828125</v>
+        <v>521.8565063476562</v>
       </c>
       <c r="CD3" t="n">
-        <v>429.7875671386719</v>
+        <v>521.7478637695312</v>
       </c>
       <c r="CE3" t="n">
-        <v>428.5565490722656</v>
+        <v>518.50927734375</v>
       </c>
       <c r="CF3" t="n">
-        <v>428.9647521972656</v>
+        <v>510.3321533203125</v>
       </c>
       <c r="CG3" t="n">
-        <v>428.804931640625</v>
+        <v>501.4434204101562</v>
       </c>
       <c r="CH3" t="n">
-        <v>427.2158508300781</v>
+        <v>499.0938415527344</v>
       </c>
       <c r="CI3" t="n">
-        <v>422.1123046875</v>
+        <v>501.3525085449219</v>
       </c>
       <c r="CJ3" t="n">
-        <v>414.2550048828125</v>
+        <v>502.1918029785156</v>
       </c>
       <c r="CK3" t="n">
-        <v>403.6962280273438</v>
+        <v>506.3136291503906</v>
       </c>
       <c r="CL3" t="n">
-        <v>363.8771362304688</v>
+        <v>514.9586181640625</v>
       </c>
       <c r="CM3" t="n">
-        <v>342.2010192871094</v>
+        <v>517.772216796875</v>
       </c>
       <c r="CN3" t="n">
-        <v>318.0223083496094</v>
+        <v>518.7293701171875</v>
       </c>
       <c r="CO3" t="n">
-        <v>271.8552551269531</v>
+        <v>520.0382080078125</v>
       </c>
       <c r="CP3" t="n">
-        <v>250.6720733642578</v>
+        <v>522.6109008789062</v>
       </c>
       <c r="CQ3" t="n">
-        <v>233.7551422119141</v>
+        <v>519.9555053710938</v>
       </c>
       <c r="CR3" t="n">
-        <v>215.5097351074219</v>
+        <v>490.95361328125</v>
       </c>
       <c r="CS3" t="n">
-        <v>193.6092529296875</v>
+        <v>490.9265441894531</v>
       </c>
       <c r="CT3" t="n">
-        <v>168.3419036865234</v>
+        <v>491.05419921875</v>
       </c>
       <c r="CU3" t="n">
-        <v>160.1135406494141</v>
+        <v>488.4023132324219</v>
       </c>
       <c r="CV3" t="n">
-        <v>153.1942596435547</v>
+        <v>488.0690612792969</v>
       </c>
       <c r="CW3" t="n">
-        <v>150.6145172119141</v>
+        <v>507.8190307617188</v>
       </c>
       <c r="CX3" t="n">
-        <v>150.9941253662109</v>
+        <v>507.8033142089844</v>
       </c>
       <c r="CY3" t="n">
-        <v>161.5498809814453</v>
+        <v>508.3442077636719</v>
       </c>
       <c r="CZ3" t="n">
-        <v>179.7995300292969</v>
+        <v>507.2455139160156</v>
       </c>
       <c r="DA3" t="n">
-        <v>199.3396606445312</v>
+        <v>507.8572692871094</v>
       </c>
       <c r="DB3" t="n">
-        <v>219.8704528808594</v>
+        <v>484.4736022949219</v>
       </c>
       <c r="DC3" t="n">
-        <v>271.9425354003906</v>
+        <v>485.5745849609375</v>
       </c>
       <c r="DD3" t="n">
-        <v>296.6304016113281</v>
+        <v>485.2067260742188</v>
       </c>
       <c r="DE3" t="n">
-        <v>324.2801818847656</v>
+        <v>485.4110412597656</v>
       </c>
       <c r="DF3" t="n">
-        <v>379.480224609375</v>
+        <v>486.5940856933594</v>
       </c>
       <c r="DG3" t="n">
-        <v>421.693603515625</v>
+        <v>487.5007934570312</v>
       </c>
       <c r="DH3" t="n">
-        <v>425.8463134765625</v>
+        <v>490.993896484375</v>
       </c>
       <c r="DI3" t="n">
-        <v>427.9888610839844</v>
+        <v>493.8818664550781</v>
       </c>
       <c r="DJ3" t="n">
-        <v>427.9332580566406</v>
+        <v>496.3407287597656</v>
       </c>
       <c r="DK3" t="n">
-        <v>429.0045471191406</v>
+        <v>498.3858032226562</v>
       </c>
       <c r="DL3" t="n">
-        <v>412.337890625</v>
+        <v>500.4063110351562</v>
       </c>
       <c r="DM3" t="n">
-        <v>389.8232421875</v>
+        <v>501.7917785644531</v>
       </c>
       <c r="DN3" t="n">
-        <v>339.0028686523438</v>
+        <v>506.3367004394531</v>
       </c>
       <c r="DO3" t="n">
-        <v>315.7935180664062</v>
+        <v>509.9346008300781</v>
       </c>
       <c r="DP3" t="n">
-        <v>288.9897155761719</v>
+        <v>506.603515625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>244.9395294189453</v>
+        <v>491.3186645507812</v>
       </c>
       <c r="DR3" t="n">
-        <v>221.2864532470703</v>
+        <v>482.5007019042969</v>
       </c>
       <c r="DS3" t="n">
-        <v>185.5499877929688</v>
+        <v>476.9114990234375</v>
       </c>
       <c r="DT3" t="n">
-        <v>156.2181701660156</v>
+        <v>461.8981323242188</v>
       </c>
       <c r="DU3" t="n">
-        <v>147.7029113769531</v>
+        <v>455.222900390625</v>
       </c>
       <c r="DV3" t="n">
-        <v>139.0994567871094</v>
+        <v>444.6986389160156</v>
       </c>
       <c r="DW3" t="n">
-        <v>137.2947235107422</v>
+        <v>424.8688659667969</v>
       </c>
       <c r="DX3" t="n">
-        <v>137.4933013916016</v>
+        <v>416.2788391113281</v>
       </c>
       <c r="DY3" t="n">
-        <v>141.4043121337891</v>
+        <v>405.1814270019531</v>
       </c>
       <c r="DZ3" t="n">
-        <v>149.0482940673828</v>
+        <v>403.3111877441406</v>
       </c>
       <c r="EA3" t="n">
-        <v>161.4952850341797</v>
+        <v>403.638671875</v>
       </c>
       <c r="EB3" t="n">
-        <v>195.0823974609375</v>
+        <v>417.8185729980469</v>
       </c>
       <c r="EC3" t="n">
-        <v>234.2889404296875</v>
+        <v>429.4884033203125</v>
       </c>
       <c r="ED3" t="n">
-        <v>256.3728942871094</v>
+        <v>458.7666625976562</v>
       </c>
       <c r="EE3" t="n">
-        <v>282.638916015625</v>
+        <v>482.0817260742188</v>
       </c>
       <c r="EF3" t="n">
-        <v>328.8889770507812</v>
+        <v>487.4332275390625</v>
       </c>
       <c r="EG3" t="n">
-        <v>370.5514221191406</v>
+        <v>510.7823791503906</v>
       </c>
       <c r="EH3" t="n">
-        <v>403.5789184570312</v>
+        <v>524.412841796875</v>
       </c>
       <c r="EI3" t="n">
-        <v>415.4234924316406</v>
+        <v>521.669921875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>428.673095703125</v>
+        <v>519.5238037109375</v>
       </c>
       <c r="EK3" t="n">
-        <v>428.7952575683594</v>
+        <v>519.2523193359375</v>
       </c>
       <c r="EL3" t="n">
-        <v>428.8474731445312</v>
+        <v>513.7008056640625</v>
       </c>
       <c r="EM3" t="n">
-        <v>428.6274719238281</v>
+        <v>506.566650390625</v>
       </c>
       <c r="EN3" t="n">
-        <v>428.70166015625</v>
+        <v>503.4305725097656</v>
       </c>
       <c r="EO3" t="n">
-        <v>427.9591064453125</v>
+        <v>497.9907836914062</v>
       </c>
       <c r="EP3" t="n">
-        <v>426.9866638183594</v>
+        <v>496.8955993652344</v>
       </c>
       <c r="EQ3" t="n">
-        <v>425.553466796875</v>
+        <v>499.2947998046875</v>
       </c>
       <c r="ER3" t="n">
-        <v>426.3650207519531</v>
+        <v>501.7778930664062</v>
       </c>
       <c r="ES3" t="n">
-        <v>425.8660583496094</v>
+        <v>506.928466796875</v>
       </c>
       <c r="ET3" t="n">
-        <v>426.2913513183594</v>
+        <v>516.8106079101562</v>
       </c>
       <c r="EU3" t="n">
-        <v>431.8857116699219</v>
+        <v>545.772216796875</v>
       </c>
       <c r="EV3" t="n">
-        <v>434.011474609375</v>
+        <v>551.0205688476562</v>
       </c>
       <c r="EW3" t="n">
-        <v>433.5296630859375</v>
+        <v>554.5200805664062</v>
       </c>
       <c r="EX3" t="n">
-        <v>437.2731323242188</v>
+        <v>554.2705078125</v>
       </c>
       <c r="EY3" t="n">
-        <v>439.6193237304688</v>
+        <v>551.4761352539062</v>
       </c>
       <c r="EZ3" t="n">
-        <v>437.7485656738281</v>
+        <v>299.6042785644531</v>
       </c>
       <c r="FA3" t="n">
-        <v>439.0160217285156</v>
+        <v>540.3074951171875</v>
       </c>
       <c r="FB3" t="n">
-        <v>439.9092712402344</v>
+        <v>545.3629150390625</v>
       </c>
       <c r="FC3" t="n">
-        <v>443.3257751464844</v>
+        <v>542.8048095703125</v>
       </c>
       <c r="FD3" t="n">
-        <v>445.4800415039062</v>
+        <v>542.6146850585938</v>
       </c>
       <c r="FE3" t="n">
-        <v>445.2583618164062</v>
+        <v>545.6345825195312</v>
       </c>
       <c r="FF3" t="n">
-        <v>445.0187683105469</v>
+        <v>546.2993774414062</v>
       </c>
       <c r="FG3" t="n">
-        <v>445.3486022949219</v>
+        <v>553.6687622070312</v>
       </c>
       <c r="FH3" t="n">
-        <v>445.0181274414062</v>
+        <v>555.7310791015625</v>
       </c>
       <c r="FI3" t="n">
-        <v>443.3948669433594</v>
+        <v>541.187255859375</v>
       </c>
       <c r="FJ3" t="n">
-        <v>442.1665649414062</v>
+        <v>541.4287719726562</v>
       </c>
       <c r="FK3" t="n">
-        <v>442.2304382324219</v>
+        <v>541.1676635742188</v>
       </c>
       <c r="FL3" t="n">
-        <v>441.7533264160156</v>
+        <v>545.197265625</v>
       </c>
       <c r="FM3" t="n">
-        <v>442.4299621582031</v>
+        <v>557.5685424804688</v>
       </c>
       <c r="FN3" t="n">
-        <v>437.2473449707031</v>
+        <v>567.3038330078125</v>
       </c>
       <c r="FO3" t="n">
-        <v>434.3465270996094</v>
+        <v>573.834716796875</v>
       </c>
       <c r="FP3" t="n">
-        <v>430.5382690429688</v>
+        <v>580.3611450195312</v>
       </c>
       <c r="FQ3" t="n">
-        <v>436.6978454589844</v>
+        <v>591.8652954101562</v>
       </c>
       <c r="FR3" t="n">
-        <v>436.5180053710938</v>
+        <v>594.1397705078125</v>
       </c>
       <c r="FS3" t="n">
-        <v>442.5735473632812</v>
+        <v>594.0931396484375</v>
       </c>
       <c r="FT3" t="n">
-        <v>451.7744750976562</v>
+        <v>592.9302978515625</v>
       </c>
       <c r="FU3" t="n">
-        <v>452.93408203125</v>
+        <v>589.3787231445312</v>
       </c>
       <c r="FV3" t="n">
-        <v>452.4202575683594</v>
+        <v>586.969970703125</v>
       </c>
       <c r="FW3" t="n">
-        <v>450.9409790039062</v>
+        <v>597.898193359375</v>
       </c>
       <c r="FX3" t="n">
-        <v>444.989990234375</v>
+        <v>582.8701171875</v>
       </c>
       <c r="FY3" t="n">
-        <v>442.6021423339844</v>
+        <v>572.5380859375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>444.4493713378906</v>
+        <v>571.178466796875</v>
       </c>
       <c r="GA3" t="n">
-        <v>448.8657531738281</v>
+        <v>569.6790161132812</v>
       </c>
       <c r="GB3" t="n">
-        <v>453.8651733398438</v>
+        <v>567.0458374023438</v>
       </c>
       <c r="GC3" t="n">
-        <v>455.5326843261719</v>
+        <v>558.5352172851562</v>
       </c>
       <c r="GD3" t="n">
-        <v>456.4612426757812</v>
+        <v>553.7092895507812</v>
       </c>
       <c r="GE3" t="n">
-        <v>452.3385925292969</v>
+        <v>559.8888549804688</v>
       </c>
       <c r="GF3" t="n">
-        <v>438.3309631347656</v>
+        <v>566.7756958007812</v>
       </c>
       <c r="GG3" t="n">
-        <v>447.8298034667969</v>
+        <v>576.4981689453125</v>
       </c>
       <c r="GH3" t="n">
-        <v>454.4595947265625</v>
+        <v>581.8251342773438</v>
       </c>
       <c r="GI3" t="n">
-        <v>449.8226013183594</v>
+        <v>583.8059692382812</v>
       </c>
       <c r="GJ3" t="n">
-        <v>434.4934692382812</v>
+        <v>584.1890258789062</v>
       </c>
       <c r="GK3" t="n">
-        <v>404.1367492675781</v>
+        <v>587.3981323242188</v>
       </c>
       <c r="GL3" t="n">
-        <v>393.6303100585938</v>
+        <v>590.531494140625</v>
       </c>
       <c r="GM3" t="n">
-        <v>390.6151123046875</v>
+        <v>594.7998657226562</v>
       </c>
       <c r="GN3" t="n">
-        <v>387.7481689453125</v>
+        <v>599.895263671875</v>
       </c>
       <c r="GO3" t="n">
-        <v>389.4219055175781</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>390.4442443847656</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>391.5438232421875</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>396.7969055175781</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>396.2464599609375</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>379.6875915527344</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>363.6112365722656</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>377.7192993164062</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>421.7304077148438</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>440.9056701660156</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>535.1055908203125</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>658.8207397460938</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>653.56982421875</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>707.19140625</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>739.1012573242188</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>689.272216796875</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>673.8956909179688</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>664.7929077148438</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>657.9039306640625</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>656.1469116210938</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>660.9613647460938</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>662.3407592773438</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>662.3046875</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>674.7686157226562</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>698.0396118164062</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>723.2014770507812</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>730.4515380859375</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>729.880859375</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>729.7943725585938</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>723.3627319335938</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>711.923828125</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>709.277587890625</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>706.862060546875</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>313.4244384765625</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>262.3285827636719</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>258.9722290039062</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>266.9589233398438</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>289.7803955078125</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>311.105224609375</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>294.7287902832031</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>283.8011169433594</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>297.1947937011719</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>298.197021484375</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>313.8547973632812</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>314.1826477050781</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>327.2488403320312</v>
-      </c>
-      <c r="II3" t="n">
-        <v>321.8072814941406</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>331.4294738769531</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>296.9039001464844</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>285.5232238769531</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>412.7559509277344</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>454.2227478027344</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>407.4049987792969</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>409.682373046875</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>413.2833557128906</v>
+        <v>605.8125610351562</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1374.269897460938</v>
+        <v>477.7388305664062</v>
       </c>
       <c r="C4" t="n">
-        <v>1403.255737304688</v>
+        <v>512.2588500976562</v>
       </c>
       <c r="D4" t="n">
-        <v>1422.399780273438</v>
+        <v>500.5446166992188</v>
       </c>
       <c r="E4" t="n">
-        <v>1422.599975585938</v>
+        <v>505.044921875</v>
       </c>
       <c r="F4" t="n">
-        <v>1415.652099609375</v>
+        <v>519.217529296875</v>
       </c>
       <c r="G4" t="n">
-        <v>1397.983520507812</v>
+        <v>506.7359924316406</v>
       </c>
       <c r="H4" t="n">
-        <v>1380.28369140625</v>
+        <v>507.4573364257812</v>
       </c>
       <c r="I4" t="n">
-        <v>1373.045776367188</v>
+        <v>522.7886352539062</v>
       </c>
       <c r="J4" t="n">
-        <v>1356.867309570312</v>
+        <v>509.2195434570312</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.908203125</v>
+        <v>510.1250610351562</v>
       </c>
       <c r="L4" t="n">
-        <v>1348.919799804688</v>
+        <v>525.2547607421875</v>
       </c>
       <c r="M4" t="n">
-        <v>1327.436889648438</v>
+        <v>511.0257873535156</v>
       </c>
       <c r="N4" t="n">
-        <v>1319.966918945312</v>
+        <v>511.4830017089844</v>
       </c>
       <c r="O4" t="n">
-        <v>1331.7373046875</v>
+        <v>528.1170043945312</v>
       </c>
       <c r="P4" t="n">
-        <v>1330.828979492188</v>
+        <v>529.15771484375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1329.5947265625</v>
+        <v>529.5078125</v>
       </c>
       <c r="R4" t="n">
-        <v>1333.366333007812</v>
+        <v>529.9412841796875</v>
       </c>
       <c r="S4" t="n">
-        <v>1336.981811523438</v>
+        <v>513.1119995117188</v>
       </c>
       <c r="T4" t="n">
-        <v>1336.991821289062</v>
+        <v>513.99658203125</v>
       </c>
       <c r="U4" t="n">
-        <v>1341.254150390625</v>
+        <v>531.3511352539062</v>
       </c>
       <c r="V4" t="n">
-        <v>1341.39794921875</v>
+        <v>515.8003540039062</v>
       </c>
       <c r="W4" t="n">
-        <v>1334.08642578125</v>
+        <v>516.0654296875</v>
       </c>
       <c r="X4" t="n">
-        <v>1316.2509765625</v>
+        <v>533.0060424804688</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.513305664062</v>
+        <v>517.1063842773438</v>
       </c>
       <c r="Z4" t="n">
-        <v>1309.268798828125</v>
+        <v>517.6982421875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1301.41552734375</v>
+        <v>534.4122314453125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1279.487426757812</v>
+        <v>518.7015380859375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1244.136962890625</v>
+        <v>519.28759765625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1211.2138671875</v>
+        <v>535.6961059570312</v>
       </c>
       <c r="AE4" t="n">
-        <v>1181.603393554688</v>
+        <v>520.3372192382812</v>
       </c>
       <c r="AF4" t="n">
-        <v>1144.59423828125</v>
+        <v>520.93017578125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1116.6044921875</v>
+        <v>537.9135131835938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1097.797973632812</v>
+        <v>538.469482421875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1069.839477539062</v>
+        <v>539.1580200195312</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1044.389770507812</v>
+        <v>540.7237548828125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1031.11181640625</v>
+        <v>523.3510131835938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1016.577026367188</v>
+        <v>544.0181274414062</v>
       </c>
       <c r="AM4" t="n">
-        <v>1001.945617675781</v>
+        <v>526.8024291992188</v>
       </c>
       <c r="AN4" t="n">
-        <v>997.3783569335938</v>
+        <v>546.4488525390625</v>
       </c>
       <c r="AO4" t="n">
-        <v>995.6864013671875</v>
+        <v>528.4818725585938</v>
       </c>
       <c r="AP4" t="n">
-        <v>990.9808349609375</v>
+        <v>548.5739135742188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>989.883544921875</v>
+        <v>531.3495483398438</v>
       </c>
       <c r="AR4" t="n">
-        <v>994.1556396484375</v>
+        <v>554.2259521484375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1001.312866210938</v>
+        <v>607.47509765625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1013.814270019531</v>
+        <v>631.58203125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1030.483032226562</v>
+        <v>662.5052490234375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1034.377685546875</v>
+        <v>702.4965209960938</v>
       </c>
       <c r="AW4" t="n">
-        <v>1039.134521484375</v>
+        <v>745.645263671875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1049.370727539062</v>
+        <v>787.6065063476562</v>
       </c>
       <c r="AY4" t="n">
-        <v>1058.294799804688</v>
+        <v>831.2337646484375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1070.802978515625</v>
+        <v>857.7698974609375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1079.938232421875</v>
+        <v>863.1289672851562</v>
       </c>
       <c r="BB4" t="n">
-        <v>1092.424072265625</v>
+        <v>872.1890869140625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1094.770385742188</v>
+        <v>879.1500244140625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1094.353515625</v>
+        <v>883.749267578125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1097.561645507812</v>
+        <v>896.2492065429688</v>
       </c>
       <c r="BF4" t="n">
-        <v>1096.340454101562</v>
+        <v>911.875244140625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1094.103271484375</v>
+        <v>920.6028442382812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1090.960815429688</v>
+        <v>933.2715454101562</v>
       </c>
       <c r="BI4" t="n">
-        <v>1084.816040039062</v>
+        <v>944.17724609375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1063.4501953125</v>
+        <v>942.4915771484375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1044.065063476562</v>
+        <v>942.5858154296875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1042.194213867188</v>
+        <v>945.7117919921875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1044.473388671875</v>
+        <v>944.8861083984375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1046.34814453125</v>
+        <v>948.0748901367188</v>
       </c>
       <c r="BO4" t="n">
-        <v>1042.4755859375</v>
+        <v>947.1514282226562</v>
       </c>
       <c r="BP4" t="n">
-        <v>1037.2548828125</v>
+        <v>940.4279174804688</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1034.175903320312</v>
+        <v>934.8446044921875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1028.359130859375</v>
+        <v>934.2997436523438</v>
       </c>
       <c r="BS4" t="n">
-        <v>1016.809997558594</v>
+        <v>938.15673828125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1003.052368164062</v>
+        <v>948.9354858398438</v>
       </c>
       <c r="BU4" t="n">
-        <v>994.9061889648438</v>
+        <v>961.6168212890625</v>
       </c>
       <c r="BV4" t="n">
-        <v>989.951416015625</v>
+        <v>972.3839111328125</v>
       </c>
       <c r="BW4" t="n">
-        <v>991.6974487304688</v>
+        <v>977.5625</v>
       </c>
       <c r="BX4" t="n">
-        <v>989.2763061523438</v>
+        <v>975.6282958984375</v>
       </c>
       <c r="BY4" t="n">
-        <v>983.99462890625</v>
+        <v>972.4827270507812</v>
       </c>
       <c r="BZ4" t="n">
-        <v>982.9508056640625</v>
+        <v>973.969970703125</v>
       </c>
       <c r="CA4" t="n">
-        <v>962.96240234375</v>
+        <v>976.468505859375</v>
       </c>
       <c r="CB4" t="n">
-        <v>966.7066040039062</v>
+        <v>956.072509765625</v>
       </c>
       <c r="CC4" t="n">
-        <v>968.869384765625</v>
+        <v>960.4141235351562</v>
       </c>
       <c r="CD4" t="n">
-        <v>966.5048217773438</v>
+        <v>953.4600219726562</v>
       </c>
       <c r="CE4" t="n">
-        <v>965.60302734375</v>
+        <v>947.7081298828125</v>
       </c>
       <c r="CF4" t="n">
-        <v>963.5463256835938</v>
+        <v>942.372314453125</v>
       </c>
       <c r="CG4" t="n">
-        <v>962.9295654296875</v>
+        <v>941.370361328125</v>
       </c>
       <c r="CH4" t="n">
-        <v>962.0538940429688</v>
+        <v>944.7615966796875</v>
       </c>
       <c r="CI4" t="n">
-        <v>959.1585083007812</v>
+        <v>946.505126953125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>954.0717163085938</v>
+        <v>949.9480590820312</v>
       </c>
       <c r="CK4" t="n">
-        <v>961.407958984375</v>
+        <v>944.1644897460938</v>
       </c>
       <c r="CL4" t="n">
-        <v>1019.872131347656</v>
+        <v>936.1788940429688</v>
       </c>
       <c r="CM4" t="n">
-        <v>1082.649658203125</v>
+        <v>937.3759155273438</v>
       </c>
       <c r="CN4" t="n">
-        <v>1146.464233398438</v>
+        <v>943.50927734375</v>
       </c>
       <c r="CO4" t="n">
-        <v>1207.825927734375</v>
+        <v>944.9991455078125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1225.636596679688</v>
+        <v>940.7738647460938</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1230.46142578125</v>
+        <v>943.493408203125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1230.170532226562</v>
+        <v>975.3485107421875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1227.412475585938</v>
+        <v>975.0781860351562</v>
       </c>
       <c r="CT4" t="n">
-        <v>1218.632202148438</v>
+        <v>974.8134765625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1217.311157226562</v>
+        <v>978.6613159179688</v>
       </c>
       <c r="CV4" t="n">
-        <v>1217.379638671875</v>
+        <v>979.2027587890625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1214.603271484375</v>
+        <v>957.5447998046875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1211.449584960938</v>
+        <v>958.9844970703125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1171.124633789062</v>
+        <v>960.8905639648438</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1149.40771484375</v>
+        <v>966.7083740234375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1141.308959960938</v>
+        <v>970.9193725585938</v>
       </c>
       <c r="DB4" t="n">
-        <v>1132.203247070312</v>
+        <v>998.300537109375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1133.724365234375</v>
+        <v>999.9650268554688</v>
       </c>
       <c r="DD4" t="n">
-        <v>1138.477294921875</v>
+        <v>1004.133056640625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1132.954345703125</v>
+        <v>1009.65380859375</v>
       </c>
       <c r="DF4" t="n">
-        <v>1021.691772460938</v>
+        <v>1004.929138183594</v>
       </c>
       <c r="DG4" t="n">
-        <v>967.0633544921875</v>
+        <v>999.4605102539062</v>
       </c>
       <c r="DH4" t="n">
-        <v>959.771484375</v>
+        <v>995.465576171875</v>
       </c>
       <c r="DI4" t="n">
-        <v>952.2725219726562</v>
+        <v>992.54541015625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>960.4942016601562</v>
+        <v>987.1980590820312</v>
       </c>
       <c r="DK4" t="n">
-        <v>972.1070556640625</v>
+        <v>976.4751586914062</v>
       </c>
       <c r="DL4" t="n">
-        <v>985.5402221679688</v>
+        <v>964.4208374023438</v>
       </c>
       <c r="DM4" t="n">
-        <v>1020.114990234375</v>
+        <v>959.9208374023438</v>
       </c>
       <c r="DN4" t="n">
-        <v>1132.520141601562</v>
+        <v>946.3353271484375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1178.486450195312</v>
+        <v>936.5731201171875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1179.939086914062</v>
+        <v>932.6651611328125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1195.972045898438</v>
+        <v>938.87548828125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1219.223754882812</v>
+        <v>936.8074340820312</v>
       </c>
       <c r="DS4" t="n">
-        <v>1223.49169921875</v>
+        <v>937.480224609375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1221.3388671875</v>
+        <v>937.08837890625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1222.96826171875</v>
+        <v>946.54443359375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1228.959228515625</v>
+        <v>963.0963745117188</v>
       </c>
       <c r="DW4" t="n">
-        <v>1227.42626953125</v>
+        <v>1002.226623535156</v>
       </c>
       <c r="DX4" t="n">
-        <v>1226.291259765625</v>
+        <v>1016.141479492188</v>
       </c>
       <c r="DY4" t="n">
-        <v>1222.451904296875</v>
+        <v>1041.574096679688</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1214.7861328125</v>
+        <v>1051.117309570312</v>
       </c>
       <c r="EA4" t="n">
-        <v>1189.9775390625</v>
+        <v>1068.932983398438</v>
       </c>
       <c r="EB4" t="n">
-        <v>1171.277221679688</v>
+        <v>1073.488037109375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1154.434692382812</v>
+        <v>1078.51953125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1144.060424804688</v>
+        <v>1071.395751953125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1118.457885742188</v>
+        <v>1036.4130859375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1085.542236328125</v>
+        <v>1034.092651367188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1005.10986328125</v>
+        <v>1046.815307617188</v>
       </c>
       <c r="EH4" t="n">
-        <v>984.0853271484375</v>
+        <v>1063.781127929688</v>
       </c>
       <c r="EI4" t="n">
-        <v>970.7601928710938</v>
+        <v>1054.273193359375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>947.6659545898438</v>
+        <v>1042.443725585938</v>
       </c>
       <c r="EK4" t="n">
-        <v>945.1685791015625</v>
+        <v>1039.089233398438</v>
       </c>
       <c r="EL4" t="n">
-        <v>941.6019287109375</v>
+        <v>1043.515869140625</v>
       </c>
       <c r="EM4" t="n">
-        <v>937.3821411132812</v>
+        <v>1052.298217773438</v>
       </c>
       <c r="EN4" t="n">
-        <v>936.6463623046875</v>
+        <v>1055.398193359375</v>
       </c>
       <c r="EO4" t="n">
-        <v>936.76904296875</v>
+        <v>1066.81494140625</v>
       </c>
       <c r="EP4" t="n">
-        <v>936.95849609375</v>
+        <v>1073.848266601562</v>
       </c>
       <c r="EQ4" t="n">
-        <v>935.7267456054688</v>
+        <v>1081.139770507812</v>
       </c>
       <c r="ER4" t="n">
-        <v>932.293701171875</v>
+        <v>1082.792114257812</v>
       </c>
       <c r="ES4" t="n">
-        <v>934.4791870117188</v>
+        <v>1094.790893554688</v>
       </c>
       <c r="ET4" t="n">
-        <v>935.0440673828125</v>
+        <v>1131.340209960938</v>
       </c>
       <c r="EU4" t="n">
-        <v>933.5172119140625</v>
+        <v>1108.284057617188</v>
       </c>
       <c r="EV4" t="n">
-        <v>944.5595703125</v>
+        <v>1107.8251953125</v>
       </c>
       <c r="EW4" t="n">
-        <v>945.8504638671875</v>
+        <v>1133.433715820312</v>
       </c>
       <c r="EX4" t="n">
-        <v>940.6688842773438</v>
+        <v>1152.45654296875</v>
       </c>
       <c r="EY4" t="n">
-        <v>936.5169677734375</v>
+        <v>1166.735595703125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>935.1265869140625</v>
+        <v>1200.388305664062</v>
       </c>
       <c r="FA4" t="n">
-        <v>930.0046997070312</v>
+        <v>1157.251342773438</v>
       </c>
       <c r="FB4" t="n">
-        <v>924.360107421875</v>
+        <v>1249.622314453125</v>
       </c>
       <c r="FC4" t="n">
-        <v>916.396240234375</v>
+        <v>1236.035888671875</v>
       </c>
       <c r="FD4" t="n">
-        <v>913.3959350585938</v>
+        <v>1229.059204101562</v>
       </c>
       <c r="FE4" t="n">
-        <v>912.97607421875</v>
+        <v>1194.443481445312</v>
       </c>
       <c r="FF4" t="n">
-        <v>913.0491333007812</v>
+        <v>1175.0224609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>911.8792114257812</v>
+        <v>1130.063598632812</v>
       </c>
       <c r="FH4" t="n">
-        <v>912.7628173828125</v>
+        <v>1086.983642578125</v>
       </c>
       <c r="FI4" t="n">
-        <v>915.64599609375</v>
+        <v>1121.925048828125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>916.3929443359375</v>
+        <v>1097.031616210938</v>
       </c>
       <c r="FK4" t="n">
-        <v>905.3983154296875</v>
+        <v>1058.7666015625</v>
       </c>
       <c r="FL4" t="n">
-        <v>884.1380615234375</v>
+        <v>1037.124145507812</v>
       </c>
       <c r="FM4" t="n">
-        <v>869.8621826171875</v>
+        <v>986.24365234375</v>
       </c>
       <c r="FN4" t="n">
-        <v>814.6205444335938</v>
+        <v>939.2012329101562</v>
       </c>
       <c r="FO4" t="n">
-        <v>796.2694702148438</v>
+        <v>915.8731689453125</v>
       </c>
       <c r="FP4" t="n">
-        <v>758.25927734375</v>
+        <v>898.7218627929688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>723.1533203125</v>
+        <v>869.9359130859375</v>
       </c>
       <c r="FR4" t="n">
-        <v>709.5513305664062</v>
+        <v>861.1884155273438</v>
       </c>
       <c r="FS4" t="n">
-        <v>694.43310546875</v>
+        <v>845.2396240234375</v>
       </c>
       <c r="FT4" t="n">
-        <v>681.8910522460938</v>
+        <v>832.9254150390625</v>
       </c>
       <c r="FU4" t="n">
-        <v>676.859619140625</v>
+        <v>821.3331298828125</v>
       </c>
       <c r="FV4" t="n">
-        <v>663.01123046875</v>
+        <v>818.6038208007812</v>
       </c>
       <c r="FW4" t="n">
-        <v>651.4418334960938</v>
+        <v>800.8673706054688</v>
       </c>
       <c r="FX4" t="n">
-        <v>637.728759765625</v>
+        <v>811.7667846679688</v>
       </c>
       <c r="FY4" t="n">
-        <v>633.0702514648438</v>
+        <v>823.61962890625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>628.7122802734375</v>
+        <v>830.545166015625</v>
       </c>
       <c r="GA4" t="n">
-        <v>621.5646362304688</v>
+        <v>843.4418334960938</v>
       </c>
       <c r="GB4" t="n">
-        <v>613.8941650390625</v>
+        <v>847.7811279296875</v>
       </c>
       <c r="GC4" t="n">
-        <v>611.4821166992188</v>
+        <v>861.1636962890625</v>
       </c>
       <c r="GD4" t="n">
-        <v>608.0894775390625</v>
+        <v>872.1350708007812</v>
       </c>
       <c r="GE4" t="n">
-        <v>610.8687744140625</v>
+        <v>870.4942016601562</v>
       </c>
       <c r="GF4" t="n">
-        <v>557.443115234375</v>
+        <v>865.2272338867188</v>
       </c>
       <c r="GG4" t="n">
-        <v>501.9293212890625</v>
+        <v>847.7041625976562</v>
       </c>
       <c r="GH4" t="n">
-        <v>444.1511535644531</v>
+        <v>834.7334594726562</v>
       </c>
       <c r="GI4" t="n">
-        <v>398.0885925292969</v>
+        <v>829.4362182617188</v>
       </c>
       <c r="GJ4" t="n">
-        <v>363.0278015136719</v>
+        <v>824.8095703125</v>
       </c>
       <c r="GK4" t="n">
-        <v>353.2926635742188</v>
+        <v>802.978515625</v>
       </c>
       <c r="GL4" t="n">
-        <v>346.7713012695312</v>
+        <v>788.4967041015625</v>
       </c>
       <c r="GM4" t="n">
-        <v>352.8566284179688</v>
+        <v>763.0608520507812</v>
       </c>
       <c r="GN4" t="n">
-        <v>358.8092041015625</v>
+        <v>734.6966552734375</v>
       </c>
       <c r="GO4" t="n">
-        <v>356.4056396484375</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>354.7058410644531</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>350.2332763671875</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>333.9113159179688</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>327.6116027832031</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>332.3863220214844</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>379.9048461914062</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>407.9331359863281</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>430.5448608398438</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>445.3938293457031</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>431.1477355957031</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>692.2633056640625</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>716.3670043945312</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>682.7294921875</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>671.828369140625</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>717.7548217773438</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>748.8672485351562</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>767.1343994140625</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>782.3035888671875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>785.5716552734375</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>785.0494384765625</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>783.678955078125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>782.5586547851562</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>751.9796142578125</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>736.4568481445312</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>703.7258911132812</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>694.94189453125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>695.251708984375</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>695.6734008789062</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>694.6566772460938</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>693.2297973632812</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>690.85400390625</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>690.210693359375</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>593.2521362304688</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>588.4191284179688</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>597.7830810546875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>591.1893920898438</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>808.1712646484375</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>895.8894653320312</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>849.9622192382812</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>811.6389770507812</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>663.3637084960938</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>907.471923828125</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>944.3585205078125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>889.5321655273438</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>675.3958129882812</v>
-      </c>
-      <c r="II4" t="n">
-        <v>862.4483032226562</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>892.5468139648438</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>877.6488647460938</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>807.6553344726562</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>540.8744506835938</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>511.3450012207031</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>546.7719116210938</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>545.8340454101562</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>543.4140625</v>
+        <v>719.2565307617188</v>
       </c>
     </row>
   </sheetData>

--- a/right_hand_Data.xlsx
+++ b/right_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>56.52770233154297</v>
       </c>
       <c r="B2" t="n">
-        <v>259.9367980957031</v>
+        <v>55.06684112548828</v>
       </c>
       <c r="C2" t="n">
-        <v>287.1679382324219</v>
+        <v>55.10080718994141</v>
       </c>
       <c r="D2" t="n">
-        <v>230.9943237304688</v>
+        <v>55.19885635375977</v>
       </c>
       <c r="E2" t="n">
-        <v>223.5751037597656</v>
+        <v>55.23382186889648</v>
       </c>
       <c r="F2" t="n">
-        <v>283.5775756835938</v>
+        <v>54.99789810180664</v>
       </c>
       <c r="G2" t="n">
-        <v>233.3485717773438</v>
+        <v>54.71710586547852</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3144226074219</v>
+        <v>54.46304321289062</v>
       </c>
       <c r="I2" t="n">
-        <v>283.3280639648438</v>
+        <v>54.27764511108398</v>
       </c>
       <c r="J2" t="n">
-        <v>235.9179382324219</v>
+        <v>54.06779479980469</v>
       </c>
       <c r="K2" t="n">
-        <v>232.6534729003906</v>
+        <v>53.89850616455078</v>
       </c>
       <c r="L2" t="n">
-        <v>283.8772888183594</v>
+        <v>53.21198272705078</v>
       </c>
       <c r="M2" t="n">
-        <v>235.9832458496094</v>
+        <v>52.6073112487793</v>
       </c>
       <c r="N2" t="n">
-        <v>236.8357543945312</v>
+        <v>52.32353210449219</v>
       </c>
       <c r="O2" t="n">
-        <v>285.0429382324219</v>
+        <v>51.94902038574219</v>
       </c>
       <c r="P2" t="n">
-        <v>285.5114135742188</v>
+        <v>51.61670684814453</v>
       </c>
       <c r="Q2" t="n">
-        <v>285.3864440917969</v>
+        <v>51.48965454101562</v>
       </c>
       <c r="R2" t="n">
-        <v>285.3800354003906</v>
+        <v>51.72507858276367</v>
       </c>
       <c r="S2" t="n">
-        <v>260.8266906738281</v>
+        <v>52.15966033935547</v>
       </c>
       <c r="T2" t="n">
-        <v>246.0041198730469</v>
+        <v>51.34455871582031</v>
       </c>
       <c r="U2" t="n">
-        <v>285.0025024414062</v>
+        <v>44.35596466064453</v>
       </c>
       <c r="V2" t="n">
-        <v>234.8736267089844</v>
+        <v>39.17383575439453</v>
       </c>
       <c r="W2" t="n">
-        <v>237.6905517578125</v>
+        <v>44.86183166503906</v>
       </c>
       <c r="X2" t="n">
-        <v>284.3256530761719</v>
+        <v>51.54742431640625</v>
       </c>
       <c r="Y2" t="n">
-        <v>237.5806274414062</v>
+        <v>64.3262939453125</v>
       </c>
       <c r="Z2" t="n">
-        <v>236.8189239501953</v>
+        <v>75.60628509521484</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.7032775878906</v>
+        <v>79.69253540039062</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.2048187255859</v>
+        <v>85.720458984375</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.8976593017578</v>
+        <v>101.3694915771484</v>
       </c>
       <c r="AD2" t="n">
-        <v>283.0020446777344</v>
+        <v>115.2915267944336</v>
       </c>
       <c r="AE2" t="n">
-        <v>239.7317657470703</v>
+        <v>126.6648025512695</v>
       </c>
       <c r="AF2" t="n">
-        <v>239.9399566650391</v>
+        <v>134.2204742431641</v>
       </c>
       <c r="AG2" t="n">
-        <v>283.4285278320312</v>
+        <v>139.8559875488281</v>
       </c>
       <c r="AH2" t="n">
-        <v>283.2162475585938</v>
+        <v>145.8974456787109</v>
       </c>
       <c r="AI2" t="n">
-        <v>283.3274841308594</v>
+        <v>155.5830688476562</v>
       </c>
       <c r="AJ2" t="n">
-        <v>284.2036743164062</v>
+        <v>163.2987670898438</v>
       </c>
       <c r="AK2" t="n">
-        <v>258.3380126953125</v>
+        <v>169.4697418212891</v>
       </c>
       <c r="AL2" t="n">
-        <v>286.6762084960938</v>
+        <v>246.2602233886719</v>
       </c>
       <c r="AM2" t="n">
-        <v>243.1295166015625</v>
+        <v>246.2782592773438</v>
       </c>
       <c r="AN2" t="n">
-        <v>285.45263671875</v>
+        <v>249.0232086181641</v>
       </c>
       <c r="AO2" t="n">
-        <v>240.0403137207031</v>
+        <v>245.4530487060547</v>
       </c>
       <c r="AP2" t="n">
-        <v>285.1541748046875</v>
+        <v>246.4523620605469</v>
       </c>
       <c r="AQ2" t="n">
-        <v>231.6817626953125</v>
+        <v>246.203857421875</v>
       </c>
       <c r="AR2" t="n">
-        <v>258.8493041992188</v>
+        <v>246.2892303466797</v>
       </c>
       <c r="AS2" t="n">
-        <v>318.2388916015625</v>
+        <v>246.8248901367188</v>
       </c>
       <c r="AT2" t="n">
-        <v>266.1270141601562</v>
+        <v>247.787353515625</v>
       </c>
       <c r="AU2" t="n">
-        <v>266.4015197753906</v>
+        <v>148.9725494384766</v>
       </c>
       <c r="AV2" t="n">
-        <v>270.1639709472656</v>
+        <v>168.2285461425781</v>
       </c>
       <c r="AW2" t="n">
-        <v>289.2105102539062</v>
+        <v>170.1128234863281</v>
       </c>
       <c r="AX2" t="n">
-        <v>311.3210754394531</v>
+        <v>171.6513366699219</v>
       </c>
       <c r="AY2" t="n">
-        <v>327.1386108398438</v>
+        <v>172.6553497314453</v>
       </c>
       <c r="AZ2" t="n">
-        <v>335.9454956054688</v>
+        <v>175.6336822509766</v>
       </c>
       <c r="BA2" t="n">
-        <v>341.13671875</v>
+        <v>179.9069213867188</v>
       </c>
       <c r="BB2" t="n">
-        <v>342.5679016113281</v>
+        <v>184.6625671386719</v>
       </c>
       <c r="BC2" t="n">
-        <v>346.2508544921875</v>
+        <v>189.9464721679688</v>
       </c>
       <c r="BD2" t="n">
-        <v>353.7982482910156</v>
+        <v>201.4621734619141</v>
       </c>
       <c r="BE2" t="n">
-        <v>362.4342041015625</v>
+        <v>215.37890625</v>
       </c>
       <c r="BF2" t="n">
-        <v>362.5803833007812</v>
+        <v>222.0998840332031</v>
       </c>
       <c r="BG2" t="n">
-        <v>361.8913269042969</v>
+        <v>228.8987426757812</v>
       </c>
       <c r="BH2" t="n">
-        <v>359.4302978515625</v>
+        <v>234.17431640625</v>
       </c>
       <c r="BI2" t="n">
-        <v>357.1332397460938</v>
+        <v>241.8891296386719</v>
       </c>
       <c r="BJ2" t="n">
-        <v>343.1667785644531</v>
+        <v>246.6854553222656</v>
       </c>
       <c r="BK2" t="n">
-        <v>328.2482299804688</v>
+        <v>249.344970703125</v>
       </c>
       <c r="BL2" t="n">
-        <v>322.546142578125</v>
+        <v>249.2116546630859</v>
       </c>
       <c r="BM2" t="n">
-        <v>321.4282836914062</v>
+        <v>249.1356811523438</v>
       </c>
       <c r="BN2" t="n">
-        <v>321.7293701171875</v>
+        <v>250.0984954833984</v>
       </c>
       <c r="BO2" t="n">
-        <v>317.888427734375</v>
+        <v>255.8716125488281</v>
       </c>
       <c r="BP2" t="n">
-        <v>310.5345764160156</v>
+        <v>262.5065612792969</v>
       </c>
       <c r="BQ2" t="n">
-        <v>302.4295959472656</v>
+        <v>266.5105590820312</v>
       </c>
       <c r="BR2" t="n">
-        <v>293.1936340332031</v>
+        <v>273.7178649902344</v>
       </c>
       <c r="BS2" t="n">
-        <v>287.3908081054688</v>
+        <v>276.6258544921875</v>
       </c>
       <c r="BT2" t="n">
-        <v>286.9124145507812</v>
+        <v>277.0117492675781</v>
       </c>
       <c r="BU2" t="n">
-        <v>283.9332580566406</v>
+        <v>276.8048706054688</v>
       </c>
       <c r="BV2" t="n">
-        <v>277.6282043457031</v>
+        <v>277.5432739257812</v>
       </c>
       <c r="BW2" t="n">
-        <v>269.6847534179688</v>
+        <v>282.0302429199219</v>
       </c>
       <c r="BX2" t="n">
-        <v>264.1446533203125</v>
+        <v>291.2416076660156</v>
       </c>
       <c r="BY2" t="n">
-        <v>256.6801452636719</v>
+        <v>296.8711242675781</v>
       </c>
       <c r="BZ2" t="n">
-        <v>251.2106323242188</v>
+        <v>300.9731750488281</v>
       </c>
       <c r="CA2" t="n">
-        <v>244.4128570556641</v>
+        <v>305.3121643066406</v>
       </c>
       <c r="CB2" t="n">
-        <v>243.4209442138672</v>
+        <v>304.4755249023438</v>
       </c>
       <c r="CC2" t="n">
-        <v>235.7082824707031</v>
+        <v>305.0624084472656</v>
       </c>
       <c r="CD2" t="n">
-        <v>232.3492431640625</v>
+        <v>306.2509765625</v>
       </c>
       <c r="CE2" t="n">
-        <v>230.8392639160156</v>
+        <v>309.6880798339844</v>
       </c>
       <c r="CF2" t="n">
-        <v>231.7717895507812</v>
+        <v>311.8249206542969</v>
       </c>
       <c r="CG2" t="n">
-        <v>235.2738189697266</v>
+        <v>311.4126892089844</v>
       </c>
       <c r="CH2" t="n">
-        <v>234.6905212402344</v>
+        <v>310.5771789550781</v>
       </c>
       <c r="CI2" t="n">
-        <v>236.0710144042969</v>
+        <v>308.8757629394531</v>
       </c>
       <c r="CJ2" t="n">
-        <v>235.7807769775391</v>
+        <v>307.4906616210938</v>
       </c>
       <c r="CK2" t="n">
-        <v>231.4055023193359</v>
+        <v>307.0144653320312</v>
       </c>
       <c r="CL2" t="n">
-        <v>225.6466522216797</v>
+        <v>306.5564575195312</v>
       </c>
       <c r="CM2" t="n">
-        <v>221.5127868652344</v>
+        <v>305.1841125488281</v>
       </c>
       <c r="CN2" t="n">
-        <v>215.5418243408203</v>
+        <v>304.1239624023438</v>
       </c>
       <c r="CO2" t="n">
-        <v>209.9453430175781</v>
+        <v>304.1781921386719</v>
       </c>
       <c r="CP2" t="n">
-        <v>205.3416748046875</v>
+        <v>303.708251953125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>203.8002166748047</v>
+        <v>302.4585876464844</v>
       </c>
       <c r="CR2" t="n">
-        <v>229.2264556884766</v>
+        <v>299.6482543945312</v>
       </c>
       <c r="CS2" t="n">
-        <v>237.5729064941406</v>
+        <v>295.8213500976562</v>
       </c>
       <c r="CT2" t="n">
-        <v>242.2325134277344</v>
+        <v>293.8176879882812</v>
       </c>
       <c r="CU2" t="n">
-        <v>248.4310760498047</v>
+        <v>292.4806823730469</v>
       </c>
       <c r="CV2" t="n">
-        <v>256.1076354980469</v>
+        <v>291.5244140625</v>
       </c>
       <c r="CW2" t="n">
-        <v>259.9756469726562</v>
+        <v>292.3231506347656</v>
       </c>
       <c r="CX2" t="n">
-        <v>267.1882019042969</v>
+        <v>291.3152770996094</v>
       </c>
       <c r="CY2" t="n">
-        <v>273.1458129882812</v>
+        <v>288.1604919433594</v>
       </c>
       <c r="CZ2" t="n">
-        <v>280.94287109375</v>
+        <v>285.9465026855469</v>
       </c>
       <c r="DA2" t="n">
-        <v>290.6956481933594</v>
+        <v>282.8729553222656</v>
       </c>
       <c r="DB2" t="n">
-        <v>303.3723449707031</v>
+        <v>280.1733093261719</v>
       </c>
       <c r="DC2" t="n">
-        <v>307.9294738769531</v>
+        <v>275.0514526367188</v>
       </c>
       <c r="DD2" t="n">
-        <v>312.6603698730469</v>
+        <v>272.131591796875</v>
       </c>
       <c r="DE2" t="n">
-        <v>316.5278015136719</v>
+        <v>274.2445678710938</v>
       </c>
       <c r="DF2" t="n">
-        <v>324.1392517089844</v>
+        <v>274.4357299804688</v>
       </c>
       <c r="DG2" t="n">
-        <v>330.4161987304688</v>
+        <v>274.1533508300781</v>
       </c>
       <c r="DH2" t="n">
-        <v>335.1149291992188</v>
+        <v>274.0416564941406</v>
       </c>
       <c r="DI2" t="n">
-        <v>334.7236328125</v>
+        <v>274.5415649414062</v>
       </c>
       <c r="DJ2" t="n">
-        <v>334.6039428710938</v>
+        <v>274.5843811035156</v>
       </c>
       <c r="DK2" t="n">
-        <v>334.5760498046875</v>
+        <v>274.572998046875</v>
       </c>
       <c r="DL2" t="n">
-        <v>334.6675109863281</v>
+        <v>274.1831665039062</v>
       </c>
       <c r="DM2" t="n">
-        <v>334.14306640625</v>
+        <v>273.8428039550781</v>
       </c>
       <c r="DN2" t="n">
-        <v>334.2988891601562</v>
+        <v>274.0962524414062</v>
       </c>
       <c r="DO2" t="n">
-        <v>335.835693359375</v>
+        <v>274.7068176269531</v>
       </c>
       <c r="DP2" t="n">
-        <v>335.9687805175781</v>
+        <v>274.8940734863281</v>
       </c>
       <c r="DQ2" t="n">
-        <v>331.9302673339844</v>
+        <v>275.1532287597656</v>
       </c>
       <c r="DR2" t="n">
-        <v>326.2974243164062</v>
+        <v>275.590087890625</v>
       </c>
       <c r="DS2" t="n">
-        <v>317.0508728027344</v>
+        <v>276.1730651855469</v>
       </c>
       <c r="DT2" t="n">
-        <v>302.0887756347656</v>
+        <v>279.0786743164062</v>
       </c>
       <c r="DU2" t="n">
-        <v>297.0465698242188</v>
+        <v>280.905517578125</v>
       </c>
       <c r="DV2" t="n">
-        <v>292.0242614746094</v>
+        <v>281.8905639648438</v>
       </c>
       <c r="DW2" t="n">
-        <v>284.4766540527344</v>
+        <v>278.7286987304688</v>
       </c>
       <c r="DX2" t="n">
-        <v>281.1371765136719</v>
+        <v>278.4075317382812</v>
       </c>
       <c r="DY2" t="n">
-        <v>278.0307922363281</v>
+        <v>277.0980529785156</v>
       </c>
       <c r="DZ2" t="n">
-        <v>277.9977416992188</v>
+        <v>269.6960754394531</v>
       </c>
       <c r="EA2" t="n">
-        <v>272.9547424316406</v>
+        <v>267.3446350097656</v>
       </c>
       <c r="EB2" t="n">
-        <v>265.9347534179688</v>
+        <v>264.8624267578125</v>
       </c>
       <c r="EC2" t="n">
-        <v>266.4524230957031</v>
+        <v>262.821533203125</v>
       </c>
       <c r="ED2" t="n">
-        <v>269.8704223632812</v>
+        <v>262.9624938964844</v>
       </c>
       <c r="EE2" t="n">
-        <v>285.9148559570312</v>
+        <v>265.1369323730469</v>
       </c>
       <c r="EF2" t="n">
-        <v>285.120849609375</v>
+        <v>268.0689392089844</v>
       </c>
       <c r="EG2" t="n">
-        <v>285.0447082519531</v>
+        <v>274.2976989746094</v>
       </c>
       <c r="EH2" t="n">
-        <v>283.6638488769531</v>
+        <v>274.4233093261719</v>
       </c>
       <c r="EI2" t="n">
-        <v>281.8995361328125</v>
+        <v>270.66650390625</v>
       </c>
       <c r="EJ2" t="n">
-        <v>281.7526245117188</v>
+        <v>273.1990661621094</v>
       </c>
       <c r="EK2" t="n">
-        <v>301.7236938476562</v>
+        <v>266.0025024414062</v>
       </c>
       <c r="EL2" t="n">
-        <v>309.0884094238281</v>
+        <v>260.5580749511719</v>
       </c>
       <c r="EM2" t="n">
-        <v>305.5120239257812</v>
+        <v>248.3116760253906</v>
       </c>
       <c r="EN2" t="n">
-        <v>306.1554565429688</v>
+        <v>237.1917114257812</v>
       </c>
       <c r="EO2" t="n">
-        <v>309.6074829101562</v>
+        <v>226.6705322265625</v>
       </c>
       <c r="EP2" t="n">
-        <v>312.3592224121094</v>
+        <v>214.3925170898438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>312.4074401855469</v>
+        <v>209.7369079589844</v>
       </c>
       <c r="ER2" t="n">
-        <v>311.4424743652344</v>
+        <v>201.7149963378906</v>
       </c>
       <c r="ES2" t="n">
-        <v>308.8479309082031</v>
+        <v>203.6114196777344</v>
       </c>
       <c r="ET2" t="n">
-        <v>282.4386596679688</v>
+        <v>198.577392578125</v>
       </c>
       <c r="EU2" t="n">
-        <v>268.6009521484375</v>
+        <v>200.1920776367188</v>
       </c>
       <c r="EV2" t="n">
-        <v>265.2058410644531</v>
+        <v>208.7408752441406</v>
       </c>
       <c r="EW2" t="n">
-        <v>245.9268341064453</v>
+        <v>201.4166564941406</v>
       </c>
       <c r="EX2" t="n">
-        <v>234.467529296875</v>
+        <v>207.5331420898438</v>
       </c>
       <c r="EY2" t="n">
-        <v>222.2340393066406</v>
+        <v>201.4241180419922</v>
       </c>
       <c r="EZ2" t="n">
-        <v>278.2215576171875</v>
+        <v>196.7580871582031</v>
       </c>
       <c r="FA2" t="n">
-        <v>309.9877014160156</v>
+        <v>197.7772521972656</v>
       </c>
       <c r="FB2" t="n">
-        <v>250.7740173339844</v>
+        <v>203.0193939208984</v>
       </c>
       <c r="FC2" t="n">
-        <v>246.2837982177734</v>
+        <v>195.9242248535156</v>
       </c>
       <c r="FD2" t="n">
-        <v>247.0690612792969</v>
+        <v>196.7180480957031</v>
       </c>
       <c r="FE2" t="n">
-        <v>242.1086120605469</v>
+        <v>196.4701995849609</v>
       </c>
       <c r="FF2" t="n">
-        <v>238.4887084960938</v>
+        <v>205.8191223144531</v>
       </c>
       <c r="FG2" t="n">
-        <v>236.2819061279297</v>
+        <v>195.5792846679688</v>
       </c>
       <c r="FH2" t="n">
-        <v>237.3619689941406</v>
+        <v>207.3806457519531</v>
       </c>
       <c r="FI2" t="n">
-        <v>229.5178070068359</v>
+        <v>199.3353424072266</v>
       </c>
       <c r="FJ2" t="n">
-        <v>226.0316162109375</v>
+        <v>197.3281555175781</v>
       </c>
       <c r="FK2" t="n">
-        <v>226.51611328125</v>
+        <v>202.1622009277344</v>
       </c>
       <c r="FL2" t="n">
-        <v>226.1382751464844</v>
+        <v>196.6263122558594</v>
       </c>
       <c r="FM2" t="n">
-        <v>228.2011413574219</v>
+        <v>193.6408996582031</v>
       </c>
       <c r="FN2" t="n">
-        <v>237.1652221679688</v>
+        <v>194.0132141113281</v>
       </c>
       <c r="FO2" t="n">
-        <v>240.8691711425781</v>
+        <v>195.6481323242188</v>
       </c>
       <c r="FP2" t="n">
-        <v>247.3046569824219</v>
+        <v>199.1642608642578</v>
       </c>
       <c r="FQ2" t="n">
-        <v>263.0748596191406</v>
+        <v>203.8182830810547</v>
       </c>
       <c r="FR2" t="n">
-        <v>270.8296203613281</v>
+        <v>206.5386047363281</v>
       </c>
       <c r="FS2" t="n">
-        <v>277.8839111328125</v>
+        <v>215.0810546875</v>
       </c>
       <c r="FT2" t="n">
-        <v>281.3618774414062</v>
+        <v>218.9522705078125</v>
       </c>
       <c r="FU2" t="n">
-        <v>281.8535766601562</v>
+        <v>230.1860961914062</v>
       </c>
       <c r="FV2" t="n">
-        <v>281.6188049316406</v>
+        <v>234.8019714355469</v>
       </c>
       <c r="FW2" t="n">
-        <v>337.0591430664062</v>
+        <v>255.3411712646484</v>
       </c>
       <c r="FX2" t="n">
-        <v>284.5627746582031</v>
+        <v>267.2846069335938</v>
       </c>
       <c r="FY2" t="n">
-        <v>274.6191101074219</v>
+        <v>279.3687438964844</v>
       </c>
       <c r="FZ2" t="n">
-        <v>275.8099365234375</v>
+        <v>286.0351257324219</v>
       </c>
       <c r="GA2" t="n">
-        <v>274.6089477539062</v>
+        <v>289.9739379882812</v>
       </c>
       <c r="GB2" t="n">
-        <v>268.3627624511719</v>
+        <v>292.3500366210938</v>
       </c>
       <c r="GC2" t="n">
-        <v>248.9393463134766</v>
+        <v>293.1185302734375</v>
       </c>
       <c r="GD2" t="n">
-        <v>242.2796783447266</v>
+        <v>290.2786560058594</v>
       </c>
       <c r="GE2" t="n">
-        <v>238.56494140625</v>
+        <v>286.737060546875</v>
       </c>
       <c r="GF2" t="n">
-        <v>230.7903442382812</v>
+        <v>275.2694702148438</v>
       </c>
       <c r="GG2" t="n">
-        <v>218.4983062744141</v>
+        <v>271.8826599121094</v>
       </c>
       <c r="GH2" t="n">
-        <v>208.7525329589844</v>
+        <v>264.3802795410156</v>
       </c>
       <c r="GI2" t="n">
-        <v>205.8311767578125</v>
+        <v>259.0284423828125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>203.3162689208984</v>
+        <v>257.3262023925781</v>
       </c>
       <c r="GK2" t="n">
-        <v>192.0129699707031</v>
+        <v>255.3683624267578</v>
       </c>
       <c r="GL2" t="n">
-        <v>185.0227203369141</v>
+        <v>253.4555816650391</v>
       </c>
       <c r="GM2" t="n">
-        <v>173.0962829589844</v>
+        <v>253.2970886230469</v>
       </c>
       <c r="GN2" t="n">
-        <v>163.0657043457031</v>
+        <v>253.134765625</v>
       </c>
       <c r="GO2" t="n">
-        <v>158.6684722900391</v>
+        <v>253.2247772216797</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>255.5694885253906</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>261.5468139648438</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>262.5495910644531</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>264.3168029785156</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>268.3986511230469</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>270.9133605957031</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>270.7484436035156</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>271.4456176757812</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>271.6299743652344</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>269.8753356933594</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>267.5125732421875</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>266.503173828125</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>260.8963012695312</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>261.0382385253906</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>261.8355712890625</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>267.4007263183594</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>267.721435546875</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>266.4092712402344</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>264.8646850585938</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>263.4454040527344</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>262.5789184570312</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>259.076904296875</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>251.0777587890625</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>248.1680450439453</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>247.2720642089844</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>245.4678192138672</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>242.7772216796875</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>239.1368408203125</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>224.7303771972656</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>201.1648864746094</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>182.9798126220703</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>174.7158203125</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>153.7850341796875</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>140.3218841552734</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>111.6222229003906</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>96.25032043457031</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>94.169677734375</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>100.7275466918945</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>79.68581390380859</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>77.12343597412109</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>202.6242370605469</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>197.0321502685547</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>165.9942474365234</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>164.1455383300781</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>164.8028411865234</v>
+      </c>
+      <c r="II2" t="n">
+        <v>170.2637023925781</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>174.2030639648438</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>176.5289459228516</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>178.23291015625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>222.7299499511719</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>198.6484069824219</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>146.78564453125</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>150.6468353271484</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>167.0579223632812</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>147.5727996826172</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>119.1564788818359</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>115.3876647949219</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>128.1805572509766</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>104.5729751586914</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>91.95648193359375</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>48.72866821289062</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>21.41642761230469</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>15.42516326904297</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>21.4055290222168</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>33.48085403442383</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>57.03993988037109</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>80.84799957275391</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>108.3833160400391</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>35.0953483581543</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>-18.38290786743164</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>-49.49789428710938</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>-43.32563018798828</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>-52.69152069091797</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>-64.30513763427734</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>-58.14126968383789</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>-40.49213790893555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>430.2158508300781</v>
       </c>
       <c r="B3" t="n">
-        <v>402.298583984375</v>
+        <v>432.0459289550781</v>
       </c>
       <c r="C3" t="n">
-        <v>374.4517822265625</v>
+        <v>433.0315551757812</v>
       </c>
       <c r="D3" t="n">
-        <v>379.3089599609375</v>
+        <v>434.1148986816406</v>
       </c>
       <c r="E3" t="n">
-        <v>372.2236633300781</v>
+        <v>435.1492614746094</v>
       </c>
       <c r="F3" t="n">
-        <v>376.0057373046875</v>
+        <v>435.8536071777344</v>
       </c>
       <c r="G3" t="n">
-        <v>380.0894470214844</v>
+        <v>436.3285522460938</v>
       </c>
       <c r="H3" t="n">
-        <v>380.7416076660156</v>
+        <v>436.6123962402344</v>
       </c>
       <c r="I3" t="n">
-        <v>375.1296997070312</v>
+        <v>436.4910888671875</v>
       </c>
       <c r="J3" t="n">
-        <v>382.5238037109375</v>
+        <v>436.2944946289062</v>
       </c>
       <c r="K3" t="n">
-        <v>381.8178100585938</v>
+        <v>435.8876647949219</v>
       </c>
       <c r="L3" t="n">
-        <v>377.2815856933594</v>
+        <v>435.5494689941406</v>
       </c>
       <c r="M3" t="n">
-        <v>381.6877746582031</v>
+        <v>435.0693054199219</v>
       </c>
       <c r="N3" t="n">
-        <v>381.4778137207031</v>
+        <v>434.90576171875</v>
       </c>
       <c r="O3" t="n">
-        <v>376.9209289550781</v>
+        <v>434.7686462402344</v>
       </c>
       <c r="P3" t="n">
-        <v>376.8079528808594</v>
+        <v>434.4856567382812</v>
       </c>
       <c r="Q3" t="n">
-        <v>376.7940673828125</v>
+        <v>433.3468017578125</v>
       </c>
       <c r="R3" t="n">
-        <v>376.6266784667969</v>
+        <v>431.6181335449219</v>
       </c>
       <c r="S3" t="n">
-        <v>386.2693786621094</v>
+        <v>430.9132690429688</v>
       </c>
       <c r="T3" t="n">
-        <v>384.3147277832031</v>
+        <v>430.6517944335938</v>
       </c>
       <c r="U3" t="n">
-        <v>376.3330993652344</v>
+        <v>427.8997192382812</v>
       </c>
       <c r="V3" t="n">
-        <v>384.3645324707031</v>
+        <v>423.6787109375</v>
       </c>
       <c r="W3" t="n">
-        <v>384.1028137207031</v>
+        <v>422.7976989746094</v>
       </c>
       <c r="X3" t="n">
-        <v>375.40673828125</v>
+        <v>422.0533752441406</v>
       </c>
       <c r="Y3" t="n">
-        <v>383.6299438476562</v>
+        <v>422.5525817871094</v>
       </c>
       <c r="Z3" t="n">
-        <v>383.3056335449219</v>
+        <v>421.9683227539062</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.188720703125</v>
+        <v>423.423583984375</v>
       </c>
       <c r="AB3" t="n">
-        <v>383.0495300292969</v>
+        <v>423.1703491210938</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.5467224121094</v>
+        <v>413.8081359863281</v>
       </c>
       <c r="AD3" t="n">
-        <v>375.1441650390625</v>
+        <v>397.2599487304688</v>
       </c>
       <c r="AE3" t="n">
-        <v>382.2793884277344</v>
+        <v>384.5884704589844</v>
       </c>
       <c r="AF3" t="n">
-        <v>381.9380798339844</v>
+        <v>376.7442321777344</v>
       </c>
       <c r="AG3" t="n">
-        <v>374.3587646484375</v>
+        <v>375.404541015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>374.2984924316406</v>
+        <v>370.4690246582031</v>
       </c>
       <c r="AI3" t="n">
-        <v>374.1250610351562</v>
+        <v>363.6766357421875</v>
       </c>
       <c r="AJ3" t="n">
-        <v>372.6806030273438</v>
+        <v>355.8569030761719</v>
       </c>
       <c r="AK3" t="n">
-        <v>382.8255004882812</v>
+        <v>347.5982666015625</v>
       </c>
       <c r="AL3" t="n">
-        <v>370.6158142089844</v>
+        <v>415.9616088867188</v>
       </c>
       <c r="AM3" t="n">
-        <v>380.7553100585938</v>
+        <v>413.3859558105469</v>
       </c>
       <c r="AN3" t="n">
-        <v>369.4220581054688</v>
+        <v>414.5879821777344</v>
       </c>
       <c r="AO3" t="n">
-        <v>380.2042846679688</v>
+        <v>417.6437683105469</v>
       </c>
       <c r="AP3" t="n">
-        <v>369.3370666503906</v>
+        <v>417.8324584960938</v>
       </c>
       <c r="AQ3" t="n">
-        <v>379.6277160644531</v>
+        <v>415.4591064453125</v>
       </c>
       <c r="AR3" t="n">
-        <v>381.3176574707031</v>
+        <v>412.3585205078125</v>
       </c>
       <c r="AS3" t="n">
-        <v>350.130615234375</v>
+        <v>408.7663879394531</v>
       </c>
       <c r="AT3" t="n">
-        <v>467.0580444335938</v>
+        <v>410.4737854003906</v>
       </c>
       <c r="AU3" t="n">
-        <v>479.2362060546875</v>
+        <v>379.5517272949219</v>
       </c>
       <c r="AV3" t="n">
-        <v>497.9345397949219</v>
+        <v>388.8610534667969</v>
       </c>
       <c r="AW3" t="n">
-        <v>509.2660217285156</v>
+        <v>391.0584411621094</v>
       </c>
       <c r="AX3" t="n">
-        <v>519.3727416992188</v>
+        <v>389.596923828125</v>
       </c>
       <c r="AY3" t="n">
-        <v>521.4718627929688</v>
+        <v>389.4662780761719</v>
       </c>
       <c r="AZ3" t="n">
-        <v>515.8993530273438</v>
+        <v>389.9544982910156</v>
       </c>
       <c r="BA3" t="n">
-        <v>512.5789794921875</v>
+        <v>394.1011962890625</v>
       </c>
       <c r="BB3" t="n">
-        <v>506.1815185546875</v>
+        <v>394.9574279785156</v>
       </c>
       <c r="BC3" t="n">
-        <v>502.2572021484375</v>
+        <v>394.3779296875</v>
       </c>
       <c r="BD3" t="n">
-        <v>500.3824462890625</v>
+        <v>393.2223815917969</v>
       </c>
       <c r="BE3" t="n">
-        <v>497.378662109375</v>
+        <v>396.6432800292969</v>
       </c>
       <c r="BF3" t="n">
-        <v>496.7130737304688</v>
+        <v>395.2049255371094</v>
       </c>
       <c r="BG3" t="n">
-        <v>496.5821533203125</v>
+        <v>390.6300964355469</v>
       </c>
       <c r="BH3" t="n">
-        <v>498.337890625</v>
+        <v>387.6528930664062</v>
       </c>
       <c r="BI3" t="n">
-        <v>497.5106506347656</v>
+        <v>383.6505432128906</v>
       </c>
       <c r="BJ3" t="n">
-        <v>502.74267578125</v>
+        <v>380.4671630859375</v>
       </c>
       <c r="BK3" t="n">
-        <v>502.82421875</v>
+        <v>381.8330688476562</v>
       </c>
       <c r="BL3" t="n">
-        <v>504.3046264648438</v>
+        <v>381.9691772460938</v>
       </c>
       <c r="BM3" t="n">
-        <v>504.8988037109375</v>
+        <v>379.4738159179688</v>
       </c>
       <c r="BN3" t="n">
-        <v>500.7978515625</v>
+        <v>377.7162170410156</v>
       </c>
       <c r="BO3" t="n">
-        <v>499.6253051757812</v>
+        <v>378.1585388183594</v>
       </c>
       <c r="BP3" t="n">
-        <v>501.8108520507812</v>
+        <v>378.3118591308594</v>
       </c>
       <c r="BQ3" t="n">
-        <v>505.7138977050781</v>
+        <v>373.2925720214844</v>
       </c>
       <c r="BR3" t="n">
-        <v>505.8063049316406</v>
+        <v>366.6277160644531</v>
       </c>
       <c r="BS3" t="n">
-        <v>503.3013610839844</v>
+        <v>366.9669189453125</v>
       </c>
       <c r="BT3" t="n">
-        <v>498.7955017089844</v>
+        <v>364.5214538574219</v>
       </c>
       <c r="BU3" t="n">
-        <v>499.2011108398438</v>
+        <v>364.6158447265625</v>
       </c>
       <c r="BV3" t="n">
-        <v>502.4806518554688</v>
+        <v>362.0939331054688</v>
       </c>
       <c r="BW3" t="n">
-        <v>502.6248474121094</v>
+        <v>362.09423828125</v>
       </c>
       <c r="BX3" t="n">
-        <v>501.5319519042969</v>
+        <v>362.7364501953125</v>
       </c>
       <c r="BY3" t="n">
-        <v>502.1950073242188</v>
+        <v>370.2109069824219</v>
       </c>
       <c r="BZ3" t="n">
-        <v>501.5477294921875</v>
+        <v>370.6129760742188</v>
       </c>
       <c r="CA3" t="n">
-        <v>500.6035461425781</v>
+        <v>369.297119140625</v>
       </c>
       <c r="CB3" t="n">
-        <v>522.9859619140625</v>
+        <v>367.986572265625</v>
       </c>
       <c r="CC3" t="n">
-        <v>521.8565063476562</v>
+        <v>368.4429626464844</v>
       </c>
       <c r="CD3" t="n">
-        <v>521.7478637695312</v>
+        <v>368.7808227539062</v>
       </c>
       <c r="CE3" t="n">
-        <v>518.50927734375</v>
+        <v>367.0440368652344</v>
       </c>
       <c r="CF3" t="n">
-        <v>510.3321533203125</v>
+        <v>365.6809997558594</v>
       </c>
       <c r="CG3" t="n">
-        <v>501.4434204101562</v>
+        <v>362.9815673828125</v>
       </c>
       <c r="CH3" t="n">
-        <v>499.0938415527344</v>
+        <v>360.9008483886719</v>
       </c>
       <c r="CI3" t="n">
-        <v>501.3525085449219</v>
+        <v>360.7663879394531</v>
       </c>
       <c r="CJ3" t="n">
-        <v>502.1918029785156</v>
+        <v>359.5032653808594</v>
       </c>
       <c r="CK3" t="n">
-        <v>506.3136291503906</v>
+        <v>359.3258361816406</v>
       </c>
       <c r="CL3" t="n">
-        <v>514.9586181640625</v>
+        <v>359.8245544433594</v>
       </c>
       <c r="CM3" t="n">
-        <v>517.772216796875</v>
+        <v>362.0361022949219</v>
       </c>
       <c r="CN3" t="n">
-        <v>518.7293701171875</v>
+        <v>363.725830078125</v>
       </c>
       <c r="CO3" t="n">
-        <v>520.0382080078125</v>
+        <v>364.3136291503906</v>
       </c>
       <c r="CP3" t="n">
-        <v>522.6109008789062</v>
+        <v>365.8804626464844</v>
       </c>
       <c r="CQ3" t="n">
-        <v>519.9555053710938</v>
+        <v>366.464111328125</v>
       </c>
       <c r="CR3" t="n">
-        <v>490.95361328125</v>
+        <v>367.1038208007812</v>
       </c>
       <c r="CS3" t="n">
-        <v>490.9265441894531</v>
+        <v>368.7921752929688</v>
       </c>
       <c r="CT3" t="n">
-        <v>491.05419921875</v>
+        <v>367.2459411621094</v>
       </c>
       <c r="CU3" t="n">
-        <v>488.4023132324219</v>
+        <v>365.6280822753906</v>
       </c>
       <c r="CV3" t="n">
-        <v>488.0690612792969</v>
+        <v>363.7121887207031</v>
       </c>
       <c r="CW3" t="n">
-        <v>507.8190307617188</v>
+        <v>364.027587890625</v>
       </c>
       <c r="CX3" t="n">
-        <v>507.8033142089844</v>
+        <v>357.3159484863281</v>
       </c>
       <c r="CY3" t="n">
-        <v>508.3442077636719</v>
+        <v>348.6575317382812</v>
       </c>
       <c r="CZ3" t="n">
-        <v>507.2455139160156</v>
+        <v>351.8214721679688</v>
       </c>
       <c r="DA3" t="n">
-        <v>507.8572692871094</v>
+        <v>352.6398315429688</v>
       </c>
       <c r="DB3" t="n">
-        <v>484.4736022949219</v>
+        <v>353.5478210449219</v>
       </c>
       <c r="DC3" t="n">
-        <v>485.5745849609375</v>
+        <v>354.118896484375</v>
       </c>
       <c r="DD3" t="n">
-        <v>485.2067260742188</v>
+        <v>355.4691772460938</v>
       </c>
       <c r="DE3" t="n">
-        <v>485.4110412597656</v>
+        <v>354.972412109375</v>
       </c>
       <c r="DF3" t="n">
-        <v>486.5940856933594</v>
+        <v>354.7570190429688</v>
       </c>
       <c r="DG3" t="n">
-        <v>487.5007934570312</v>
+        <v>354.8099060058594</v>
       </c>
       <c r="DH3" t="n">
-        <v>490.993896484375</v>
+        <v>352.7142028808594</v>
       </c>
       <c r="DI3" t="n">
-        <v>493.8818664550781</v>
+        <v>351.5389709472656</v>
       </c>
       <c r="DJ3" t="n">
-        <v>496.3407287597656</v>
+        <v>351.3007202148438</v>
       </c>
       <c r="DK3" t="n">
-        <v>498.3858032226562</v>
+        <v>351.3746032714844</v>
       </c>
       <c r="DL3" t="n">
-        <v>500.4063110351562</v>
+        <v>352.8890686035156</v>
       </c>
       <c r="DM3" t="n">
-        <v>501.7917785644531</v>
+        <v>354.5928649902344</v>
       </c>
       <c r="DN3" t="n">
-        <v>506.3367004394531</v>
+        <v>354.0092468261719</v>
       </c>
       <c r="DO3" t="n">
-        <v>509.9346008300781</v>
+        <v>351.3548583984375</v>
       </c>
       <c r="DP3" t="n">
-        <v>506.603515625</v>
+        <v>350.3495483398438</v>
       </c>
       <c r="DQ3" t="n">
-        <v>491.3186645507812</v>
+        <v>350.0901489257812</v>
       </c>
       <c r="DR3" t="n">
-        <v>482.5007019042969</v>
+        <v>350.3261413574219</v>
       </c>
       <c r="DS3" t="n">
-        <v>476.9114990234375</v>
+        <v>351.1196594238281</v>
       </c>
       <c r="DT3" t="n">
-        <v>461.8981323242188</v>
+        <v>351.4550170898438</v>
       </c>
       <c r="DU3" t="n">
-        <v>455.222900390625</v>
+        <v>351.5877990722656</v>
       </c>
       <c r="DV3" t="n">
-        <v>444.6986389160156</v>
+        <v>351.5831298828125</v>
       </c>
       <c r="DW3" t="n">
-        <v>424.8688659667969</v>
+        <v>352.7485656738281</v>
       </c>
       <c r="DX3" t="n">
-        <v>416.2788391113281</v>
+        <v>352.8272399902344</v>
       </c>
       <c r="DY3" t="n">
-        <v>405.1814270019531</v>
+        <v>352.5563354492188</v>
       </c>
       <c r="DZ3" t="n">
-        <v>403.3111877441406</v>
+        <v>350.8569641113281</v>
       </c>
       <c r="EA3" t="n">
-        <v>403.638671875</v>
+        <v>350.4326782226562</v>
       </c>
       <c r="EB3" t="n">
-        <v>417.8185729980469</v>
+        <v>350.6539916992188</v>
       </c>
       <c r="EC3" t="n">
-        <v>429.4884033203125</v>
+        <v>352.3329772949219</v>
       </c>
       <c r="ED3" t="n">
-        <v>458.7666625976562</v>
+        <v>351.6104431152344</v>
       </c>
       <c r="EE3" t="n">
-        <v>482.0817260742188</v>
+        <v>350.0784301757812</v>
       </c>
       <c r="EF3" t="n">
-        <v>487.4332275390625</v>
+        <v>349.8301696777344</v>
       </c>
       <c r="EG3" t="n">
-        <v>510.7823791503906</v>
+        <v>352.1173400878906</v>
       </c>
       <c r="EH3" t="n">
-        <v>524.412841796875</v>
+        <v>350.2146911621094</v>
       </c>
       <c r="EI3" t="n">
-        <v>521.669921875</v>
+        <v>353.986572265625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>519.5238037109375</v>
+        <v>349.6641845703125</v>
       </c>
       <c r="EK3" t="n">
-        <v>519.2523193359375</v>
+        <v>345.1382141113281</v>
       </c>
       <c r="EL3" t="n">
-        <v>513.7008056640625</v>
+        <v>341.9106140136719</v>
       </c>
       <c r="EM3" t="n">
-        <v>506.566650390625</v>
+        <v>337.9003601074219</v>
       </c>
       <c r="EN3" t="n">
-        <v>503.4305725097656</v>
+        <v>336.530517578125</v>
       </c>
       <c r="EO3" t="n">
-        <v>497.9907836914062</v>
+        <v>330.37646484375</v>
       </c>
       <c r="EP3" t="n">
-        <v>496.8955993652344</v>
+        <v>312.4862976074219</v>
       </c>
       <c r="EQ3" t="n">
-        <v>499.2947998046875</v>
+        <v>304.8557434082031</v>
       </c>
       <c r="ER3" t="n">
-        <v>501.7778930664062</v>
+        <v>289.4841613769531</v>
       </c>
       <c r="ES3" t="n">
-        <v>506.928466796875</v>
+        <v>263.5919799804688</v>
       </c>
       <c r="ET3" t="n">
-        <v>516.8106079101562</v>
+        <v>272.9513244628906</v>
       </c>
       <c r="EU3" t="n">
-        <v>545.772216796875</v>
+        <v>267.8126220703125</v>
       </c>
       <c r="EV3" t="n">
-        <v>551.0205688476562</v>
+        <v>249.0226440429688</v>
       </c>
       <c r="EW3" t="n">
-        <v>554.5200805664062</v>
+        <v>251.0075836181641</v>
       </c>
       <c r="EX3" t="n">
-        <v>554.2705078125</v>
+        <v>235.2408905029297</v>
       </c>
       <c r="EY3" t="n">
-        <v>551.4761352539062</v>
+        <v>244.2557373046875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>299.6042785644531</v>
+        <v>241.9525604248047</v>
       </c>
       <c r="FA3" t="n">
-        <v>540.3074951171875</v>
+        <v>238.2408905029297</v>
       </c>
       <c r="FB3" t="n">
-        <v>545.3629150390625</v>
+        <v>227.56640625</v>
       </c>
       <c r="FC3" t="n">
-        <v>542.8048095703125</v>
+        <v>240.0445251464844</v>
       </c>
       <c r="FD3" t="n">
-        <v>542.6146850585938</v>
+        <v>239.2592315673828</v>
       </c>
       <c r="FE3" t="n">
-        <v>545.6345825195312</v>
+        <v>239.5813293457031</v>
       </c>
       <c r="FF3" t="n">
-        <v>546.2993774414062</v>
+        <v>220.2245788574219</v>
       </c>
       <c r="FG3" t="n">
-        <v>553.6687622070312</v>
+        <v>238.5489501953125</v>
       </c>
       <c r="FH3" t="n">
-        <v>555.7310791015625</v>
+        <v>220.2240447998047</v>
       </c>
       <c r="FI3" t="n">
-        <v>541.187255859375</v>
+        <v>234.5926055908203</v>
       </c>
       <c r="FJ3" t="n">
-        <v>541.4287719726562</v>
+        <v>242.448486328125</v>
       </c>
       <c r="FK3" t="n">
-        <v>541.1676635742188</v>
+        <v>237.8375091552734</v>
       </c>
       <c r="FL3" t="n">
-        <v>545.197265625</v>
+        <v>254.9930419921875</v>
       </c>
       <c r="FM3" t="n">
-        <v>557.5685424804688</v>
+        <v>268.6721496582031</v>
       </c>
       <c r="FN3" t="n">
-        <v>567.3038330078125</v>
+        <v>270.8120422363281</v>
       </c>
       <c r="FO3" t="n">
-        <v>573.834716796875</v>
+        <v>279.3749694824219</v>
       </c>
       <c r="FP3" t="n">
-        <v>580.3611450195312</v>
+        <v>290.1888427734375</v>
       </c>
       <c r="FQ3" t="n">
-        <v>591.8652954101562</v>
+        <v>300.8799133300781</v>
       </c>
       <c r="FR3" t="n">
-        <v>594.1397705078125</v>
+        <v>306.7797241210938</v>
       </c>
       <c r="FS3" t="n">
-        <v>594.0931396484375</v>
+        <v>317.1808471679688</v>
       </c>
       <c r="FT3" t="n">
-        <v>592.9302978515625</v>
+        <v>321.4959106445312</v>
       </c>
       <c r="FU3" t="n">
-        <v>589.3787231445312</v>
+        <v>331.8319091796875</v>
       </c>
       <c r="FV3" t="n">
-        <v>586.969970703125</v>
+        <v>337.5464172363281</v>
       </c>
       <c r="FW3" t="n">
-        <v>597.898193359375</v>
+        <v>345.3344116210938</v>
       </c>
       <c r="FX3" t="n">
-        <v>582.8701171875</v>
+        <v>349.5091857910156</v>
       </c>
       <c r="FY3" t="n">
-        <v>572.5380859375</v>
+        <v>358.0818786621094</v>
       </c>
       <c r="FZ3" t="n">
-        <v>571.178466796875</v>
+        <v>357.0831909179688</v>
       </c>
       <c r="GA3" t="n">
-        <v>569.6790161132812</v>
+        <v>354.9619750976562</v>
       </c>
       <c r="GB3" t="n">
-        <v>567.0458374023438</v>
+        <v>355.8763427734375</v>
       </c>
       <c r="GC3" t="n">
-        <v>558.5352172851562</v>
+        <v>356.0686340332031</v>
       </c>
       <c r="GD3" t="n">
-        <v>553.7092895507812</v>
+        <v>355.3746948242188</v>
       </c>
       <c r="GE3" t="n">
-        <v>559.8888549804688</v>
+        <v>354.1245422363281</v>
       </c>
       <c r="GF3" t="n">
-        <v>566.7756958007812</v>
+        <v>349.7975463867188</v>
       </c>
       <c r="GG3" t="n">
-        <v>576.4981689453125</v>
+        <v>348.81591796875</v>
       </c>
       <c r="GH3" t="n">
-        <v>581.8251342773438</v>
+        <v>343.9908752441406</v>
       </c>
       <c r="GI3" t="n">
-        <v>583.8059692382812</v>
+        <v>342.5391540527344</v>
       </c>
       <c r="GJ3" t="n">
-        <v>584.1890258789062</v>
+        <v>340.8896484375</v>
       </c>
       <c r="GK3" t="n">
-        <v>587.3981323242188</v>
+        <v>338.1758422851562</v>
       </c>
       <c r="GL3" t="n">
-        <v>590.531494140625</v>
+        <v>339.0972900390625</v>
       </c>
       <c r="GM3" t="n">
-        <v>594.7998657226562</v>
+        <v>340.2718505859375</v>
       </c>
       <c r="GN3" t="n">
-        <v>599.895263671875</v>
+        <v>340.6804504394531</v>
       </c>
       <c r="GO3" t="n">
-        <v>605.8125610351562</v>
+        <v>341.2184448242188</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>342.4833984375</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>345.9884948730469</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>346.48974609375</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>346.776611328125</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>347.8699951171875</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>349.8289184570312</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>351.0791625976562</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>351.2997436523438</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>352.00244140625</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>357.2689819335938</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>363.2229919433594</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>365.472900390625</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>365.7496643066406</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>364.8592224121094</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>364.428466796875</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>370.8067321777344</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>372.725830078125</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>375.3901977539062</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>378.213623046875</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>377.375</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>374.6951904296875</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>368.6369323730469</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>373.1087951660156</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>374.8052062988281</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>374.2171020507812</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>372.5134887695312</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>372.0824584960938</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>372.5022583007812</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>365.7375183105469</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>362.5761108398438</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>364.211181640625</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>358.56640625</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>364.4743347167969</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>369.4527587890625</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>365.0990295410156</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>368.0694580078125</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>374.9645690917969</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>380.2472839355469</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>377.5038757324219</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>380.136474609375</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>163.5765991210938</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>160.1488800048828</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>435.4721984863281</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>437.9031677246094</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>438.0186767578125</v>
+      </c>
+      <c r="II3" t="n">
+        <v>441.8398742675781</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>444.4634094238281</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>449.3382568359375</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>452.055419921875</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>141.2379455566406</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>578.3126831054688</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>743.8241577148438</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>908.2163696289062</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>932.5709228515625</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>900.1392822265625</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>836.2150268554688</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>741.5618896484375</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>692.655517578125</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>647.5718383789062</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>558.1531982421875</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>481.1012573242188</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>483.7328796386719</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>489.2056274414062</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>554.4703979492188</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>589.1150512695312</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>574.9849243164062</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>558.6227416992188</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>560.7728271484375</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>440.1637268066406</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>494.2940063476562</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>523.1128540039062</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>518.2025146484375</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>523.0745239257812</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>537.2579956054688</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>559.714111328125</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>582.9473876953125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>728.8705444335938</v>
       </c>
       <c r="B4" t="n">
-        <v>477.7388305664062</v>
+        <v>723.4889526367188</v>
       </c>
       <c r="C4" t="n">
-        <v>512.2588500976562</v>
+        <v>723.1348876953125</v>
       </c>
       <c r="D4" t="n">
-        <v>500.5446166992188</v>
+        <v>722.8698120117188</v>
       </c>
       <c r="E4" t="n">
-        <v>505.044921875</v>
+        <v>722.4482421875</v>
       </c>
       <c r="F4" t="n">
-        <v>519.217529296875</v>
+        <v>721.30029296875</v>
       </c>
       <c r="G4" t="n">
-        <v>506.7359924316406</v>
+        <v>720.1152954101562</v>
       </c>
       <c r="H4" t="n">
-        <v>507.4573364257812</v>
+        <v>718.997802734375</v>
       </c>
       <c r="I4" t="n">
-        <v>522.7886352539062</v>
+        <v>718.0363159179688</v>
       </c>
       <c r="J4" t="n">
-        <v>509.2195434570312</v>
+        <v>717.12890625</v>
       </c>
       <c r="K4" t="n">
-        <v>510.1250610351562</v>
+        <v>716.3390502929688</v>
       </c>
       <c r="L4" t="n">
-        <v>525.2547607421875</v>
+        <v>715.1650390625</v>
       </c>
       <c r="M4" t="n">
-        <v>511.0257873535156</v>
+        <v>714.1557006835938</v>
       </c>
       <c r="N4" t="n">
-        <v>511.4830017089844</v>
+        <v>714.5076904296875</v>
       </c>
       <c r="O4" t="n">
-        <v>528.1170043945312</v>
+        <v>714.6830444335938</v>
       </c>
       <c r="P4" t="n">
-        <v>529.15771484375</v>
+        <v>715.0034790039062</v>
       </c>
       <c r="Q4" t="n">
-        <v>529.5078125</v>
+        <v>716.0813598632812</v>
       </c>
       <c r="R4" t="n">
-        <v>529.9412841796875</v>
+        <v>718.2490844726562</v>
       </c>
       <c r="S4" t="n">
-        <v>513.1119995117188</v>
+        <v>721.0861206054688</v>
       </c>
       <c r="T4" t="n">
-        <v>513.99658203125</v>
+        <v>724.2681884765625</v>
       </c>
       <c r="U4" t="n">
-        <v>531.3511352539062</v>
+        <v>727.7382202148438</v>
       </c>
       <c r="V4" t="n">
-        <v>515.8003540039062</v>
+        <v>738.0924682617188</v>
       </c>
       <c r="W4" t="n">
-        <v>516.0654296875</v>
+        <v>735.4917602539062</v>
       </c>
       <c r="X4" t="n">
-        <v>533.0060424804688</v>
+        <v>730.624755859375</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.1063842773438</v>
+        <v>743.2841796875</v>
       </c>
       <c r="Z4" t="n">
-        <v>517.6982421875</v>
+        <v>766.2803344726562</v>
       </c>
       <c r="AA4" t="n">
-        <v>534.4122314453125</v>
+        <v>775.220703125</v>
       </c>
       <c r="AB4" t="n">
-        <v>518.7015380859375</v>
+        <v>806.69140625</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.28759765625</v>
+        <v>910.3728637695312</v>
       </c>
       <c r="AD4" t="n">
-        <v>535.6961059570312</v>
+        <v>1000.52099609375</v>
       </c>
       <c r="AE4" t="n">
-        <v>520.3372192382812</v>
+        <v>1059.132690429688</v>
       </c>
       <c r="AF4" t="n">
-        <v>520.93017578125</v>
+        <v>1083.6611328125</v>
       </c>
       <c r="AG4" t="n">
-        <v>537.9135131835938</v>
+        <v>1070.697021484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>538.469482421875</v>
+        <v>1058.425537109375</v>
       </c>
       <c r="AI4" t="n">
-        <v>539.1580200195312</v>
+        <v>1072.860107421875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>540.7237548828125</v>
+        <v>1089.748046875</v>
       </c>
       <c r="AK4" t="n">
-        <v>523.3510131835938</v>
+        <v>1111.184692382812</v>
       </c>
       <c r="AL4" t="n">
-        <v>544.0181274414062</v>
+        <v>1046.10302734375</v>
       </c>
       <c r="AM4" t="n">
-        <v>526.8024291992188</v>
+        <v>1054.916015625</v>
       </c>
       <c r="AN4" t="n">
-        <v>546.4488525390625</v>
+        <v>1065.284790039062</v>
       </c>
       <c r="AO4" t="n">
-        <v>528.4818725585938</v>
+        <v>1072.0712890625</v>
       </c>
       <c r="AP4" t="n">
-        <v>548.5739135742188</v>
+        <v>1083.877319335938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>531.3495483398438</v>
+        <v>1097.385498046875</v>
       </c>
       <c r="AR4" t="n">
-        <v>554.2259521484375</v>
+        <v>1113.137084960938</v>
       </c>
       <c r="AS4" t="n">
-        <v>607.47509765625</v>
+        <v>1132.99560546875</v>
       </c>
       <c r="AT4" t="n">
-        <v>631.58203125</v>
+        <v>1149.498291015625</v>
       </c>
       <c r="AU4" t="n">
-        <v>662.5052490234375</v>
+        <v>1000.512878417969</v>
       </c>
       <c r="AV4" t="n">
-        <v>702.4965209960938</v>
+        <v>1002.683227539062</v>
       </c>
       <c r="AW4" t="n">
-        <v>745.645263671875</v>
+        <v>1009.922302246094</v>
       </c>
       <c r="AX4" t="n">
-        <v>787.6065063476562</v>
+        <v>1013.171203613281</v>
       </c>
       <c r="AY4" t="n">
-        <v>831.2337646484375</v>
+        <v>1025.380126953125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>857.7698974609375</v>
+        <v>1049.995849609375</v>
       </c>
       <c r="BA4" t="n">
-        <v>863.1289672851562</v>
+        <v>1072.380126953125</v>
       </c>
       <c r="BB4" t="n">
-        <v>872.1890869140625</v>
+        <v>1106.329833984375</v>
       </c>
       <c r="BC4" t="n">
-        <v>879.1500244140625</v>
+        <v>1123.866088867188</v>
       </c>
       <c r="BD4" t="n">
-        <v>883.749267578125</v>
+        <v>1151.541137695312</v>
       </c>
       <c r="BE4" t="n">
-        <v>896.2492065429688</v>
+        <v>1182.437744140625</v>
       </c>
       <c r="BF4" t="n">
-        <v>911.875244140625</v>
+        <v>1228.442138671875</v>
       </c>
       <c r="BG4" t="n">
-        <v>920.6028442382812</v>
+        <v>1267.523559570312</v>
       </c>
       <c r="BH4" t="n">
-        <v>933.2715454101562</v>
+        <v>1291.79931640625</v>
       </c>
       <c r="BI4" t="n">
-        <v>944.17724609375</v>
+        <v>1354.516479492188</v>
       </c>
       <c r="BJ4" t="n">
-        <v>942.4915771484375</v>
+        <v>1392.097778320312</v>
       </c>
       <c r="BK4" t="n">
-        <v>942.5858154296875</v>
+        <v>1413.596923828125</v>
       </c>
       <c r="BL4" t="n">
-        <v>945.7117919921875</v>
+        <v>1446.458618164062</v>
       </c>
       <c r="BM4" t="n">
-        <v>944.8861083984375</v>
+        <v>1453.094360351562</v>
       </c>
       <c r="BN4" t="n">
-        <v>948.0748901367188</v>
+        <v>1453.935668945312</v>
       </c>
       <c r="BO4" t="n">
-        <v>947.1514282226562</v>
+        <v>1452.147338867188</v>
       </c>
       <c r="BP4" t="n">
-        <v>940.4279174804688</v>
+        <v>1455.004028320312</v>
       </c>
       <c r="BQ4" t="n">
-        <v>934.8446044921875</v>
+        <v>1460.045166015625</v>
       </c>
       <c r="BR4" t="n">
-        <v>934.2997436523438</v>
+        <v>1473.833618164062</v>
       </c>
       <c r="BS4" t="n">
-        <v>938.15673828125</v>
+        <v>1486.900390625</v>
       </c>
       <c r="BT4" t="n">
-        <v>948.9354858398438</v>
+        <v>1510.7138671875</v>
       </c>
       <c r="BU4" t="n">
-        <v>961.6168212890625</v>
+        <v>1518.927124023438</v>
       </c>
       <c r="BV4" t="n">
-        <v>972.3839111328125</v>
+        <v>1541.581909179688</v>
       </c>
       <c r="BW4" t="n">
-        <v>977.5625</v>
+        <v>1555.113037109375</v>
       </c>
       <c r="BX4" t="n">
-        <v>975.6282958984375</v>
+        <v>1573.354614257812</v>
       </c>
       <c r="BY4" t="n">
-        <v>972.4827270507812</v>
+        <v>1585.0166015625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>973.969970703125</v>
+        <v>1604.302612304688</v>
       </c>
       <c r="CA4" t="n">
-        <v>976.468505859375</v>
+        <v>1636.219116210938</v>
       </c>
       <c r="CB4" t="n">
-        <v>956.072509765625</v>
+        <v>1670.150634765625</v>
       </c>
       <c r="CC4" t="n">
-        <v>960.4141235351562</v>
+        <v>1672.42041015625</v>
       </c>
       <c r="CD4" t="n">
-        <v>953.4600219726562</v>
+        <v>1686.6533203125</v>
       </c>
       <c r="CE4" t="n">
-        <v>947.7081298828125</v>
+        <v>1698.315551757812</v>
       </c>
       <c r="CF4" t="n">
-        <v>942.372314453125</v>
+        <v>1713.903686523438</v>
       </c>
       <c r="CG4" t="n">
-        <v>941.370361328125</v>
+        <v>1733.045776367188</v>
       </c>
       <c r="CH4" t="n">
-        <v>944.7615966796875</v>
+        <v>1752.81103515625</v>
       </c>
       <c r="CI4" t="n">
-        <v>946.505126953125</v>
+        <v>1773.983520507812</v>
       </c>
       <c r="CJ4" t="n">
-        <v>949.9480590820312</v>
+        <v>1784.1552734375</v>
       </c>
       <c r="CK4" t="n">
-        <v>944.1644897460938</v>
+        <v>1799.426879882812</v>
       </c>
       <c r="CL4" t="n">
-        <v>936.1788940429688</v>
+        <v>1819.374633789062</v>
       </c>
       <c r="CM4" t="n">
-        <v>937.3759155273438</v>
+        <v>1840.494506835938</v>
       </c>
       <c r="CN4" t="n">
-        <v>943.50927734375</v>
+        <v>1848.786254882812</v>
       </c>
       <c r="CO4" t="n">
-        <v>944.9991455078125</v>
+        <v>1849.572875976562</v>
       </c>
       <c r="CP4" t="n">
-        <v>940.7738647460938</v>
+        <v>1855.657470703125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>943.493408203125</v>
+        <v>1865.2861328125</v>
       </c>
       <c r="CR4" t="n">
-        <v>975.3485107421875</v>
+        <v>1888.668823242188</v>
       </c>
       <c r="CS4" t="n">
-        <v>975.0781860351562</v>
+        <v>1912.523803710938</v>
       </c>
       <c r="CT4" t="n">
-        <v>974.8134765625</v>
+        <v>1923.452026367188</v>
       </c>
       <c r="CU4" t="n">
-        <v>978.6613159179688</v>
+        <v>1929.200317382812</v>
       </c>
       <c r="CV4" t="n">
-        <v>979.2027587890625</v>
+        <v>1941.446899414062</v>
       </c>
       <c r="CW4" t="n">
-        <v>957.5447998046875</v>
+        <v>1956.205810546875</v>
       </c>
       <c r="CX4" t="n">
-        <v>958.9844970703125</v>
+        <v>1967.543579101562</v>
       </c>
       <c r="CY4" t="n">
-        <v>960.8905639648438</v>
+        <v>1986.1025390625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>966.7083740234375</v>
+        <v>1982.478271484375</v>
       </c>
       <c r="DA4" t="n">
-        <v>970.9193725585938</v>
+        <v>2007.222290039062</v>
       </c>
       <c r="DB4" t="n">
-        <v>998.300537109375</v>
+        <v>2013.426635742188</v>
       </c>
       <c r="DC4" t="n">
-        <v>999.9650268554688</v>
+        <v>2023.353393554688</v>
       </c>
       <c r="DD4" t="n">
-        <v>1004.133056640625</v>
+        <v>2042.364624023438</v>
       </c>
       <c r="DE4" t="n">
-        <v>1009.65380859375</v>
+        <v>2021.273071289062</v>
       </c>
       <c r="DF4" t="n">
-        <v>1004.929138183594</v>
+        <v>2019.429443359375</v>
       </c>
       <c r="DG4" t="n">
-        <v>999.4605102539062</v>
+        <v>2026.110595703125</v>
       </c>
       <c r="DH4" t="n">
-        <v>995.465576171875</v>
+        <v>2032.175659179688</v>
       </c>
       <c r="DI4" t="n">
-        <v>992.54541015625</v>
+        <v>2037.28076171875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>987.1980590820312</v>
+        <v>2037.557739257812</v>
       </c>
       <c r="DK4" t="n">
-        <v>976.4751586914062</v>
+        <v>2036.014892578125</v>
       </c>
       <c r="DL4" t="n">
-        <v>964.4208374023438</v>
+        <v>2029.54345703125</v>
       </c>
       <c r="DM4" t="n">
-        <v>959.9208374023438</v>
+        <v>2022.944946289062</v>
       </c>
       <c r="DN4" t="n">
-        <v>946.3353271484375</v>
+        <v>2019.202880859375</v>
       </c>
       <c r="DO4" t="n">
-        <v>936.5731201171875</v>
+        <v>2009.029541015625</v>
       </c>
       <c r="DP4" t="n">
-        <v>932.6651611328125</v>
+        <v>2004.12353515625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>938.87548828125</v>
+        <v>2001.953369140625</v>
       </c>
       <c r="DR4" t="n">
-        <v>936.8074340820312</v>
+        <v>1999.893432617188</v>
       </c>
       <c r="DS4" t="n">
-        <v>937.480224609375</v>
+        <v>1997.60400390625</v>
       </c>
       <c r="DT4" t="n">
-        <v>937.08837890625</v>
+        <v>1998.537109375</v>
       </c>
       <c r="DU4" t="n">
-        <v>946.54443359375</v>
+        <v>1994.71875</v>
       </c>
       <c r="DV4" t="n">
-        <v>963.0963745117188</v>
+        <v>1990.915771484375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1002.226623535156</v>
+        <v>1987.718505859375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1016.141479492188</v>
+        <v>1987.095458984375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1041.574096679688</v>
+        <v>1988.057006835938</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1051.117309570312</v>
+        <v>1993.082153320312</v>
       </c>
       <c r="EA4" t="n">
-        <v>1068.932983398438</v>
+        <v>1993.185668945312</v>
       </c>
       <c r="EB4" t="n">
-        <v>1073.488037109375</v>
+        <v>1989.25390625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1078.51953125</v>
+        <v>1993.801025390625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1071.395751953125</v>
+        <v>1995.351318359375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1036.4130859375</v>
+        <v>1997.393188476562</v>
       </c>
       <c r="EF4" t="n">
-        <v>1034.092651367188</v>
+        <v>1984.349853515625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1046.815307617188</v>
+        <v>1997.953369140625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1063.781127929688</v>
+        <v>1980.975219726562</v>
       </c>
       <c r="EI4" t="n">
-        <v>1054.273193359375</v>
+        <v>2020.755126953125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1042.443725585938</v>
+        <v>1979.52587890625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1039.089233398438</v>
+        <v>1974.849731445312</v>
       </c>
       <c r="EL4" t="n">
-        <v>1043.515869140625</v>
+        <v>1975.554931640625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1052.298217773438</v>
+        <v>2007.613037109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1055.398193359375</v>
+        <v>2031.446166992188</v>
       </c>
       <c r="EO4" t="n">
-        <v>1066.81494140625</v>
+        <v>2053.8203125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1073.848266601562</v>
+        <v>2062.0244140625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1081.139770507812</v>
+        <v>2070.9287109375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1082.792114257812</v>
+        <v>2115.768310546875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1094.790893554688</v>
+        <v>2139.279541015625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1131.340209960938</v>
+        <v>2176.5625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1108.284057617188</v>
+        <v>2201.619384765625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1107.8251953125</v>
+        <v>2269.16357421875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1133.433715820312</v>
+        <v>2242.18115234375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1152.45654296875</v>
+        <v>2248.892822265625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1166.735595703125</v>
+        <v>2251.366455078125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1200.388305664062</v>
+        <v>2231.572021484375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1157.251342773438</v>
+        <v>2233.7451171875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1249.622314453125</v>
+        <v>2234.853515625</v>
       </c>
       <c r="FC4" t="n">
-        <v>1236.035888671875</v>
+        <v>2234.402587890625</v>
       </c>
       <c r="FD4" t="n">
-        <v>1229.059204101562</v>
+        <v>2229.0419921875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1194.443481445312</v>
+        <v>2229.138427734375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1175.0224609375</v>
+        <v>2222.959228515625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1130.063598632812</v>
+        <v>2230.86474609375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1086.983642578125</v>
+        <v>2210.472412109375</v>
       </c>
       <c r="FI4" t="n">
-        <v>1121.925048828125</v>
+        <v>2222.946044921875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1097.031616210938</v>
+        <v>2230.62109375</v>
       </c>
       <c r="FK4" t="n">
-        <v>1058.7666015625</v>
+        <v>2196.921142578125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1037.124145507812</v>
+        <v>2148.83154296875</v>
       </c>
       <c r="FM4" t="n">
-        <v>986.24365234375</v>
+        <v>2084.171875</v>
       </c>
       <c r="FN4" t="n">
-        <v>939.2012329101562</v>
+        <v>2142.285888671875</v>
       </c>
       <c r="FO4" t="n">
-        <v>915.8731689453125</v>
+        <v>2068.658935546875</v>
       </c>
       <c r="FP4" t="n">
-        <v>898.7218627929688</v>
+        <v>2040.612060546875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>869.9359130859375</v>
+        <v>2031.183349609375</v>
       </c>
       <c r="FR4" t="n">
-        <v>861.1884155273438</v>
+        <v>2016.931030273438</v>
       </c>
       <c r="FS4" t="n">
-        <v>845.2396240234375</v>
+        <v>2022.27783203125</v>
       </c>
       <c r="FT4" t="n">
-        <v>832.9254150390625</v>
+        <v>2018.299926757812</v>
       </c>
       <c r="FU4" t="n">
-        <v>821.3331298828125</v>
+        <v>2009.009399414062</v>
       </c>
       <c r="FV4" t="n">
-        <v>818.6038208007812</v>
+        <v>1997.463745117188</v>
       </c>
       <c r="FW4" t="n">
-        <v>800.8673706054688</v>
+        <v>1942.501831054688</v>
       </c>
       <c r="FX4" t="n">
-        <v>811.7667846679688</v>
+        <v>1951.622802734375</v>
       </c>
       <c r="FY4" t="n">
-        <v>823.61962890625</v>
+        <v>1967.106201171875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>830.545166015625</v>
+        <v>1983.3193359375</v>
       </c>
       <c r="GA4" t="n">
-        <v>843.4418334960938</v>
+        <v>1981.460815429688</v>
       </c>
       <c r="GB4" t="n">
-        <v>847.7811279296875</v>
+        <v>1987.675415039062</v>
       </c>
       <c r="GC4" t="n">
-        <v>861.1636962890625</v>
+        <v>1987.998901367188</v>
       </c>
       <c r="GD4" t="n">
-        <v>872.1350708007812</v>
+        <v>1985.415405273438</v>
       </c>
       <c r="GE4" t="n">
-        <v>870.4942016601562</v>
+        <v>1983.321899414062</v>
       </c>
       <c r="GF4" t="n">
-        <v>865.2272338867188</v>
+        <v>1968.059204101562</v>
       </c>
       <c r="GG4" t="n">
-        <v>847.7041625976562</v>
+        <v>1969.060546875</v>
       </c>
       <c r="GH4" t="n">
-        <v>834.7334594726562</v>
+        <v>1960.4345703125</v>
       </c>
       <c r="GI4" t="n">
-        <v>829.4362182617188</v>
+        <v>1964.407470703125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>824.8095703125</v>
+        <v>1968.675048828125</v>
       </c>
       <c r="GK4" t="n">
-        <v>802.978515625</v>
+        <v>1970.226440429688</v>
       </c>
       <c r="GL4" t="n">
-        <v>788.4967041015625</v>
+        <v>1970.708374023438</v>
       </c>
       <c r="GM4" t="n">
-        <v>763.0608520507812</v>
+        <v>1971.04443359375</v>
       </c>
       <c r="GN4" t="n">
-        <v>734.6966552734375</v>
+        <v>1968.84033203125</v>
       </c>
       <c r="GO4" t="n">
-        <v>719.2565307617188</v>
+        <v>1966.667236328125</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>1965.519287109375</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>1963.748168945312</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1966.107788085938</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1964.734130859375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1967.492919921875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1965.463623046875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1963.780639648438</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1957.473388671875</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1950.031494140625</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1933.51611328125</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1932.421630859375</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1942.286376953125</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1952.160278320312</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1927.965698242188</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1894.455688476562</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1814.312133789062</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1786.889526367188</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1743.387451171875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1692.117797851562</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1653.077758789062</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1625.91015625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1572.054809570312</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1515.631225585938</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1461.567504882812</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1441.28466796875</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1406.859985351562</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1365.628784179688</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1318.97265625</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1291.874877929688</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1242.1015625</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1195.052856445312</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1164.88623046875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1137.719970703125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1118.071044921875</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1078.893676757812</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1060.560424804688</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1017.304626464844</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>996.081787109375</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1002.725463867188</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>977.6854858398438</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1080.3203125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1050.371826171875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1077.233642578125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1045.903442382812</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1020.334899902344</v>
+      </c>
+      <c r="II4" t="n">
+        <v>989.8126220703125</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>967.3091430664062</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>949.0758666992188</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>935.808837890625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>779.107177734375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>717.640869140625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>569.2091674804688</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>450.7431945800781</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>431.2535705566406</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>437.9371948242188</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>469.2113037109375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>543.0006713867188</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>589.8070678710938</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>575.6818237304688</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>641.70751953125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>812.1939697265625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>827.9441528320312</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>856.5226440429688</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>829.6244506835938</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>840.1959228515625</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>896.5067749023438</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>952.5291137695312</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>972.1528930664062</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>635.6976318359375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>710.1212768554688</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>668.406494140625</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>657.7011108398438</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>633.556640625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>610.8007202148438</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>576.2489013671875</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>542.3175048828125</v>
       </c>
     </row>
   </sheetData>

--- a/right_hand_Data.xlsx
+++ b/right_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56.52770233154297</v>
+        <v>362.2766723632812</v>
       </c>
       <c r="B2" t="n">
-        <v>55.06684112548828</v>
+        <v>358.6204223632812</v>
       </c>
       <c r="C2" t="n">
-        <v>55.10080718994141</v>
+        <v>356.1982727050781</v>
       </c>
       <c r="D2" t="n">
-        <v>55.19885635375977</v>
+        <v>355.6524963378906</v>
       </c>
       <c r="E2" t="n">
-        <v>55.23382186889648</v>
+        <v>357.1818237304688</v>
       </c>
       <c r="F2" t="n">
-        <v>54.99789810180664</v>
+        <v>358.371337890625</v>
       </c>
       <c r="G2" t="n">
-        <v>54.71710586547852</v>
+        <v>361.4761352539062</v>
       </c>
       <c r="H2" t="n">
-        <v>54.46304321289062</v>
+        <v>367.1411743164062</v>
       </c>
       <c r="I2" t="n">
-        <v>54.27764511108398</v>
+        <v>362.771240234375</v>
       </c>
       <c r="J2" t="n">
-        <v>54.06779479980469</v>
+        <v>347.3470764160156</v>
       </c>
       <c r="K2" t="n">
-        <v>53.89850616455078</v>
+        <v>323.9788208007812</v>
       </c>
       <c r="L2" t="n">
-        <v>53.21198272705078</v>
+        <v>305.8550109863281</v>
       </c>
       <c r="M2" t="n">
-        <v>52.6073112487793</v>
+        <v>300.7062377929688</v>
       </c>
       <c r="N2" t="n">
-        <v>52.32353210449219</v>
+        <v>340.1861267089844</v>
       </c>
       <c r="O2" t="n">
-        <v>51.94902038574219</v>
+        <v>332.0631408691406</v>
       </c>
       <c r="P2" t="n">
-        <v>51.61670684814453</v>
+        <v>324.7522583007812</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.48965454101562</v>
+        <v>319.4903259277344</v>
       </c>
       <c r="R2" t="n">
-        <v>51.72507858276367</v>
+        <v>316.5049133300781</v>
       </c>
       <c r="S2" t="n">
-        <v>52.15966033935547</v>
+        <v>314.6449890136719</v>
       </c>
       <c r="T2" t="n">
-        <v>51.34455871582031</v>
+        <v>313.0977172851562</v>
       </c>
       <c r="U2" t="n">
-        <v>44.35596466064453</v>
+        <v>311.4386596679688</v>
       </c>
       <c r="V2" t="n">
-        <v>39.17383575439453</v>
+        <v>311.7326049804688</v>
       </c>
       <c r="W2" t="n">
-        <v>44.86183166503906</v>
+        <v>311.67919921875</v>
       </c>
       <c r="X2" t="n">
-        <v>51.54742431640625</v>
+        <v>311.3965759277344</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.3262939453125</v>
+        <v>310.3446350097656</v>
       </c>
       <c r="Z2" t="n">
-        <v>75.60628509521484</v>
+        <v>306.4059143066406</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.69253540039062</v>
+        <v>300.415283203125</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.720458984375</v>
+        <v>297.05859375</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.3694915771484</v>
+        <v>296.3133850097656</v>
       </c>
       <c r="AD2" t="n">
-        <v>115.2915267944336</v>
+        <v>267.5117797851562</v>
       </c>
       <c r="AE2" t="n">
-        <v>126.6648025512695</v>
+        <v>262.5956726074219</v>
       </c>
       <c r="AF2" t="n">
-        <v>134.2204742431641</v>
+        <v>264.9105834960938</v>
       </c>
       <c r="AG2" t="n">
-        <v>139.8559875488281</v>
+        <v>262.9852905273438</v>
       </c>
       <c r="AH2" t="n">
-        <v>145.8974456787109</v>
+        <v>261.9874572753906</v>
       </c>
       <c r="AI2" t="n">
-        <v>155.5830688476562</v>
+        <v>262.9251098632812</v>
       </c>
       <c r="AJ2" t="n">
-        <v>163.2987670898438</v>
+        <v>267.6512145996094</v>
       </c>
       <c r="AK2" t="n">
-        <v>169.4697418212891</v>
+        <v>275.6129455566406</v>
       </c>
       <c r="AL2" t="n">
-        <v>246.2602233886719</v>
+        <v>279.4197998046875</v>
       </c>
       <c r="AM2" t="n">
-        <v>246.2782592773438</v>
+        <v>281.7568969726562</v>
       </c>
       <c r="AN2" t="n">
-        <v>249.0232086181641</v>
+        <v>283.0743103027344</v>
       </c>
       <c r="AO2" t="n">
-        <v>245.4530487060547</v>
+        <v>285.407958984375</v>
       </c>
       <c r="AP2" t="n">
-        <v>246.4523620605469</v>
+        <v>285.4983520507812</v>
       </c>
       <c r="AQ2" t="n">
-        <v>246.203857421875</v>
+        <v>285.1629638671875</v>
       </c>
       <c r="AR2" t="n">
-        <v>246.2892303466797</v>
+        <v>284.3776550292969</v>
       </c>
       <c r="AS2" t="n">
-        <v>246.8248901367188</v>
+        <v>283.0588684082031</v>
       </c>
       <c r="AT2" t="n">
-        <v>247.787353515625</v>
+        <v>277.689208984375</v>
       </c>
       <c r="AU2" t="n">
-        <v>148.9725494384766</v>
+        <v>270.0149230957031</v>
       </c>
       <c r="AV2" t="n">
-        <v>168.2285461425781</v>
+        <v>256.9566650390625</v>
       </c>
       <c r="AW2" t="n">
-        <v>170.1128234863281</v>
+        <v>247.0256195068359</v>
       </c>
       <c r="AX2" t="n">
-        <v>171.6513366699219</v>
+        <v>244.5249176025391</v>
       </c>
       <c r="AY2" t="n">
-        <v>172.6553497314453</v>
+        <v>238.8517761230469</v>
       </c>
       <c r="AZ2" t="n">
-        <v>175.6336822509766</v>
+        <v>234.2449951171875</v>
       </c>
       <c r="BA2" t="n">
-        <v>179.9069213867188</v>
+        <v>224.0099792480469</v>
       </c>
       <c r="BB2" t="n">
-        <v>184.6625671386719</v>
+        <v>217.5201263427734</v>
       </c>
       <c r="BC2" t="n">
-        <v>189.9464721679688</v>
+        <v>211.8115386962891</v>
       </c>
       <c r="BD2" t="n">
-        <v>201.4621734619141</v>
+        <v>206.8847961425781</v>
       </c>
       <c r="BE2" t="n">
-        <v>215.37890625</v>
+        <v>197.71533203125</v>
       </c>
       <c r="BF2" t="n">
-        <v>222.0998840332031</v>
+        <v>190.2984466552734</v>
       </c>
       <c r="BG2" t="n">
-        <v>228.8987426757812</v>
+        <v>185.2535705566406</v>
       </c>
       <c r="BH2" t="n">
-        <v>234.17431640625</v>
+        <v>177.8533935546875</v>
       </c>
       <c r="BI2" t="n">
-        <v>241.8891296386719</v>
+        <v>169.163330078125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>246.6854553222656</v>
+        <v>162.2197723388672</v>
       </c>
       <c r="BK2" t="n">
-        <v>249.344970703125</v>
+        <v>154.2264556884766</v>
       </c>
       <c r="BL2" t="n">
-        <v>249.2116546630859</v>
+        <v>146.6064910888672</v>
       </c>
       <c r="BM2" t="n">
-        <v>249.1356811523438</v>
+        <v>139.7856140136719</v>
       </c>
       <c r="BN2" t="n">
-        <v>250.0984954833984</v>
+        <v>129.3158416748047</v>
       </c>
       <c r="BO2" t="n">
-        <v>255.8716125488281</v>
+        <v>122.5068206787109</v>
       </c>
       <c r="BP2" t="n">
-        <v>262.5065612792969</v>
+        <v>111.8819427490234</v>
       </c>
       <c r="BQ2" t="n">
-        <v>266.5105590820312</v>
+        <v>102.2225341796875</v>
       </c>
       <c r="BR2" t="n">
-        <v>273.7178649902344</v>
+        <v>96.456298828125</v>
       </c>
       <c r="BS2" t="n">
-        <v>276.6258544921875</v>
+        <v>93.98352813720703</v>
       </c>
       <c r="BT2" t="n">
-        <v>277.0117492675781</v>
+        <v>91.56092834472656</v>
       </c>
       <c r="BU2" t="n">
-        <v>276.8048706054688</v>
+        <v>89.74412536621094</v>
       </c>
       <c r="BV2" t="n">
-        <v>277.5432739257812</v>
+        <v>89.10121917724609</v>
       </c>
       <c r="BW2" t="n">
-        <v>282.0302429199219</v>
+        <v>88.22953796386719</v>
       </c>
       <c r="BX2" t="n">
-        <v>291.2416076660156</v>
+        <v>87.63187408447266</v>
       </c>
       <c r="BY2" t="n">
-        <v>296.8711242675781</v>
+        <v>86.60406494140625</v>
       </c>
       <c r="BZ2" t="n">
-        <v>300.9731750488281</v>
+        <v>84.85818481445312</v>
       </c>
       <c r="CA2" t="n">
-        <v>305.3121643066406</v>
+        <v>83.11221313476562</v>
       </c>
       <c r="CB2" t="n">
-        <v>304.4755249023438</v>
+        <v>80.47072601318359</v>
       </c>
       <c r="CC2" t="n">
-        <v>305.0624084472656</v>
+        <v>73.5792236328125</v>
       </c>
       <c r="CD2" t="n">
-        <v>306.2509765625</v>
+        <v>62.95470428466797</v>
       </c>
       <c r="CE2" t="n">
-        <v>309.6880798339844</v>
+        <v>49.48809814453125</v>
       </c>
       <c r="CF2" t="n">
-        <v>311.8249206542969</v>
+        <v>37.22227096557617</v>
       </c>
       <c r="CG2" t="n">
-        <v>311.4126892089844</v>
+        <v>26.78839111328125</v>
       </c>
       <c r="CH2" t="n">
-        <v>310.5771789550781</v>
+        <v>23.04031753540039</v>
       </c>
       <c r="CI2" t="n">
-        <v>308.8757629394531</v>
+        <v>21.97831726074219</v>
       </c>
       <c r="CJ2" t="n">
-        <v>307.4906616210938</v>
+        <v>22.85092926025391</v>
       </c>
       <c r="CK2" t="n">
-        <v>307.0144653320312</v>
+        <v>23.50578498840332</v>
       </c>
       <c r="CL2" t="n">
-        <v>306.5564575195312</v>
+        <v>26.8836784362793</v>
       </c>
       <c r="CM2" t="n">
-        <v>305.1841125488281</v>
+        <v>30.22265625</v>
       </c>
       <c r="CN2" t="n">
-        <v>304.1239624023438</v>
+        <v>31.48060035705566</v>
       </c>
       <c r="CO2" t="n">
-        <v>304.1781921386719</v>
+        <v>30.80797576904297</v>
       </c>
       <c r="CP2" t="n">
-        <v>303.708251953125</v>
+        <v>28.17276382446289</v>
       </c>
       <c r="CQ2" t="n">
-        <v>302.4585876464844</v>
+        <v>27.92450904846191</v>
       </c>
       <c r="CR2" t="n">
-        <v>299.6482543945312</v>
+        <v>33.97101211547852</v>
       </c>
       <c r="CS2" t="n">
-        <v>295.8213500976562</v>
+        <v>40.60810470581055</v>
       </c>
       <c r="CT2" t="n">
-        <v>293.8176879882812</v>
+        <v>51.8984375</v>
       </c>
       <c r="CU2" t="n">
-        <v>292.4806823730469</v>
+        <v>67.3358154296875</v>
       </c>
       <c r="CV2" t="n">
-        <v>291.5244140625</v>
+        <v>85.16678619384766</v>
       </c>
       <c r="CW2" t="n">
-        <v>292.3231506347656</v>
+        <v>98.41994476318359</v>
       </c>
       <c r="CX2" t="n">
-        <v>291.3152770996094</v>
+        <v>109.8620147705078</v>
       </c>
       <c r="CY2" t="n">
-        <v>288.1604919433594</v>
+        <v>124.442138671875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>285.9465026855469</v>
+        <v>138.5570831298828</v>
       </c>
       <c r="DA2" t="n">
-        <v>282.8729553222656</v>
+        <v>151.1578521728516</v>
       </c>
       <c r="DB2" t="n">
-        <v>280.1733093261719</v>
+        <v>158.5319671630859</v>
       </c>
       <c r="DC2" t="n">
-        <v>275.0514526367188</v>
+        <v>164.6085968017578</v>
       </c>
       <c r="DD2" t="n">
-        <v>272.131591796875</v>
+        <v>168.1601257324219</v>
       </c>
       <c r="DE2" t="n">
-        <v>274.2445678710938</v>
+        <v>170.0083312988281</v>
       </c>
       <c r="DF2" t="n">
-        <v>274.4357299804688</v>
+        <v>169.4451751708984</v>
       </c>
       <c r="DG2" t="n">
-        <v>274.1533508300781</v>
+        <v>170.1026306152344</v>
       </c>
       <c r="DH2" t="n">
-        <v>274.0416564941406</v>
+        <v>168.3324890136719</v>
       </c>
       <c r="DI2" t="n">
-        <v>274.5415649414062</v>
+        <v>166.2585144042969</v>
       </c>
       <c r="DJ2" t="n">
-        <v>274.5843811035156</v>
+        <v>164.0342864990234</v>
       </c>
       <c r="DK2" t="n">
-        <v>274.572998046875</v>
+        <v>161.573974609375</v>
       </c>
       <c r="DL2" t="n">
-        <v>274.1831665039062</v>
+        <v>157.8403167724609</v>
       </c>
       <c r="DM2" t="n">
-        <v>273.8428039550781</v>
+        <v>154.6589050292969</v>
       </c>
       <c r="DN2" t="n">
-        <v>274.0962524414062</v>
+        <v>152.5170593261719</v>
       </c>
       <c r="DO2" t="n">
-        <v>274.7068176269531</v>
+        <v>152.4422760009766</v>
       </c>
       <c r="DP2" t="n">
-        <v>274.8940734863281</v>
+        <v>164.8291015625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>275.1532287597656</v>
+        <v>177.9127197265625</v>
       </c>
       <c r="DR2" t="n">
-        <v>275.590087890625</v>
+        <v>189.4727783203125</v>
       </c>
       <c r="DS2" t="n">
-        <v>276.1730651855469</v>
+        <v>222.4112548828125</v>
       </c>
       <c r="DT2" t="n">
-        <v>279.0786743164062</v>
+        <v>241.355224609375</v>
       </c>
       <c r="DU2" t="n">
-        <v>280.905517578125</v>
+        <v>260.1271667480469</v>
       </c>
       <c r="DV2" t="n">
-        <v>281.8905639648438</v>
+        <v>289.1037902832031</v>
       </c>
       <c r="DW2" t="n">
-        <v>278.7286987304688</v>
+        <v>303.3907775878906</v>
       </c>
       <c r="DX2" t="n">
-        <v>278.4075317382812</v>
+        <v>305.6944580078125</v>
       </c>
       <c r="DY2" t="n">
-        <v>277.0980529785156</v>
+        <v>307.0888366699219</v>
       </c>
       <c r="DZ2" t="n">
-        <v>269.6960754394531</v>
+        <v>307.0421142578125</v>
       </c>
       <c r="EA2" t="n">
-        <v>267.3446350097656</v>
+        <v>306.7614135742188</v>
       </c>
       <c r="EB2" t="n">
-        <v>264.8624267578125</v>
+        <v>306.3192138671875</v>
       </c>
       <c r="EC2" t="n">
-        <v>262.821533203125</v>
+        <v>306.0474853515625</v>
       </c>
       <c r="ED2" t="n">
-        <v>262.9624938964844</v>
+        <v>303.7423095703125</v>
       </c>
       <c r="EE2" t="n">
-        <v>265.1369323730469</v>
+        <v>299.8959350585938</v>
       </c>
       <c r="EF2" t="n">
-        <v>268.0689392089844</v>
+        <v>294.4201354980469</v>
       </c>
       <c r="EG2" t="n">
-        <v>274.2976989746094</v>
+        <v>287.1921997070312</v>
       </c>
       <c r="EH2" t="n">
-        <v>274.4233093261719</v>
+        <v>283.3730773925781</v>
       </c>
       <c r="EI2" t="n">
-        <v>270.66650390625</v>
+        <v>276.8187866210938</v>
       </c>
       <c r="EJ2" t="n">
-        <v>273.1990661621094</v>
+        <v>272.894775390625</v>
       </c>
       <c r="EK2" t="n">
-        <v>266.0025024414062</v>
+        <v>267.2597351074219</v>
       </c>
       <c r="EL2" t="n">
-        <v>260.5580749511719</v>
+        <v>263.3103942871094</v>
       </c>
       <c r="EM2" t="n">
-        <v>248.3116760253906</v>
+        <v>250.5973510742188</v>
       </c>
       <c r="EN2" t="n">
-        <v>237.1917114257812</v>
+        <v>244.4786224365234</v>
       </c>
       <c r="EO2" t="n">
-        <v>226.6705322265625</v>
+        <v>228.0037231445312</v>
       </c>
       <c r="EP2" t="n">
-        <v>214.3925170898438</v>
+        <v>216.0316772460938</v>
       </c>
       <c r="EQ2" t="n">
-        <v>209.7369079589844</v>
+        <v>201.2333984375</v>
       </c>
       <c r="ER2" t="n">
-        <v>201.7149963378906</v>
+        <v>194.5023803710938</v>
       </c>
       <c r="ES2" t="n">
-        <v>203.6114196777344</v>
+        <v>174.8258361816406</v>
       </c>
       <c r="ET2" t="n">
-        <v>198.577392578125</v>
+        <v>168.6121215820312</v>
       </c>
       <c r="EU2" t="n">
-        <v>200.1920776367188</v>
+        <v>162.1507415771484</v>
       </c>
       <c r="EV2" t="n">
-        <v>208.7408752441406</v>
+        <v>155.7675628662109</v>
       </c>
       <c r="EW2" t="n">
-        <v>201.4166564941406</v>
+        <v>153.56689453125</v>
       </c>
       <c r="EX2" t="n">
-        <v>207.5331420898438</v>
+        <v>153.8445281982422</v>
       </c>
       <c r="EY2" t="n">
-        <v>201.4241180419922</v>
+        <v>158.7305297851562</v>
       </c>
       <c r="EZ2" t="n">
-        <v>196.7580871582031</v>
+        <v>165.8058013916016</v>
       </c>
       <c r="FA2" t="n">
-        <v>197.7772521972656</v>
+        <v>168.7120208740234</v>
       </c>
       <c r="FB2" t="n">
-        <v>203.0193939208984</v>
+        <v>175.3525695800781</v>
       </c>
       <c r="FC2" t="n">
-        <v>195.9242248535156</v>
+        <v>185.4413146972656</v>
       </c>
       <c r="FD2" t="n">
-        <v>196.7180480957031</v>
+        <v>183.0886840820312</v>
       </c>
       <c r="FE2" t="n">
-        <v>196.4701995849609</v>
+        <v>181.0340576171875</v>
       </c>
       <c r="FF2" t="n">
-        <v>205.8191223144531</v>
+        <v>181.1368103027344</v>
       </c>
       <c r="FG2" t="n">
-        <v>195.5792846679688</v>
+        <v>183.5480651855469</v>
       </c>
       <c r="FH2" t="n">
-        <v>207.3806457519531</v>
+        <v>188.4990234375</v>
       </c>
       <c r="FI2" t="n">
-        <v>199.3353424072266</v>
+        <v>197.6037902832031</v>
       </c>
       <c r="FJ2" t="n">
-        <v>197.3281555175781</v>
+        <v>211.0245971679688</v>
       </c>
       <c r="FK2" t="n">
-        <v>202.1622009277344</v>
+        <v>206.9616851806641</v>
       </c>
       <c r="FL2" t="n">
-        <v>196.6263122558594</v>
+        <v>214.566162109375</v>
       </c>
       <c r="FM2" t="n">
-        <v>193.6408996582031</v>
+        <v>222.6157379150391</v>
       </c>
       <c r="FN2" t="n">
-        <v>194.0132141113281</v>
+        <v>231.6481018066406</v>
       </c>
       <c r="FO2" t="n">
-        <v>195.6481323242188</v>
+        <v>241.953857421875</v>
       </c>
       <c r="FP2" t="n">
-        <v>199.1642608642578</v>
+        <v>131.4391784667969</v>
       </c>
       <c r="FQ2" t="n">
-        <v>203.8182830810547</v>
+        <v>289.7054443359375</v>
       </c>
       <c r="FR2" t="n">
-        <v>206.5386047363281</v>
+        <v>310.1460571289062</v>
       </c>
       <c r="FS2" t="n">
-        <v>215.0810546875</v>
+        <v>321.8980407714844</v>
       </c>
       <c r="FT2" t="n">
-        <v>218.9522705078125</v>
+        <v>332.9452819824219</v>
       </c>
       <c r="FU2" t="n">
-        <v>230.1860961914062</v>
+        <v>295.0022888183594</v>
       </c>
       <c r="FV2" t="n">
-        <v>234.8019714355469</v>
+        <v>298.0705871582031</v>
       </c>
       <c r="FW2" t="n">
-        <v>255.3411712646484</v>
+        <v>326.3945007324219</v>
       </c>
       <c r="FX2" t="n">
-        <v>267.2846069335938</v>
+        <v>335.7146911621094</v>
       </c>
       <c r="FY2" t="n">
-        <v>279.3687438964844</v>
+        <v>347.2974243164062</v>
       </c>
       <c r="FZ2" t="n">
-        <v>286.0351257324219</v>
+        <v>346.569580078125</v>
       </c>
       <c r="GA2" t="n">
-        <v>289.9739379882812</v>
+        <v>347.53662109375</v>
       </c>
       <c r="GB2" t="n">
-        <v>292.3500366210938</v>
+        <v>341.395263671875</v>
       </c>
       <c r="GC2" t="n">
-        <v>293.1185302734375</v>
+        <v>353.8601989746094</v>
       </c>
       <c r="GD2" t="n">
-        <v>290.2786560058594</v>
+        <v>341.9345703125</v>
       </c>
       <c r="GE2" t="n">
-        <v>286.737060546875</v>
+        <v>325.3394165039062</v>
       </c>
       <c r="GF2" t="n">
-        <v>275.2694702148438</v>
+        <v>315.6239318847656</v>
       </c>
       <c r="GG2" t="n">
-        <v>271.8826599121094</v>
+        <v>263.4836120605469</v>
       </c>
       <c r="GH2" t="n">
-        <v>264.3802795410156</v>
+        <v>316.6759033203125</v>
       </c>
       <c r="GI2" t="n">
-        <v>259.0284423828125</v>
+        <v>299.0919494628906</v>
       </c>
       <c r="GJ2" t="n">
-        <v>257.3262023925781</v>
+        <v>285.8280944824219</v>
       </c>
       <c r="GK2" t="n">
-        <v>255.3683624267578</v>
+        <v>318.0531616210938</v>
       </c>
       <c r="GL2" t="n">
-        <v>253.4555816650391</v>
+        <v>303.8849182128906</v>
       </c>
       <c r="GM2" t="n">
-        <v>253.2970886230469</v>
+        <v>299.0804138183594</v>
       </c>
       <c r="GN2" t="n">
-        <v>253.134765625</v>
+        <v>283.0708312988281</v>
       </c>
       <c r="GO2" t="n">
-        <v>253.2247772216797</v>
+        <v>279.135498046875</v>
       </c>
       <c r="GP2" t="n">
-        <v>255.5694885253906</v>
+        <v>233.7602996826172</v>
       </c>
       <c r="GQ2" t="n">
-        <v>261.5468139648438</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>262.5495910644531</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>264.3168029785156</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>268.3986511230469</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>270.9133605957031</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>270.7484436035156</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>271.4456176757812</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>271.6299743652344</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>269.8753356933594</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>267.5125732421875</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>266.503173828125</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>260.8963012695312</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>261.0382385253906</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>261.8355712890625</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>267.4007263183594</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>267.721435546875</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>266.4092712402344</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>264.8646850585938</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>263.4454040527344</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>262.5789184570312</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>259.076904296875</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>251.0777587890625</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>248.1680450439453</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>247.2720642089844</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>245.4678192138672</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>242.7772216796875</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>239.1368408203125</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>224.7303771972656</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>201.1648864746094</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>182.9798126220703</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>174.7158203125</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>153.7850341796875</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>140.3218841552734</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>111.6222229003906</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>96.25032043457031</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>94.169677734375</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>100.7275466918945</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>79.68581390380859</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>77.12343597412109</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>202.6242370605469</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>197.0321502685547</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>165.9942474365234</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>164.1455383300781</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>164.8028411865234</v>
-      </c>
-      <c r="II2" t="n">
-        <v>170.2637023925781</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>174.2030639648438</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>176.5289459228516</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>178.23291015625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>222.7299499511719</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>198.6484069824219</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>146.78564453125</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>150.6468353271484</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>167.0579223632812</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>147.5727996826172</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>119.1564788818359</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>115.3876647949219</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>128.1805572509766</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>104.5729751586914</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>91.95648193359375</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>48.72866821289062</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>21.41642761230469</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>15.42516326904297</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>21.4055290222168</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>33.48085403442383</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>57.03993988037109</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>80.84799957275391</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>108.3833160400391</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>35.0953483581543</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-18.38290786743164</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>-49.49789428710938</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>-43.32563018798828</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-52.69152069091797</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>-64.30513763427734</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>-58.14126968383789</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-40.49213790893555</v>
+        <v>210.2462005615234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>430.2158508300781</v>
+        <v>423.3535461425781</v>
       </c>
       <c r="B3" t="n">
-        <v>432.0459289550781</v>
+        <v>419.1819763183594</v>
       </c>
       <c r="C3" t="n">
-        <v>433.0315551757812</v>
+        <v>416.3243103027344</v>
       </c>
       <c r="D3" t="n">
-        <v>434.1148986816406</v>
+        <v>415.1977844238281</v>
       </c>
       <c r="E3" t="n">
-        <v>435.1492614746094</v>
+        <v>423.3479614257812</v>
       </c>
       <c r="F3" t="n">
-        <v>435.8536071777344</v>
+        <v>432.8026733398438</v>
       </c>
       <c r="G3" t="n">
-        <v>436.3285522460938</v>
+        <v>436.0677795410156</v>
       </c>
       <c r="H3" t="n">
-        <v>436.6123962402344</v>
+        <v>453.3032531738281</v>
       </c>
       <c r="I3" t="n">
-        <v>436.4910888671875</v>
+        <v>446.9911193847656</v>
       </c>
       <c r="J3" t="n">
-        <v>436.2944946289062</v>
+        <v>432.688232421875</v>
       </c>
       <c r="K3" t="n">
-        <v>435.8876647949219</v>
+        <v>403.9440002441406</v>
       </c>
       <c r="L3" t="n">
-        <v>435.5494689941406</v>
+        <v>384.5983276367188</v>
       </c>
       <c r="M3" t="n">
-        <v>435.0693054199219</v>
+        <v>215.3407897949219</v>
       </c>
       <c r="N3" t="n">
-        <v>434.90576171875</v>
+        <v>404.1078491210938</v>
       </c>
       <c r="O3" t="n">
-        <v>434.7686462402344</v>
+        <v>402.9910278320312</v>
       </c>
       <c r="P3" t="n">
-        <v>434.4856567382812</v>
+        <v>398.84716796875</v>
       </c>
       <c r="Q3" t="n">
-        <v>433.3468017578125</v>
+        <v>393.2269287109375</v>
       </c>
       <c r="R3" t="n">
-        <v>431.6181335449219</v>
+        <v>385.444091796875</v>
       </c>
       <c r="S3" t="n">
-        <v>430.9132690429688</v>
+        <v>377.4258422851562</v>
       </c>
       <c r="T3" t="n">
-        <v>430.6517944335938</v>
+        <v>371.1554260253906</v>
       </c>
       <c r="U3" t="n">
-        <v>427.8997192382812</v>
+        <v>367.2996826171875</v>
       </c>
       <c r="V3" t="n">
-        <v>423.6787109375</v>
+        <v>363.4869384765625</v>
       </c>
       <c r="W3" t="n">
-        <v>422.7976989746094</v>
+        <v>360.3897399902344</v>
       </c>
       <c r="X3" t="n">
-        <v>422.0533752441406</v>
+        <v>358.7052917480469</v>
       </c>
       <c r="Y3" t="n">
-        <v>422.5525817871094</v>
+        <v>356.8774719238281</v>
       </c>
       <c r="Z3" t="n">
-        <v>421.9683227539062</v>
+        <v>354.0658569335938</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.423583984375</v>
+        <v>350.4935913085938</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.1703491210938</v>
+        <v>347.3587951660156</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.8081359863281</v>
+        <v>346.5488586425781</v>
       </c>
       <c r="AD3" t="n">
-        <v>397.2599487304688</v>
+        <v>345.647216796875</v>
       </c>
       <c r="AE3" t="n">
-        <v>384.5884704589844</v>
+        <v>345.1436157226562</v>
       </c>
       <c r="AF3" t="n">
-        <v>376.7442321777344</v>
+        <v>329.8149108886719</v>
       </c>
       <c r="AG3" t="n">
-        <v>375.404541015625</v>
+        <v>330.7423706054688</v>
       </c>
       <c r="AH3" t="n">
-        <v>370.4690246582031</v>
+        <v>330.3824157714844</v>
       </c>
       <c r="AI3" t="n">
-        <v>363.6766357421875</v>
+        <v>329.5475158691406</v>
       </c>
       <c r="AJ3" t="n">
-        <v>355.8569030761719</v>
+        <v>328.173828125</v>
       </c>
       <c r="AK3" t="n">
-        <v>347.5982666015625</v>
+        <v>327.0626525878906</v>
       </c>
       <c r="AL3" t="n">
-        <v>415.9616088867188</v>
+        <v>323.7061767578125</v>
       </c>
       <c r="AM3" t="n">
-        <v>413.3859558105469</v>
+        <v>320.1787719726562</v>
       </c>
       <c r="AN3" t="n">
-        <v>414.5879821777344</v>
+        <v>316.6662902832031</v>
       </c>
       <c r="AO3" t="n">
-        <v>417.6437683105469</v>
+        <v>313.1594543457031</v>
       </c>
       <c r="AP3" t="n">
-        <v>417.8324584960938</v>
+        <v>310.3185424804688</v>
       </c>
       <c r="AQ3" t="n">
-        <v>415.4591064453125</v>
+        <v>307.6797180175781</v>
       </c>
       <c r="AR3" t="n">
-        <v>412.3585205078125</v>
+        <v>306.6969909667969</v>
       </c>
       <c r="AS3" t="n">
-        <v>408.7663879394531</v>
+        <v>307.7814025878906</v>
       </c>
       <c r="AT3" t="n">
-        <v>410.4737854003906</v>
+        <v>309.165283203125</v>
       </c>
       <c r="AU3" t="n">
-        <v>379.5517272949219</v>
+        <v>309.471435546875</v>
       </c>
       <c r="AV3" t="n">
-        <v>388.8610534667969</v>
+        <v>309.0452270507812</v>
       </c>
       <c r="AW3" t="n">
-        <v>391.0584411621094</v>
+        <v>309.259521484375</v>
       </c>
       <c r="AX3" t="n">
-        <v>389.596923828125</v>
+        <v>311.6257629394531</v>
       </c>
       <c r="AY3" t="n">
-        <v>389.4662780761719</v>
+        <v>323.3795166015625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>389.9544982910156</v>
+        <v>337.4464721679688</v>
       </c>
       <c r="BA3" t="n">
-        <v>394.1011962890625</v>
+        <v>347.3291931152344</v>
       </c>
       <c r="BB3" t="n">
-        <v>394.9574279785156</v>
+        <v>347.7458190917969</v>
       </c>
       <c r="BC3" t="n">
-        <v>394.3779296875</v>
+        <v>348.6805725097656</v>
       </c>
       <c r="BD3" t="n">
-        <v>393.2223815917969</v>
+        <v>350.6241149902344</v>
       </c>
       <c r="BE3" t="n">
-        <v>396.6432800292969</v>
+        <v>349.8851928710938</v>
       </c>
       <c r="BF3" t="n">
-        <v>395.2049255371094</v>
+        <v>351.0937805175781</v>
       </c>
       <c r="BG3" t="n">
-        <v>390.6300964355469</v>
+        <v>352.5022277832031</v>
       </c>
       <c r="BH3" t="n">
-        <v>387.6528930664062</v>
+        <v>352.6544189453125</v>
       </c>
       <c r="BI3" t="n">
-        <v>383.6505432128906</v>
+        <v>352.0540771484375</v>
       </c>
       <c r="BJ3" t="n">
-        <v>380.4671630859375</v>
+        <v>350.7127685546875</v>
       </c>
       <c r="BK3" t="n">
-        <v>381.8330688476562</v>
+        <v>349.5727844238281</v>
       </c>
       <c r="BL3" t="n">
-        <v>381.9691772460938</v>
+        <v>344.472900390625</v>
       </c>
       <c r="BM3" t="n">
-        <v>379.4738159179688</v>
+        <v>341.8315734863281</v>
       </c>
       <c r="BN3" t="n">
-        <v>377.7162170410156</v>
+        <v>339.7127990722656</v>
       </c>
       <c r="BO3" t="n">
-        <v>378.1585388183594</v>
+        <v>338.3919067382812</v>
       </c>
       <c r="BP3" t="n">
-        <v>378.3118591308594</v>
+        <v>337.2882690429688</v>
       </c>
       <c r="BQ3" t="n">
-        <v>373.2925720214844</v>
+        <v>334.65234375</v>
       </c>
       <c r="BR3" t="n">
-        <v>366.6277160644531</v>
+        <v>333.6665954589844</v>
       </c>
       <c r="BS3" t="n">
-        <v>366.9669189453125</v>
+        <v>333.4010620117188</v>
       </c>
       <c r="BT3" t="n">
-        <v>364.5214538574219</v>
+        <v>332.1380310058594</v>
       </c>
       <c r="BU3" t="n">
-        <v>364.6158447265625</v>
+        <v>331.6407470703125</v>
       </c>
       <c r="BV3" t="n">
-        <v>362.0939331054688</v>
+        <v>331.7076721191406</v>
       </c>
       <c r="BW3" t="n">
-        <v>362.09423828125</v>
+        <v>332.4162902832031</v>
       </c>
       <c r="BX3" t="n">
-        <v>362.7364501953125</v>
+        <v>333.6127014160156</v>
       </c>
       <c r="BY3" t="n">
-        <v>370.2109069824219</v>
+        <v>333.5986633300781</v>
       </c>
       <c r="BZ3" t="n">
-        <v>370.6129760742188</v>
+        <v>332.90478515625</v>
       </c>
       <c r="CA3" t="n">
-        <v>369.297119140625</v>
+        <v>331.7324829101562</v>
       </c>
       <c r="CB3" t="n">
-        <v>367.986572265625</v>
+        <v>329.8554077148438</v>
       </c>
       <c r="CC3" t="n">
-        <v>368.4429626464844</v>
+        <v>322.6170959472656</v>
       </c>
       <c r="CD3" t="n">
-        <v>368.7808227539062</v>
+        <v>310.3894348144531</v>
       </c>
       <c r="CE3" t="n">
-        <v>367.0440368652344</v>
+        <v>296.8147888183594</v>
       </c>
       <c r="CF3" t="n">
-        <v>365.6809997558594</v>
+        <v>283.1564636230469</v>
       </c>
       <c r="CG3" t="n">
-        <v>362.9815673828125</v>
+        <v>266.9233703613281</v>
       </c>
       <c r="CH3" t="n">
-        <v>360.9008483886719</v>
+        <v>249.0534820556641</v>
       </c>
       <c r="CI3" t="n">
-        <v>360.7663879394531</v>
+        <v>232.5336608886719</v>
       </c>
       <c r="CJ3" t="n">
-        <v>359.5032653808594</v>
+        <v>216.7293548583984</v>
       </c>
       <c r="CK3" t="n">
-        <v>359.3258361816406</v>
+        <v>206.5220642089844</v>
       </c>
       <c r="CL3" t="n">
-        <v>359.8245544433594</v>
+        <v>193.7846832275391</v>
       </c>
       <c r="CM3" t="n">
-        <v>362.0361022949219</v>
+        <v>189.3733520507812</v>
       </c>
       <c r="CN3" t="n">
-        <v>363.725830078125</v>
+        <v>188.8330841064453</v>
       </c>
       <c r="CO3" t="n">
-        <v>364.3136291503906</v>
+        <v>191.0237121582031</v>
       </c>
       <c r="CP3" t="n">
-        <v>365.8804626464844</v>
+        <v>197.5450286865234</v>
       </c>
       <c r="CQ3" t="n">
-        <v>366.464111328125</v>
+        <v>210.3267211914062</v>
       </c>
       <c r="CR3" t="n">
-        <v>367.1038208007812</v>
+        <v>245.1695251464844</v>
       </c>
       <c r="CS3" t="n">
-        <v>368.7921752929688</v>
+        <v>266.8424072265625</v>
       </c>
       <c r="CT3" t="n">
-        <v>367.2459411621094</v>
+        <v>289.8672790527344</v>
       </c>
       <c r="CU3" t="n">
-        <v>365.6280822753906</v>
+        <v>303.354248046875</v>
       </c>
       <c r="CV3" t="n">
-        <v>363.7121887207031</v>
+        <v>312.4585266113281</v>
       </c>
       <c r="CW3" t="n">
-        <v>364.027587890625</v>
+        <v>326.3049926757812</v>
       </c>
       <c r="CX3" t="n">
-        <v>357.3159484863281</v>
+        <v>338.0391540527344</v>
       </c>
       <c r="CY3" t="n">
-        <v>348.6575317382812</v>
+        <v>346.8860778808594</v>
       </c>
       <c r="CZ3" t="n">
-        <v>351.8214721679688</v>
+        <v>354.3359985351562</v>
       </c>
       <c r="DA3" t="n">
-        <v>352.6398315429688</v>
+        <v>357.9221801757812</v>
       </c>
       <c r="DB3" t="n">
-        <v>353.5478210449219</v>
+        <v>359.5526123046875</v>
       </c>
       <c r="DC3" t="n">
-        <v>354.118896484375</v>
+        <v>358.1690979003906</v>
       </c>
       <c r="DD3" t="n">
-        <v>355.4691772460938</v>
+        <v>358.2447204589844</v>
       </c>
       <c r="DE3" t="n">
-        <v>354.972412109375</v>
+        <v>358.1957092285156</v>
       </c>
       <c r="DF3" t="n">
-        <v>354.7570190429688</v>
+        <v>358.7354125976562</v>
       </c>
       <c r="DG3" t="n">
-        <v>354.8099060058594</v>
+        <v>359.8696594238281</v>
       </c>
       <c r="DH3" t="n">
-        <v>352.7142028808594</v>
+        <v>359.8004150390625</v>
       </c>
       <c r="DI3" t="n">
-        <v>351.5389709472656</v>
+        <v>359.9846496582031</v>
       </c>
       <c r="DJ3" t="n">
-        <v>351.3007202148438</v>
+        <v>356.4360656738281</v>
       </c>
       <c r="DK3" t="n">
-        <v>351.3746032714844</v>
+        <v>356.3168640136719</v>
       </c>
       <c r="DL3" t="n">
-        <v>352.8890686035156</v>
+        <v>357.1534729003906</v>
       </c>
       <c r="DM3" t="n">
-        <v>354.5928649902344</v>
+        <v>356.4044189453125</v>
       </c>
       <c r="DN3" t="n">
-        <v>354.0092468261719</v>
+        <v>353.9349975585938</v>
       </c>
       <c r="DO3" t="n">
-        <v>351.3548583984375</v>
+        <v>349.9264831542969</v>
       </c>
       <c r="DP3" t="n">
-        <v>350.3495483398438</v>
+        <v>348.8176879882812</v>
       </c>
       <c r="DQ3" t="n">
-        <v>350.0901489257812</v>
+        <v>352.20263671875</v>
       </c>
       <c r="DR3" t="n">
-        <v>350.3261413574219</v>
+        <v>353.7931213378906</v>
       </c>
       <c r="DS3" t="n">
-        <v>351.1196594238281</v>
+        <v>358.5126037597656</v>
       </c>
       <c r="DT3" t="n">
-        <v>351.4550170898438</v>
+        <v>362.2592163085938</v>
       </c>
       <c r="DU3" t="n">
-        <v>351.5877990722656</v>
+        <v>364.1993713378906</v>
       </c>
       <c r="DV3" t="n">
-        <v>351.5831298828125</v>
+        <v>359.4949340820312</v>
       </c>
       <c r="DW3" t="n">
-        <v>352.7485656738281</v>
+        <v>351.8302307128906</v>
       </c>
       <c r="DX3" t="n">
-        <v>352.8272399902344</v>
+        <v>346.98828125</v>
       </c>
       <c r="DY3" t="n">
-        <v>352.5563354492188</v>
+        <v>343.5771789550781</v>
       </c>
       <c r="DZ3" t="n">
-        <v>350.8569641113281</v>
+        <v>340.8429565429688</v>
       </c>
       <c r="EA3" t="n">
-        <v>350.4326782226562</v>
+        <v>336.8160400390625</v>
       </c>
       <c r="EB3" t="n">
-        <v>350.6539916992188</v>
+        <v>335.5440368652344</v>
       </c>
       <c r="EC3" t="n">
-        <v>352.3329772949219</v>
+        <v>335.6215209960938</v>
       </c>
       <c r="ED3" t="n">
-        <v>351.6104431152344</v>
+        <v>335.4473876953125</v>
       </c>
       <c r="EE3" t="n">
-        <v>350.0784301757812</v>
+        <v>334.7774353027344</v>
       </c>
       <c r="EF3" t="n">
-        <v>349.8301696777344</v>
+        <v>333.7920532226562</v>
       </c>
       <c r="EG3" t="n">
-        <v>352.1173400878906</v>
+        <v>332.587646484375</v>
       </c>
       <c r="EH3" t="n">
-        <v>350.2146911621094</v>
+        <v>334.993408203125</v>
       </c>
       <c r="EI3" t="n">
-        <v>353.986572265625</v>
+        <v>341.0447998046875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>349.6641845703125</v>
+        <v>347.1252746582031</v>
       </c>
       <c r="EK3" t="n">
-        <v>345.1382141113281</v>
+        <v>356.3178100585938</v>
       </c>
       <c r="EL3" t="n">
-        <v>341.9106140136719</v>
+        <v>356.8642272949219</v>
       </c>
       <c r="EM3" t="n">
-        <v>337.9003601074219</v>
+        <v>361.3266906738281</v>
       </c>
       <c r="EN3" t="n">
-        <v>336.530517578125</v>
+        <v>363.7613525390625</v>
       </c>
       <c r="EO3" t="n">
-        <v>330.37646484375</v>
+        <v>366.8585510253906</v>
       </c>
       <c r="EP3" t="n">
-        <v>312.4862976074219</v>
+        <v>368.7138977050781</v>
       </c>
       <c r="EQ3" t="n">
-        <v>304.8557434082031</v>
+        <v>377.7897338867188</v>
       </c>
       <c r="ER3" t="n">
-        <v>289.4841613769531</v>
+        <v>380.694580078125</v>
       </c>
       <c r="ES3" t="n">
-        <v>263.5919799804688</v>
+        <v>383.783935546875</v>
       </c>
       <c r="ET3" t="n">
-        <v>272.9513244628906</v>
+        <v>386.1137390136719</v>
       </c>
       <c r="EU3" t="n">
-        <v>267.8126220703125</v>
+        <v>387.2859802246094</v>
       </c>
       <c r="EV3" t="n">
-        <v>249.0226440429688</v>
+        <v>390.6945495605469</v>
       </c>
       <c r="EW3" t="n">
-        <v>251.0075836181641</v>
+        <v>395.2456665039062</v>
       </c>
       <c r="EX3" t="n">
-        <v>235.2408905029297</v>
+        <v>397.581787109375</v>
       </c>
       <c r="EY3" t="n">
-        <v>244.2557373046875</v>
+        <v>403.5586242675781</v>
       </c>
       <c r="EZ3" t="n">
-        <v>241.9525604248047</v>
+        <v>406.5147399902344</v>
       </c>
       <c r="FA3" t="n">
-        <v>238.2408905029297</v>
+        <v>405.8092346191406</v>
       </c>
       <c r="FB3" t="n">
-        <v>227.56640625</v>
+        <v>405.4446105957031</v>
       </c>
       <c r="FC3" t="n">
-        <v>240.0445251464844</v>
+        <v>408.97314453125</v>
       </c>
       <c r="FD3" t="n">
-        <v>239.2592315673828</v>
+        <v>420.9248962402344</v>
       </c>
       <c r="FE3" t="n">
-        <v>239.5813293457031</v>
+        <v>434.5478515625</v>
       </c>
       <c r="FF3" t="n">
-        <v>220.2245788574219</v>
+        <v>445.9133605957031</v>
       </c>
       <c r="FG3" t="n">
-        <v>238.5489501953125</v>
+        <v>450.0562133789062</v>
       </c>
       <c r="FH3" t="n">
-        <v>220.2240447998047</v>
+        <v>464.7662048339844</v>
       </c>
       <c r="FI3" t="n">
-        <v>234.5926055908203</v>
+        <v>471.6138916015625</v>
       </c>
       <c r="FJ3" t="n">
-        <v>242.448486328125</v>
+        <v>494.0526123046875</v>
       </c>
       <c r="FK3" t="n">
-        <v>237.8375091552734</v>
+        <v>507.8798217773438</v>
       </c>
       <c r="FL3" t="n">
-        <v>254.9930419921875</v>
+        <v>522.9456176757812</v>
       </c>
       <c r="FM3" t="n">
-        <v>268.6721496582031</v>
+        <v>529.5714721679688</v>
       </c>
       <c r="FN3" t="n">
-        <v>270.8120422363281</v>
+        <v>543.9708251953125</v>
       </c>
       <c r="FO3" t="n">
-        <v>279.3749694824219</v>
+        <v>568.7623901367188</v>
       </c>
       <c r="FP3" t="n">
-        <v>290.1888427734375</v>
+        <v>425.8736877441406</v>
       </c>
       <c r="FQ3" t="n">
-        <v>300.8799133300781</v>
+        <v>599.372802734375</v>
       </c>
       <c r="FR3" t="n">
-        <v>306.7797241210938</v>
+        <v>584.2554931640625</v>
       </c>
       <c r="FS3" t="n">
-        <v>317.1808471679688</v>
+        <v>582.3511352539062</v>
       </c>
       <c r="FT3" t="n">
-        <v>321.4959106445312</v>
+        <v>575.5460205078125</v>
       </c>
       <c r="FU3" t="n">
-        <v>331.8319091796875</v>
+        <v>557.2098999023438</v>
       </c>
       <c r="FV3" t="n">
-        <v>337.5464172363281</v>
+        <v>591.8827514648438</v>
       </c>
       <c r="FW3" t="n">
-        <v>345.3344116210938</v>
+        <v>591.000244140625</v>
       </c>
       <c r="FX3" t="n">
-        <v>349.5091857910156</v>
+        <v>591.4805297851562</v>
       </c>
       <c r="FY3" t="n">
-        <v>358.0818786621094</v>
+        <v>552.1490478515625</v>
       </c>
       <c r="FZ3" t="n">
-        <v>357.0831909179688</v>
+        <v>548.6427001953125</v>
       </c>
       <c r="GA3" t="n">
-        <v>354.9619750976562</v>
+        <v>542.8430786132812</v>
       </c>
       <c r="GB3" t="n">
-        <v>355.8763427734375</v>
+        <v>579.9144897460938</v>
       </c>
       <c r="GC3" t="n">
-        <v>356.0686340332031</v>
+        <v>582.5478515625</v>
       </c>
       <c r="GD3" t="n">
-        <v>355.3746948242188</v>
+        <v>546.0034790039062</v>
       </c>
       <c r="GE3" t="n">
-        <v>354.1245422363281</v>
+        <v>553.1260986328125</v>
       </c>
       <c r="GF3" t="n">
-        <v>349.7975463867188</v>
+        <v>573.1917114257812</v>
       </c>
       <c r="GG3" t="n">
-        <v>348.81591796875</v>
+        <v>596.2996215820312</v>
       </c>
       <c r="GH3" t="n">
-        <v>343.9908752441406</v>
+        <v>572.83203125</v>
       </c>
       <c r="GI3" t="n">
-        <v>342.5391540527344</v>
+        <v>579.9292602539062</v>
       </c>
       <c r="GJ3" t="n">
-        <v>340.8896484375</v>
+        <v>589.7359008789062</v>
       </c>
       <c r="GK3" t="n">
-        <v>338.1758422851562</v>
+        <v>610.0846557617188</v>
       </c>
       <c r="GL3" t="n">
-        <v>339.0972900390625</v>
+        <v>624.6290893554688</v>
       </c>
       <c r="GM3" t="n">
-        <v>340.2718505859375</v>
+        <v>616.0509033203125</v>
       </c>
       <c r="GN3" t="n">
-        <v>340.6804504394531</v>
+        <v>611.9822387695312</v>
       </c>
       <c r="GO3" t="n">
-        <v>341.2184448242188</v>
+        <v>609.6141357421875</v>
       </c>
       <c r="GP3" t="n">
-        <v>342.4833984375</v>
+        <v>611.5909423828125</v>
       </c>
       <c r="GQ3" t="n">
-        <v>345.9884948730469</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>346.48974609375</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>346.776611328125</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>347.8699951171875</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>349.8289184570312</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>351.0791625976562</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>351.2997436523438</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>352.00244140625</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>357.2689819335938</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>363.2229919433594</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>365.472900390625</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>365.7496643066406</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>364.8592224121094</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>364.428466796875</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>370.8067321777344</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>372.725830078125</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>375.3901977539062</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>378.213623046875</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>377.375</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>374.6951904296875</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>368.6369323730469</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>373.1087951660156</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>374.8052062988281</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>374.2171020507812</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>372.5134887695312</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>372.0824584960938</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>372.5022583007812</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>365.7375183105469</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>362.5761108398438</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>364.211181640625</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>358.56640625</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>364.4743347167969</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>369.4527587890625</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>365.0990295410156</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>368.0694580078125</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>374.9645690917969</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>380.2472839355469</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>377.5038757324219</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>380.136474609375</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>163.5765991210938</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>160.1488800048828</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>435.4721984863281</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>437.9031677246094</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>438.0186767578125</v>
-      </c>
-      <c r="II3" t="n">
-        <v>441.8398742675781</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>444.4634094238281</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>449.3382568359375</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>452.055419921875</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>141.2379455566406</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>578.3126831054688</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>743.8241577148438</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>908.2163696289062</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>932.5709228515625</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>900.1392822265625</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>836.2150268554688</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>741.5618896484375</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>692.655517578125</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>647.5718383789062</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>558.1531982421875</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>481.1012573242188</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>483.7328796386719</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>489.2056274414062</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>554.4703979492188</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>589.1150512695312</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>574.9849243164062</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>558.6227416992188</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>560.7728271484375</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>440.1637268066406</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>494.2940063476562</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>523.1128540039062</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>518.2025146484375</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>523.0745239257812</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>537.2579956054688</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>559.714111328125</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>582.9473876953125</v>
+        <v>613.285888671875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>728.8705444335938</v>
+        <v>1090.91748046875</v>
       </c>
       <c r="B4" t="n">
-        <v>723.4889526367188</v>
+        <v>1126.471313476562</v>
       </c>
       <c r="C4" t="n">
-        <v>723.1348876953125</v>
+        <v>1162.036010742188</v>
       </c>
       <c r="D4" t="n">
-        <v>722.8698120117188</v>
+        <v>1176.700073242188</v>
       </c>
       <c r="E4" t="n">
-        <v>722.4482421875</v>
+        <v>1181.387329101562</v>
       </c>
       <c r="F4" t="n">
-        <v>721.30029296875</v>
+        <v>1193.694458007812</v>
       </c>
       <c r="G4" t="n">
-        <v>720.1152954101562</v>
+        <v>1215.120361328125</v>
       </c>
       <c r="H4" t="n">
-        <v>718.997802734375</v>
+        <v>1218.488891601562</v>
       </c>
       <c r="I4" t="n">
-        <v>718.0363159179688</v>
+        <v>1253.1162109375</v>
       </c>
       <c r="J4" t="n">
-        <v>717.12890625</v>
+        <v>1348.37548828125</v>
       </c>
       <c r="K4" t="n">
-        <v>716.3390502929688</v>
+        <v>1474.936645507812</v>
       </c>
       <c r="L4" t="n">
-        <v>715.1650390625</v>
+        <v>1539.253540039062</v>
       </c>
       <c r="M4" t="n">
-        <v>714.1557006835938</v>
+        <v>1281.253051757812</v>
       </c>
       <c r="N4" t="n">
-        <v>714.5076904296875</v>
+        <v>1432.119262695312</v>
       </c>
       <c r="O4" t="n">
-        <v>714.6830444335938</v>
+        <v>1421.71142578125</v>
       </c>
       <c r="P4" t="n">
-        <v>715.0034790039062</v>
+        <v>1416.606079101562</v>
       </c>
       <c r="Q4" t="n">
-        <v>716.0813598632812</v>
+        <v>1426.035400390625</v>
       </c>
       <c r="R4" t="n">
-        <v>718.2490844726562</v>
+        <v>1439.989990234375</v>
       </c>
       <c r="S4" t="n">
-        <v>721.0861206054688</v>
+        <v>1462.708129882812</v>
       </c>
       <c r="T4" t="n">
-        <v>724.2681884765625</v>
+        <v>1464.538940429688</v>
       </c>
       <c r="U4" t="n">
-        <v>727.7382202148438</v>
+        <v>1464.87451171875</v>
       </c>
       <c r="V4" t="n">
-        <v>738.0924682617188</v>
+        <v>1462.947143554688</v>
       </c>
       <c r="W4" t="n">
-        <v>735.4917602539062</v>
+        <v>1462.71923828125</v>
       </c>
       <c r="X4" t="n">
-        <v>730.624755859375</v>
+        <v>1465.6171875</v>
       </c>
       <c r="Y4" t="n">
-        <v>743.2841796875</v>
+        <v>1471.40234375</v>
       </c>
       <c r="Z4" t="n">
-        <v>766.2803344726562</v>
+        <v>1472.904174804688</v>
       </c>
       <c r="AA4" t="n">
-        <v>775.220703125</v>
+        <v>1474.556030273438</v>
       </c>
       <c r="AB4" t="n">
-        <v>806.69140625</v>
+        <v>1473.666625976562</v>
       </c>
       <c r="AC4" t="n">
-        <v>910.3728637695312</v>
+        <v>1471.15625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000.52099609375</v>
+        <v>1346.19482421875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1059.132690429688</v>
+        <v>1319.45556640625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1083.6611328125</v>
+        <v>1318.841186523438</v>
       </c>
       <c r="AG4" t="n">
-        <v>1070.697021484375</v>
+        <v>1299.945678710938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1058.425537109375</v>
+        <v>1280.1279296875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1072.860107421875</v>
+        <v>1263.076538085938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1089.748046875</v>
+        <v>1247.732299804688</v>
       </c>
       <c r="AK4" t="n">
-        <v>1111.184692382812</v>
+        <v>1237.892456054688</v>
       </c>
       <c r="AL4" t="n">
-        <v>1046.10302734375</v>
+        <v>1227.607299804688</v>
       </c>
       <c r="AM4" t="n">
-        <v>1054.916015625</v>
+        <v>1220.028564453125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1065.284790039062</v>
+        <v>1212.431030273438</v>
       </c>
       <c r="AO4" t="n">
-        <v>1072.0712890625</v>
+        <v>1211.8515625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1083.877319335938</v>
+        <v>1213.982666015625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1097.385498046875</v>
+        <v>1210.114135742188</v>
       </c>
       <c r="AR4" t="n">
-        <v>1113.137084960938</v>
+        <v>1206.84716796875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1132.99560546875</v>
+        <v>1208.830200195312</v>
       </c>
       <c r="AT4" t="n">
-        <v>1149.498291015625</v>
+        <v>1209.962890625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1000.512878417969</v>
+        <v>1208.804565429688</v>
       </c>
       <c r="AV4" t="n">
-        <v>1002.683227539062</v>
+        <v>1209.619750976562</v>
       </c>
       <c r="AW4" t="n">
-        <v>1009.922302246094</v>
+        <v>1210.314697265625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1013.171203613281</v>
+        <v>1211.528930664062</v>
       </c>
       <c r="AY4" t="n">
-        <v>1025.380126953125</v>
+        <v>1209.971923828125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1049.995849609375</v>
+        <v>1214.361206054688</v>
       </c>
       <c r="BA4" t="n">
-        <v>1072.380126953125</v>
+        <v>1219.082275390625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1106.329833984375</v>
+        <v>1228.721923828125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1123.866088867188</v>
+        <v>1231.799072265625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1151.541137695312</v>
+        <v>1235.584838867188</v>
       </c>
       <c r="BE4" t="n">
-        <v>1182.437744140625</v>
+        <v>1234.732177734375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1228.442138671875</v>
+        <v>1236.766479492188</v>
       </c>
       <c r="BG4" t="n">
-        <v>1267.523559570312</v>
+        <v>1243.523071289062</v>
       </c>
       <c r="BH4" t="n">
-        <v>1291.79931640625</v>
+        <v>1247.520385742188</v>
       </c>
       <c r="BI4" t="n">
-        <v>1354.516479492188</v>
+        <v>1253.7373046875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1392.097778320312</v>
+        <v>1257.73193359375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1413.596923828125</v>
+        <v>1255.193359375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1446.458618164062</v>
+        <v>1260.293823242188</v>
       </c>
       <c r="BM4" t="n">
-        <v>1453.094360351562</v>
+        <v>1262.404663085938</v>
       </c>
       <c r="BN4" t="n">
-        <v>1453.935668945312</v>
+        <v>1264.95361328125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1452.147338867188</v>
+        <v>1265.162231445312</v>
       </c>
       <c r="BP4" t="n">
-        <v>1455.004028320312</v>
+        <v>1259.599365234375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1460.045166015625</v>
+        <v>1252.796142578125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1473.833618164062</v>
+        <v>1256.427001953125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1486.900390625</v>
+        <v>1254.990356445312</v>
       </c>
       <c r="BT4" t="n">
-        <v>1510.7138671875</v>
+        <v>1252.677368164062</v>
       </c>
       <c r="BU4" t="n">
-        <v>1518.927124023438</v>
+        <v>1251.391845703125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1541.581909179688</v>
+        <v>1250.364624023438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1555.113037109375</v>
+        <v>1248.352294921875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1573.354614257812</v>
+        <v>1244.991333007812</v>
       </c>
       <c r="BY4" t="n">
-        <v>1585.0166015625</v>
+        <v>1236.989013671875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1604.302612304688</v>
+        <v>1221.245849609375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1636.219116210938</v>
+        <v>1206.662475585938</v>
       </c>
       <c r="CB4" t="n">
-        <v>1670.150634765625</v>
+        <v>1196.350463867188</v>
       </c>
       <c r="CC4" t="n">
-        <v>1672.42041015625</v>
+        <v>1175.266845703125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1686.6533203125</v>
+        <v>1155.4794921875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1698.315551757812</v>
+        <v>1141.561157226562</v>
       </c>
       <c r="CF4" t="n">
-        <v>1713.903686523438</v>
+        <v>1126.411987304688</v>
       </c>
       <c r="CG4" t="n">
-        <v>1733.045776367188</v>
+        <v>1103.807983398438</v>
       </c>
       <c r="CH4" t="n">
-        <v>1752.81103515625</v>
+        <v>1089.94189453125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1773.983520507812</v>
+        <v>1086.634643554688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1784.1552734375</v>
+        <v>1086.99951171875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1799.426879882812</v>
+        <v>1088.03173828125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1819.374633789062</v>
+        <v>1094.839233398438</v>
       </c>
       <c r="CM4" t="n">
-        <v>1840.494506835938</v>
+        <v>1101.12939453125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1848.786254882812</v>
+        <v>1101.77978515625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1849.572875976562</v>
+        <v>1095.037719726562</v>
       </c>
       <c r="CP4" t="n">
-        <v>1855.657470703125</v>
+        <v>1074.569946289062</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1865.2861328125</v>
+        <v>1051.741333007812</v>
       </c>
       <c r="CR4" t="n">
-        <v>1888.668823242188</v>
+        <v>1010.967346191406</v>
       </c>
       <c r="CS4" t="n">
-        <v>1912.523803710938</v>
+        <v>1007.2548828125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1923.452026367188</v>
+        <v>1020.091430664062</v>
       </c>
       <c r="CU4" t="n">
-        <v>1929.200317382812</v>
+        <v>1032.007934570312</v>
       </c>
       <c r="CV4" t="n">
-        <v>1941.446899414062</v>
+        <v>1045.724365234375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1956.205810546875</v>
+        <v>1071.228271484375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1967.543579101562</v>
+        <v>1091.7841796875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1986.1025390625</v>
+        <v>1110.641479492188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1982.478271484375</v>
+        <v>1135.967895507812</v>
       </c>
       <c r="DA4" t="n">
-        <v>2007.222290039062</v>
+        <v>1157.158813476562</v>
       </c>
       <c r="DB4" t="n">
-        <v>2013.426635742188</v>
+        <v>1176.397705078125</v>
       </c>
       <c r="DC4" t="n">
-        <v>2023.353393554688</v>
+        <v>1189.80126953125</v>
       </c>
       <c r="DD4" t="n">
-        <v>2042.364624023438</v>
+        <v>1196.0107421875</v>
       </c>
       <c r="DE4" t="n">
-        <v>2021.273071289062</v>
+        <v>1195.519165039062</v>
       </c>
       <c r="DF4" t="n">
-        <v>2019.429443359375</v>
+        <v>1192.879150390625</v>
       </c>
       <c r="DG4" t="n">
-        <v>2026.110595703125</v>
+        <v>1187.606811523438</v>
       </c>
       <c r="DH4" t="n">
-        <v>2032.175659179688</v>
+        <v>1180.540649414062</v>
       </c>
       <c r="DI4" t="n">
-        <v>2037.28076171875</v>
+        <v>1169.224243164062</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2037.557739257812</v>
+        <v>1153.895751953125</v>
       </c>
       <c r="DK4" t="n">
-        <v>2036.014892578125</v>
+        <v>1139.707275390625</v>
       </c>
       <c r="DL4" t="n">
-        <v>2029.54345703125</v>
+        <v>1126.393920898438</v>
       </c>
       <c r="DM4" t="n">
-        <v>2022.944946289062</v>
+        <v>1119.911010742188</v>
       </c>
       <c r="DN4" t="n">
-        <v>2019.202880859375</v>
+        <v>1118.073364257812</v>
       </c>
       <c r="DO4" t="n">
-        <v>2009.029541015625</v>
+        <v>1117.432006835938</v>
       </c>
       <c r="DP4" t="n">
-        <v>2004.12353515625</v>
+        <v>1116.035766601562</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2001.953369140625</v>
+        <v>1113.848510742188</v>
       </c>
       <c r="DR4" t="n">
-        <v>1999.893432617188</v>
+        <v>1113.740600585938</v>
       </c>
       <c r="DS4" t="n">
-        <v>1997.60400390625</v>
+        <v>1120.329833984375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1998.537109375</v>
+        <v>1131.401489257812</v>
       </c>
       <c r="DU4" t="n">
-        <v>1994.71875</v>
+        <v>1144.208740234375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1990.915771484375</v>
+        <v>1163.632568359375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1987.718505859375</v>
+        <v>1167.055541992188</v>
       </c>
       <c r="DX4" t="n">
-        <v>1987.095458984375</v>
+        <v>1168.868774414062</v>
       </c>
       <c r="DY4" t="n">
-        <v>1988.057006835938</v>
+        <v>1167.174560546875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1993.082153320312</v>
+        <v>1152.31494140625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1993.185668945312</v>
+        <v>1136.098388671875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1989.25390625</v>
+        <v>1118.875244140625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1993.801025390625</v>
+        <v>1113.347412109375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1995.351318359375</v>
+        <v>1114.890869140625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1997.393188476562</v>
+        <v>1116.74951171875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1984.349853515625</v>
+        <v>1119.32470703125</v>
       </c>
       <c r="EG4" t="n">
-        <v>1997.953369140625</v>
+        <v>1128.2529296875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1980.975219726562</v>
+        <v>1135.515747070312</v>
       </c>
       <c r="EI4" t="n">
-        <v>2020.755126953125</v>
+        <v>1139.379760742188</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1979.52587890625</v>
+        <v>1132.745727539062</v>
       </c>
       <c r="EK4" t="n">
-        <v>1974.849731445312</v>
+        <v>1144.852172851562</v>
       </c>
       <c r="EL4" t="n">
-        <v>1975.554931640625</v>
+        <v>1145.704223632812</v>
       </c>
       <c r="EM4" t="n">
-        <v>2007.613037109375</v>
+        <v>1144.052001953125</v>
       </c>
       <c r="EN4" t="n">
-        <v>2031.446166992188</v>
+        <v>1143.431518554688</v>
       </c>
       <c r="EO4" t="n">
-        <v>2053.8203125</v>
+        <v>1107.479858398438</v>
       </c>
       <c r="EP4" t="n">
-        <v>2062.0244140625</v>
+        <v>1085.732666015625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2070.9287109375</v>
+        <v>1048.520751953125</v>
       </c>
       <c r="ER4" t="n">
-        <v>2115.768310546875</v>
+        <v>1032.86279296875</v>
       </c>
       <c r="ES4" t="n">
-        <v>2139.279541015625</v>
+        <v>1017.447143554688</v>
       </c>
       <c r="ET4" t="n">
-        <v>2176.5625</v>
+        <v>1005.660217285156</v>
       </c>
       <c r="EU4" t="n">
-        <v>2201.619384765625</v>
+        <v>995.5489501953125</v>
       </c>
       <c r="EV4" t="n">
-        <v>2269.16357421875</v>
+        <v>965.9982299804688</v>
       </c>
       <c r="EW4" t="n">
-        <v>2242.18115234375</v>
+        <v>945.504638671875</v>
       </c>
       <c r="EX4" t="n">
-        <v>2248.892822265625</v>
+        <v>942.8372192382812</v>
       </c>
       <c r="EY4" t="n">
-        <v>2251.366455078125</v>
+        <v>931.2791748046875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2231.572021484375</v>
+        <v>923.2149658203125</v>
       </c>
       <c r="FA4" t="n">
-        <v>2233.7451171875</v>
+        <v>919.8085327148438</v>
       </c>
       <c r="FB4" t="n">
-        <v>2234.853515625</v>
+        <v>914.3733520507812</v>
       </c>
       <c r="FC4" t="n">
-        <v>2234.402587890625</v>
+        <v>898.2669067382812</v>
       </c>
       <c r="FD4" t="n">
-        <v>2229.0419921875</v>
+        <v>882.120849609375</v>
       </c>
       <c r="FE4" t="n">
-        <v>2229.138427734375</v>
+        <v>872.2657470703125</v>
       </c>
       <c r="FF4" t="n">
-        <v>2222.959228515625</v>
+        <v>868.9149780273438</v>
       </c>
       <c r="FG4" t="n">
-        <v>2230.86474609375</v>
+        <v>869.7484130859375</v>
       </c>
       <c r="FH4" t="n">
-        <v>2210.472412109375</v>
+        <v>864.5556030273438</v>
       </c>
       <c r="FI4" t="n">
-        <v>2222.946044921875</v>
+        <v>861.7560424804688</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2230.62109375</v>
+        <v>858.1527099609375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2196.921142578125</v>
+        <v>851.5700073242188</v>
       </c>
       <c r="FL4" t="n">
-        <v>2148.83154296875</v>
+        <v>854.7704467773438</v>
       </c>
       <c r="FM4" t="n">
-        <v>2084.171875</v>
+        <v>855.590087890625</v>
       </c>
       <c r="FN4" t="n">
-        <v>2142.285888671875</v>
+        <v>843.7061767578125</v>
       </c>
       <c r="FO4" t="n">
-        <v>2068.658935546875</v>
+        <v>814.8411254882812</v>
       </c>
       <c r="FP4" t="n">
-        <v>2040.612060546875</v>
+        <v>355.3898315429688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2031.183349609375</v>
+        <v>626.40625</v>
       </c>
       <c r="FR4" t="n">
-        <v>2016.931030273438</v>
+        <v>915.0899047851562</v>
       </c>
       <c r="FS4" t="n">
-        <v>2022.27783203125</v>
+        <v>907.2576293945312</v>
       </c>
       <c r="FT4" t="n">
-        <v>2018.299926757812</v>
+        <v>906.3604125976562</v>
       </c>
       <c r="FU4" t="n">
-        <v>2009.009399414062</v>
+        <v>676.5376586914062</v>
       </c>
       <c r="FV4" t="n">
-        <v>1997.463745117188</v>
+        <v>629.35888671875</v>
       </c>
       <c r="FW4" t="n">
-        <v>1942.501831054688</v>
+        <v>623.4852294921875</v>
       </c>
       <c r="FX4" t="n">
-        <v>1951.622802734375</v>
+        <v>621.0166625976562</v>
       </c>
       <c r="FY4" t="n">
-        <v>1967.106201171875</v>
+        <v>661.6676635742188</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1983.3193359375</v>
+        <v>661.20703125</v>
       </c>
       <c r="GA4" t="n">
-        <v>1981.460815429688</v>
+        <v>668.20703125</v>
       </c>
       <c r="GB4" t="n">
-        <v>1987.675415039062</v>
+        <v>630.801513671875</v>
       </c>
       <c r="GC4" t="n">
-        <v>1987.998901367188</v>
+        <v>622.3359375</v>
       </c>
       <c r="GD4" t="n">
-        <v>1985.415405273438</v>
+        <v>664.8198852539062</v>
       </c>
       <c r="GE4" t="n">
-        <v>1983.321899414062</v>
+        <v>654.084716796875</v>
       </c>
       <c r="GF4" t="n">
-        <v>1968.059204101562</v>
+        <v>630.617919921875</v>
       </c>
       <c r="GG4" t="n">
-        <v>1969.060546875</v>
+        <v>610.8469848632812</v>
       </c>
       <c r="GH4" t="n">
-        <v>1960.4345703125</v>
+        <v>879.525390625</v>
       </c>
       <c r="GI4" t="n">
-        <v>1964.407470703125</v>
+        <v>867.1778564453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1968.675048828125</v>
+        <v>861.1141357421875</v>
       </c>
       <c r="GK4" t="n">
-        <v>1970.226440429688</v>
+        <v>852.077880859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>1970.708374023438</v>
+        <v>825.5328979492188</v>
       </c>
       <c r="GM4" t="n">
-        <v>1971.04443359375</v>
+        <v>838.7572631835938</v>
       </c>
       <c r="GN4" t="n">
-        <v>1968.84033203125</v>
+        <v>831.3522338867188</v>
       </c>
       <c r="GO4" t="n">
-        <v>1966.667236328125</v>
+        <v>830.56689453125</v>
       </c>
       <c r="GP4" t="n">
-        <v>1965.519287109375</v>
+        <v>794.6765747070312</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1963.748168945312</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>1966.107788085938</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>1964.734130859375</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>1967.492919921875</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>1965.463623046875</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>1963.780639648438</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>1957.473388671875</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>1950.031494140625</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>1933.51611328125</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>1932.421630859375</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>1942.286376953125</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>1952.160278320312</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1927.965698242188</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1894.455688476562</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1814.312133789062</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1786.889526367188</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1743.387451171875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1692.117797851562</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1653.077758789062</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1625.91015625</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1572.054809570312</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1515.631225585938</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1461.567504882812</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1441.28466796875</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1406.859985351562</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1365.628784179688</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1318.97265625</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1291.874877929688</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1242.1015625</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1195.052856445312</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1164.88623046875</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1137.719970703125</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1118.071044921875</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1078.893676757812</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1060.560424804688</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1017.304626464844</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>996.081787109375</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1002.725463867188</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>977.6854858398438</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1080.3203125</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1050.371826171875</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>1077.233642578125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>1045.903442382812</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>1020.334899902344</v>
-      </c>
-      <c r="II4" t="n">
-        <v>989.8126220703125</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>967.3091430664062</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>949.0758666992188</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>935.808837890625</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>779.107177734375</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>717.640869140625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>569.2091674804688</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>450.7431945800781</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>431.2535705566406</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>437.9371948242188</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>469.2113037109375</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>543.0006713867188</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>589.8070678710938</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>575.6818237304688</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>641.70751953125</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>812.1939697265625</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>827.9441528320312</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>856.5226440429688</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>829.6244506835938</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>840.1959228515625</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>896.5067749023438</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>952.5291137695312</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>972.1528930664062</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>635.6976318359375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>710.1212768554688</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>668.406494140625</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>657.7011108398438</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>633.556640625</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>610.8007202148438</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>576.2489013671875</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>542.3175048828125</v>
+        <v>784.9254150390625</v>
       </c>
     </row>
   </sheetData>

--- a/right_hand_Data.xlsx
+++ b/right_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>362.2766723632812</v>
+        <v>282.889892578125</v>
       </c>
       <c r="B2" t="n">
-        <v>358.6204223632812</v>
+        <v>294.1457824707031</v>
       </c>
       <c r="C2" t="n">
-        <v>356.1982727050781</v>
+        <v>302.3309020996094</v>
       </c>
       <c r="D2" t="n">
-        <v>355.6524963378906</v>
+        <v>288.1466064453125</v>
       </c>
       <c r="E2" t="n">
-        <v>357.1818237304688</v>
+        <v>276.57666015625</v>
       </c>
       <c r="F2" t="n">
-        <v>358.371337890625</v>
+        <v>256.9535217285156</v>
       </c>
       <c r="G2" t="n">
-        <v>361.4761352539062</v>
+        <v>240.3211059570312</v>
       </c>
       <c r="H2" t="n">
-        <v>367.1411743164062</v>
+        <v>237.3190612792969</v>
       </c>
       <c r="I2" t="n">
-        <v>362.771240234375</v>
+        <v>236.8676910400391</v>
       </c>
       <c r="J2" t="n">
-        <v>347.3470764160156</v>
+        <v>235.1212158203125</v>
       </c>
       <c r="K2" t="n">
-        <v>323.9788208007812</v>
+        <v>234.8950958251953</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8550109863281</v>
+        <v>239.0257263183594</v>
       </c>
       <c r="M2" t="n">
-        <v>300.7062377929688</v>
+        <v>242.7723999023438</v>
       </c>
       <c r="N2" t="n">
-        <v>340.1861267089844</v>
+        <v>242.0956115722656</v>
       </c>
       <c r="O2" t="n">
-        <v>332.0631408691406</v>
+        <v>243.1102752685547</v>
       </c>
       <c r="P2" t="n">
-        <v>324.7522583007812</v>
+        <v>242.7711181640625</v>
       </c>
       <c r="Q2" t="n">
-        <v>319.4903259277344</v>
+        <v>240.6684112548828</v>
       </c>
       <c r="R2" t="n">
-        <v>316.5049133300781</v>
+        <v>244.0302429199219</v>
       </c>
       <c r="S2" t="n">
-        <v>314.6449890136719</v>
+        <v>244.8823699951172</v>
       </c>
       <c r="T2" t="n">
-        <v>313.0977172851562</v>
+        <v>246.4291229248047</v>
       </c>
       <c r="U2" t="n">
-        <v>311.4386596679688</v>
+        <v>247.2543334960938</v>
       </c>
       <c r="V2" t="n">
-        <v>311.7326049804688</v>
+        <v>247.6827392578125</v>
       </c>
       <c r="W2" t="n">
-        <v>311.67919921875</v>
+        <v>248.186279296875</v>
       </c>
       <c r="X2" t="n">
-        <v>311.3965759277344</v>
+        <v>249.1283874511719</v>
       </c>
       <c r="Y2" t="n">
-        <v>310.3446350097656</v>
+        <v>250.1094207763672</v>
       </c>
       <c r="Z2" t="n">
-        <v>306.4059143066406</v>
+        <v>251.7440948486328</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.415283203125</v>
+        <v>256.1826477050781</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.05859375</v>
+        <v>258.3316040039062</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.3133850097656</v>
+        <v>259.106689453125</v>
       </c>
       <c r="AD2" t="n">
-        <v>267.5117797851562</v>
+        <v>260.0007629394531</v>
       </c>
       <c r="AE2" t="n">
-        <v>262.5956726074219</v>
+        <v>260.5911560058594</v>
       </c>
       <c r="AF2" t="n">
-        <v>264.9105834960938</v>
+        <v>261.5596923828125</v>
       </c>
       <c r="AG2" t="n">
-        <v>262.9852905273438</v>
+        <v>263.4637451171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>261.9874572753906</v>
+        <v>266.0430603027344</v>
       </c>
       <c r="AI2" t="n">
-        <v>262.9251098632812</v>
+        <v>270.9320068359375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>267.6512145996094</v>
+        <v>274.9035949707031</v>
       </c>
       <c r="AK2" t="n">
-        <v>275.6129455566406</v>
+        <v>282.3669128417969</v>
       </c>
       <c r="AL2" t="n">
-        <v>279.4197998046875</v>
+        <v>287.9296264648438</v>
       </c>
       <c r="AM2" t="n">
-        <v>281.7568969726562</v>
+        <v>292.512451171875</v>
       </c>
       <c r="AN2" t="n">
-        <v>283.0743103027344</v>
+        <v>300.3014831542969</v>
       </c>
       <c r="AO2" t="n">
-        <v>285.407958984375</v>
+        <v>306.8799743652344</v>
       </c>
       <c r="AP2" t="n">
-        <v>285.4983520507812</v>
+        <v>311.8130493164062</v>
       </c>
       <c r="AQ2" t="n">
-        <v>285.1629638671875</v>
+        <v>312.8985290527344</v>
       </c>
       <c r="AR2" t="n">
-        <v>284.3776550292969</v>
+        <v>314.5282287597656</v>
       </c>
       <c r="AS2" t="n">
-        <v>283.0588684082031</v>
+        <v>317.5964965820312</v>
       </c>
       <c r="AT2" t="n">
-        <v>277.689208984375</v>
+        <v>318.799560546875</v>
       </c>
       <c r="AU2" t="n">
-        <v>270.0149230957031</v>
+        <v>320.1466674804688</v>
       </c>
       <c r="AV2" t="n">
-        <v>256.9566650390625</v>
+        <v>320.0802917480469</v>
       </c>
       <c r="AW2" t="n">
-        <v>247.0256195068359</v>
+        <v>320.6225891113281</v>
       </c>
       <c r="AX2" t="n">
-        <v>244.5249176025391</v>
+        <v>321.1672668457031</v>
       </c>
       <c r="AY2" t="n">
-        <v>238.8517761230469</v>
+        <v>321.5236206054688</v>
       </c>
       <c r="AZ2" t="n">
-        <v>234.2449951171875</v>
+        <v>321.2909545898438</v>
       </c>
       <c r="BA2" t="n">
-        <v>224.0099792480469</v>
+        <v>320.4181518554688</v>
       </c>
       <c r="BB2" t="n">
-        <v>217.5201263427734</v>
+        <v>318.8097534179688</v>
       </c>
       <c r="BC2" t="n">
-        <v>211.8115386962891</v>
+        <v>318.6419982910156</v>
       </c>
       <c r="BD2" t="n">
-        <v>206.8847961425781</v>
+        <v>318.3328552246094</v>
       </c>
       <c r="BE2" t="n">
-        <v>197.71533203125</v>
+        <v>318.3807678222656</v>
       </c>
       <c r="BF2" t="n">
-        <v>190.2984466552734</v>
+        <v>319.8535461425781</v>
       </c>
       <c r="BG2" t="n">
-        <v>185.2535705566406</v>
+        <v>322.2276306152344</v>
       </c>
       <c r="BH2" t="n">
-        <v>177.8533935546875</v>
+        <v>321.0022277832031</v>
       </c>
       <c r="BI2" t="n">
-        <v>169.163330078125</v>
+        <v>314.3766784667969</v>
       </c>
       <c r="BJ2" t="n">
-        <v>162.2197723388672</v>
+        <v>302.6775207519531</v>
       </c>
       <c r="BK2" t="n">
-        <v>154.2264556884766</v>
+        <v>290.2352905273438</v>
       </c>
       <c r="BL2" t="n">
-        <v>146.6064910888672</v>
+        <v>279.4619140625</v>
       </c>
       <c r="BM2" t="n">
-        <v>139.7856140136719</v>
+        <v>269.3254699707031</v>
       </c>
       <c r="BN2" t="n">
-        <v>129.3158416748047</v>
+        <v>257.4634094238281</v>
       </c>
       <c r="BO2" t="n">
-        <v>122.5068206787109</v>
+        <v>248.8422393798828</v>
       </c>
       <c r="BP2" t="n">
-        <v>111.8819427490234</v>
+        <v>247.0515594482422</v>
       </c>
       <c r="BQ2" t="n">
-        <v>102.2225341796875</v>
+        <v>241.23095703125</v>
       </c>
       <c r="BR2" t="n">
-        <v>96.456298828125</v>
+        <v>231.6048889160156</v>
       </c>
       <c r="BS2" t="n">
-        <v>93.98352813720703</v>
+        <v>229.2243194580078</v>
       </c>
       <c r="BT2" t="n">
-        <v>91.56092834472656</v>
+        <v>224.6279907226562</v>
       </c>
       <c r="BU2" t="n">
-        <v>89.74412536621094</v>
+        <v>219.9285736083984</v>
       </c>
       <c r="BV2" t="n">
-        <v>89.10121917724609</v>
+        <v>218.5896301269531</v>
       </c>
       <c r="BW2" t="n">
-        <v>88.22953796386719</v>
+        <v>217.5533142089844</v>
       </c>
       <c r="BX2" t="n">
-        <v>87.63187408447266</v>
+        <v>217.1663513183594</v>
       </c>
       <c r="BY2" t="n">
-        <v>86.60406494140625</v>
+        <v>216.847412109375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>84.85818481445312</v>
+        <v>216.8047790527344</v>
       </c>
       <c r="CA2" t="n">
-        <v>83.11221313476562</v>
+        <v>216.6809844970703</v>
       </c>
       <c r="CB2" t="n">
-        <v>80.47072601318359</v>
+        <v>216.6952667236328</v>
       </c>
       <c r="CC2" t="n">
-        <v>73.5792236328125</v>
+        <v>215.8390655517578</v>
       </c>
       <c r="CD2" t="n">
-        <v>62.95470428466797</v>
+        <v>220.1121520996094</v>
       </c>
       <c r="CE2" t="n">
-        <v>49.48809814453125</v>
+        <v>223.5704040527344</v>
       </c>
       <c r="CF2" t="n">
-        <v>37.22227096557617</v>
+        <v>224.435546875</v>
       </c>
       <c r="CG2" t="n">
-        <v>26.78839111328125</v>
+        <v>226.8275146484375</v>
       </c>
       <c r="CH2" t="n">
-        <v>23.04031753540039</v>
+        <v>228.8521575927734</v>
       </c>
       <c r="CI2" t="n">
-        <v>21.97831726074219</v>
+        <v>233.2780151367188</v>
       </c>
       <c r="CJ2" t="n">
-        <v>22.85092926025391</v>
+        <v>239.9931640625</v>
       </c>
       <c r="CK2" t="n">
-        <v>23.50578498840332</v>
+        <v>244.3824005126953</v>
       </c>
       <c r="CL2" t="n">
-        <v>26.8836784362793</v>
+        <v>249.9874572753906</v>
       </c>
       <c r="CM2" t="n">
-        <v>30.22265625</v>
+        <v>256.3287048339844</v>
       </c>
       <c r="CN2" t="n">
-        <v>31.48060035705566</v>
+        <v>267.0126342773438</v>
       </c>
       <c r="CO2" t="n">
-        <v>30.80797576904297</v>
+        <v>275.8843078613281</v>
       </c>
       <c r="CP2" t="n">
-        <v>28.17276382446289</v>
+        <v>284.9140319824219</v>
       </c>
       <c r="CQ2" t="n">
-        <v>27.92450904846191</v>
+        <v>287.1183166503906</v>
       </c>
       <c r="CR2" t="n">
-        <v>33.97101211547852</v>
+        <v>295.6903381347656</v>
       </c>
       <c r="CS2" t="n">
-        <v>40.60810470581055</v>
+        <v>302.7308959960938</v>
       </c>
       <c r="CT2" t="n">
-        <v>51.8984375</v>
+        <v>306.7748718261719</v>
       </c>
       <c r="CU2" t="n">
-        <v>67.3358154296875</v>
+        <v>309.6371459960938</v>
       </c>
       <c r="CV2" t="n">
-        <v>85.16678619384766</v>
+        <v>311.1203918457031</v>
       </c>
       <c r="CW2" t="n">
-        <v>98.41994476318359</v>
+        <v>314.2521362304688</v>
       </c>
       <c r="CX2" t="n">
-        <v>109.8620147705078</v>
+        <v>317.3468933105469</v>
       </c>
       <c r="CY2" t="n">
-        <v>124.442138671875</v>
+        <v>323.4212646484375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>138.5570831298828</v>
+        <v>323.9832153320312</v>
       </c>
       <c r="DA2" t="n">
-        <v>151.1578521728516</v>
+        <v>325.1829833984375</v>
       </c>
       <c r="DB2" t="n">
-        <v>158.5319671630859</v>
+        <v>324.5661010742188</v>
       </c>
       <c r="DC2" t="n">
-        <v>164.6085968017578</v>
+        <v>325.17578125</v>
       </c>
       <c r="DD2" t="n">
-        <v>168.1601257324219</v>
+        <v>325.9887084960938</v>
       </c>
       <c r="DE2" t="n">
-        <v>170.0083312988281</v>
+        <v>326.4241943359375</v>
       </c>
       <c r="DF2" t="n">
-        <v>169.4451751708984</v>
+        <v>326.9166870117188</v>
       </c>
       <c r="DG2" t="n">
-        <v>170.1026306152344</v>
+        <v>327.2823791503906</v>
       </c>
       <c r="DH2" t="n">
-        <v>168.3324890136719</v>
+        <v>326.1837463378906</v>
       </c>
       <c r="DI2" t="n">
-        <v>166.2585144042969</v>
+        <v>320.6437377929688</v>
       </c>
       <c r="DJ2" t="n">
-        <v>164.0342864990234</v>
+        <v>313.6735534667969</v>
       </c>
       <c r="DK2" t="n">
-        <v>161.573974609375</v>
+        <v>297.6788635253906</v>
       </c>
       <c r="DL2" t="n">
-        <v>157.8403167724609</v>
+        <v>272.6989135742188</v>
       </c>
       <c r="DM2" t="n">
-        <v>154.6589050292969</v>
+        <v>261.6661987304688</v>
       </c>
       <c r="DN2" t="n">
-        <v>152.5170593261719</v>
+        <v>246.4956970214844</v>
       </c>
       <c r="DO2" t="n">
-        <v>152.4422760009766</v>
+        <v>241.1347961425781</v>
       </c>
       <c r="DP2" t="n">
-        <v>164.8291015625</v>
+        <v>235.2942810058594</v>
       </c>
       <c r="DQ2" t="n">
-        <v>177.9127197265625</v>
+        <v>231.4582824707031</v>
       </c>
       <c r="DR2" t="n">
-        <v>189.4727783203125</v>
+        <v>229.1228637695312</v>
       </c>
       <c r="DS2" t="n">
-        <v>222.4112548828125</v>
+        <v>225.1183929443359</v>
       </c>
       <c r="DT2" t="n">
-        <v>241.355224609375</v>
+        <v>220.5060424804688</v>
       </c>
       <c r="DU2" t="n">
-        <v>260.1271667480469</v>
+        <v>218.5577697753906</v>
       </c>
       <c r="DV2" t="n">
-        <v>289.1037902832031</v>
+        <v>217.530517578125</v>
       </c>
       <c r="DW2" t="n">
-        <v>303.3907775878906</v>
+        <v>217.5516967773438</v>
       </c>
       <c r="DX2" t="n">
-        <v>305.6944580078125</v>
+        <v>217.581298828125</v>
       </c>
       <c r="DY2" t="n">
-        <v>307.0888366699219</v>
+        <v>218.186767578125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>307.0421142578125</v>
+        <v>218.789306640625</v>
       </c>
       <c r="EA2" t="n">
-        <v>306.7614135742188</v>
+        <v>222.2183380126953</v>
       </c>
       <c r="EB2" t="n">
-        <v>306.3192138671875</v>
+        <v>226.2309417724609</v>
       </c>
       <c r="EC2" t="n">
-        <v>306.0474853515625</v>
+        <v>228.8159942626953</v>
       </c>
       <c r="ED2" t="n">
-        <v>303.7423095703125</v>
+        <v>236.2720489501953</v>
       </c>
       <c r="EE2" t="n">
-        <v>299.8959350585938</v>
+        <v>240.8363647460938</v>
       </c>
       <c r="EF2" t="n">
-        <v>294.4201354980469</v>
+        <v>248.18505859375</v>
       </c>
       <c r="EG2" t="n">
-        <v>287.1921997070312</v>
+        <v>254.3415679931641</v>
       </c>
       <c r="EH2" t="n">
-        <v>283.3730773925781</v>
+        <v>258.6946716308594</v>
       </c>
       <c r="EI2" t="n">
-        <v>276.8187866210938</v>
+        <v>265.8723754882812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>272.894775390625</v>
+        <v>272.5089111328125</v>
       </c>
       <c r="EK2" t="n">
-        <v>267.2597351074219</v>
+        <v>286.8691101074219</v>
       </c>
       <c r="EL2" t="n">
-        <v>263.3103942871094</v>
+        <v>286.9572143554688</v>
       </c>
       <c r="EM2" t="n">
-        <v>250.5973510742188</v>
+        <v>300.2920227050781</v>
       </c>
       <c r="EN2" t="n">
-        <v>244.4786224365234</v>
+        <v>304.3763122558594</v>
       </c>
       <c r="EO2" t="n">
-        <v>228.0037231445312</v>
+        <v>308.1050720214844</v>
       </c>
       <c r="EP2" t="n">
-        <v>216.0316772460938</v>
+        <v>313.4740295410156</v>
       </c>
       <c r="EQ2" t="n">
-        <v>201.2333984375</v>
+        <v>313.6488647460938</v>
       </c>
       <c r="ER2" t="n">
-        <v>194.5023803710938</v>
+        <v>319.4646606445312</v>
       </c>
       <c r="ES2" t="n">
-        <v>174.8258361816406</v>
+        <v>319.9892883300781</v>
       </c>
       <c r="ET2" t="n">
-        <v>168.6121215820312</v>
+        <v>320.390625</v>
       </c>
       <c r="EU2" t="n">
-        <v>162.1507415771484</v>
+        <v>320.560302734375</v>
       </c>
       <c r="EV2" t="n">
-        <v>155.7675628662109</v>
+        <v>320.2315063476562</v>
       </c>
       <c r="EW2" t="n">
-        <v>153.56689453125</v>
+        <v>317.3493041992188</v>
       </c>
       <c r="EX2" t="n">
-        <v>153.8445281982422</v>
+        <v>302.9806213378906</v>
       </c>
       <c r="EY2" t="n">
-        <v>158.7305297851562</v>
+        <v>297.5630798339844</v>
       </c>
       <c r="EZ2" t="n">
-        <v>165.8058013916016</v>
+        <v>291.4125061035156</v>
       </c>
       <c r="FA2" t="n">
-        <v>168.7120208740234</v>
+        <v>273.1706237792969</v>
       </c>
       <c r="FB2" t="n">
-        <v>175.3525695800781</v>
+        <v>257.5832214355469</v>
       </c>
       <c r="FC2" t="n">
-        <v>185.4413146972656</v>
+        <v>245.7409057617188</v>
       </c>
       <c r="FD2" t="n">
-        <v>183.0886840820312</v>
+        <v>236.0965270996094</v>
       </c>
       <c r="FE2" t="n">
-        <v>181.0340576171875</v>
+        <v>234.419921875</v>
       </c>
       <c r="FF2" t="n">
-        <v>181.1368103027344</v>
+        <v>231.7892456054688</v>
       </c>
       <c r="FG2" t="n">
-        <v>183.5480651855469</v>
+        <v>228.6339416503906</v>
       </c>
       <c r="FH2" t="n">
-        <v>188.4990234375</v>
+        <v>227.6048431396484</v>
       </c>
       <c r="FI2" t="n">
-        <v>197.6037902832031</v>
+        <v>225.2949829101562</v>
       </c>
       <c r="FJ2" t="n">
-        <v>211.0245971679688</v>
+        <v>225.6253967285156</v>
       </c>
       <c r="FK2" t="n">
-        <v>206.9616851806641</v>
+        <v>225.4573822021484</v>
       </c>
       <c r="FL2" t="n">
-        <v>214.566162109375</v>
+        <v>225.5601806640625</v>
       </c>
       <c r="FM2" t="n">
-        <v>222.6157379150391</v>
+        <v>225.4405212402344</v>
       </c>
       <c r="FN2" t="n">
-        <v>231.6481018066406</v>
+        <v>225.36865234375</v>
       </c>
       <c r="FO2" t="n">
-        <v>241.953857421875</v>
+        <v>226.2715148925781</v>
       </c>
       <c r="FP2" t="n">
-        <v>131.4391784667969</v>
+        <v>233.4023742675781</v>
       </c>
       <c r="FQ2" t="n">
-        <v>289.7054443359375</v>
+        <v>238.0184631347656</v>
       </c>
       <c r="FR2" t="n">
-        <v>310.1460571289062</v>
+        <v>245.19970703125</v>
       </c>
       <c r="FS2" t="n">
-        <v>321.8980407714844</v>
+        <v>248.6873016357422</v>
       </c>
       <c r="FT2" t="n">
-        <v>332.9452819824219</v>
+        <v>260.1420288085938</v>
       </c>
       <c r="FU2" t="n">
-        <v>295.0022888183594</v>
+        <v>269.5177612304688</v>
       </c>
       <c r="FV2" t="n">
-        <v>298.0705871582031</v>
+        <v>274.5462951660156</v>
       </c>
       <c r="FW2" t="n">
-        <v>326.3945007324219</v>
+        <v>289.4797973632812</v>
       </c>
       <c r="FX2" t="n">
-        <v>335.7146911621094</v>
+        <v>292.3845520019531</v>
       </c>
       <c r="FY2" t="n">
-        <v>347.2974243164062</v>
+        <v>302.1180419921875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>346.569580078125</v>
+        <v>305.2301940917969</v>
       </c>
       <c r="GA2" t="n">
-        <v>347.53662109375</v>
+        <v>309.7730102539062</v>
       </c>
       <c r="GB2" t="n">
-        <v>341.395263671875</v>
+        <v>314.1638488769531</v>
       </c>
       <c r="GC2" t="n">
-        <v>353.8601989746094</v>
+        <v>315.9173583984375</v>
       </c>
       <c r="GD2" t="n">
-        <v>341.9345703125</v>
+        <v>316.2821960449219</v>
       </c>
       <c r="GE2" t="n">
-        <v>325.3394165039062</v>
+        <v>315.16455078125</v>
       </c>
       <c r="GF2" t="n">
-        <v>315.6239318847656</v>
+        <v>313.4860229492188</v>
       </c>
       <c r="GG2" t="n">
-        <v>263.4836120605469</v>
+        <v>313.4318542480469</v>
       </c>
       <c r="GH2" t="n">
-        <v>316.6759033203125</v>
+        <v>313.7497863769531</v>
       </c>
       <c r="GI2" t="n">
-        <v>299.0919494628906</v>
+        <v>312.86962890625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>285.8280944824219</v>
+        <v>299.3782653808594</v>
       </c>
       <c r="GK2" t="n">
-        <v>318.0531616210938</v>
+        <v>289.3012084960938</v>
       </c>
       <c r="GL2" t="n">
-        <v>303.8849182128906</v>
+        <v>282.4904479980469</v>
       </c>
       <c r="GM2" t="n">
-        <v>299.0804138183594</v>
+        <v>257.1787109375</v>
       </c>
       <c r="GN2" t="n">
-        <v>283.0708312988281</v>
+        <v>249.8891906738281</v>
       </c>
       <c r="GO2" t="n">
-        <v>279.135498046875</v>
+        <v>238.4299926757812</v>
       </c>
       <c r="GP2" t="n">
-        <v>233.7602996826172</v>
+        <v>231.4123229980469</v>
       </c>
       <c r="GQ2" t="n">
-        <v>210.2462005615234</v>
+        <v>223.4351806640625</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>220.8230590820312</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>218.3592529296875</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>216.4783935546875</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>216.6894836425781</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>218.6261291503906</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>218.9524841308594</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>219.7612609863281</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>229.2532653808594</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>238.0752563476562</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>246.3351440429688</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>253.2108764648438</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>266.484619140625</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>281.5957641601562</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>293.2920227050781</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>294.4834289550781</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>306.173095703125</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>311.0530090332031</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>317.0870056152344</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>314.2320861816406</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>313.6743469238281</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>314.9556274414062</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>315.7121887207031</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>316.6529541015625</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>315.7461547851562</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>304.8332214355469</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>292.3646850585938</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>284.380126953125</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>276.6494445800781</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>248.6084747314453</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>241.276123046875</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>232.5964965820312</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>224.6303100585938</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>222.1205902099609</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>218.193359375</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>216.7475738525391</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>216.2239227294922</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>216.3583221435547</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>217.2069702148438</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>218.9342956542969</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>221.5734100341797</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>227.7772521972656</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>233.7263793945312</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>240.6942596435547</v>
+      </c>
+      <c r="II2" t="n">
+        <v>250.5791625976562</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>259.3094177246094</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>269.4983520507812</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>281.3299560546875</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>297.3012390136719</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>301.0716857910156</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>307.1410827636719</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>308.5107421875</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>309.4726867675781</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>311.8374938964844</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>313.24755859375</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>313.3733215332031</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>311.3032836914062</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>296.7712097167969</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>287.934326171875</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>265.9612731933594</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>242.8766479492188</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>231.2804870605469</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>224.5042419433594</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>218.2888488769531</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>216.5397338867188</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>215.3701477050781</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>213.0912475585938</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>212.9909973144531</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>213.9794158935547</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>215.8635559082031</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>218.7667694091797</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>226.5204162597656</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>231.6633911132812</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>240.1491088867188</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>247.8020324707031</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>259.6976318359375</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>269.4509887695312</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>273.933837890625</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>292.0082397460938</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>298.4875183105469</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>299.1600952148438</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>313.1080932617188</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>313.5422058105469</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>313.0287475585938</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>313.1292419433594</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>312.7273559570312</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>312.6636352539062</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>309.140625</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>308.7932739257812</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>302.2350158691406</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>302.9322814941406</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>274.7817077636719</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>264.3334350585938</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>253.2241058349609</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>244.4998474121094</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>237.9844360351562</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>234.5753479003906</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>233.6871643066406</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>232.49267578125</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>228.6027374267578</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>238.4125061035156</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>243.3697509765625</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>254.2227478027344</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>257.5248413085938</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>255.9297790527344</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>264.355224609375</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>262.2455139160156</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>257.2916564941406</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>248.7993469238281</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>241.4357757568359</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>219.3650970458984</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>184.3047790527344</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>170.1797790527344</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>140.9114990234375</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>52.91789245605469</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>39.49866485595703</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>39.09320831298828</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>43.49660873413086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>423.3535461425781</v>
+        <v>528.8387451171875</v>
       </c>
       <c r="B3" t="n">
-        <v>419.1819763183594</v>
+        <v>490.8623962402344</v>
       </c>
       <c r="C3" t="n">
-        <v>416.3243103027344</v>
+        <v>509.3597106933594</v>
       </c>
       <c r="D3" t="n">
-        <v>415.1977844238281</v>
+        <v>482.3858032226562</v>
       </c>
       <c r="E3" t="n">
-        <v>423.3479614257812</v>
+        <v>464.7088317871094</v>
       </c>
       <c r="F3" t="n">
-        <v>432.8026733398438</v>
+        <v>454.1796875</v>
       </c>
       <c r="G3" t="n">
-        <v>436.0677795410156</v>
+        <v>449.1907043457031</v>
       </c>
       <c r="H3" t="n">
-        <v>453.3032531738281</v>
+        <v>445.8255920410156</v>
       </c>
       <c r="I3" t="n">
-        <v>446.9911193847656</v>
+        <v>440.8627014160156</v>
       </c>
       <c r="J3" t="n">
-        <v>432.688232421875</v>
+        <v>435.8866577148438</v>
       </c>
       <c r="K3" t="n">
-        <v>403.9440002441406</v>
+        <v>416.3106994628906</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5983276367188</v>
+        <v>417.4658508300781</v>
       </c>
       <c r="M3" t="n">
-        <v>215.3407897949219</v>
+        <v>416.5338134765625</v>
       </c>
       <c r="N3" t="n">
-        <v>404.1078491210938</v>
+        <v>412.9733581542969</v>
       </c>
       <c r="O3" t="n">
-        <v>402.9910278320312</v>
+        <v>411.2366027832031</v>
       </c>
       <c r="P3" t="n">
-        <v>398.84716796875</v>
+        <v>406.1651000976562</v>
       </c>
       <c r="Q3" t="n">
-        <v>393.2269287109375</v>
+        <v>402.4953918457031</v>
       </c>
       <c r="R3" t="n">
-        <v>385.444091796875</v>
+        <v>394.7190551757812</v>
       </c>
       <c r="S3" t="n">
-        <v>377.4258422851562</v>
+        <v>389.0576171875</v>
       </c>
       <c r="T3" t="n">
-        <v>371.1554260253906</v>
+        <v>383.4174194335938</v>
       </c>
       <c r="U3" t="n">
-        <v>367.2996826171875</v>
+        <v>380.4398193359375</v>
       </c>
       <c r="V3" t="n">
-        <v>363.4869384765625</v>
+        <v>377.8226623535156</v>
       </c>
       <c r="W3" t="n">
-        <v>360.3897399902344</v>
+        <v>377.6917114257812</v>
       </c>
       <c r="X3" t="n">
-        <v>358.7052917480469</v>
+        <v>376.8773498535156</v>
       </c>
       <c r="Y3" t="n">
-        <v>356.8774719238281</v>
+        <v>378.7088623046875</v>
       </c>
       <c r="Z3" t="n">
-        <v>354.0658569335938</v>
+        <v>380.0553283691406</v>
       </c>
       <c r="AA3" t="n">
-        <v>350.4935913085938</v>
+        <v>385.1025390625</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.3587951660156</v>
+        <v>385.3670349121094</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.5488586425781</v>
+        <v>387.5193176269531</v>
       </c>
       <c r="AD3" t="n">
-        <v>345.647216796875</v>
+        <v>384.6221618652344</v>
       </c>
       <c r="AE3" t="n">
-        <v>345.1436157226562</v>
+        <v>381.9618530273438</v>
       </c>
       <c r="AF3" t="n">
-        <v>329.8149108886719</v>
+        <v>382.571533203125</v>
       </c>
       <c r="AG3" t="n">
-        <v>330.7423706054688</v>
+        <v>381.6085510253906</v>
       </c>
       <c r="AH3" t="n">
-        <v>330.3824157714844</v>
+        <v>378.1914367675781</v>
       </c>
       <c r="AI3" t="n">
-        <v>329.5475158691406</v>
+        <v>374.6437072753906</v>
       </c>
       <c r="AJ3" t="n">
-        <v>328.173828125</v>
+        <v>366.5640563964844</v>
       </c>
       <c r="AK3" t="n">
-        <v>327.0626525878906</v>
+        <v>358.99169921875</v>
       </c>
       <c r="AL3" t="n">
-        <v>323.7061767578125</v>
+        <v>349.8627624511719</v>
       </c>
       <c r="AM3" t="n">
-        <v>320.1787719726562</v>
+        <v>340.687255859375</v>
       </c>
       <c r="AN3" t="n">
-        <v>316.6662902832031</v>
+        <v>331.6181030273438</v>
       </c>
       <c r="AO3" t="n">
-        <v>313.1594543457031</v>
+        <v>320.5621643066406</v>
       </c>
       <c r="AP3" t="n">
-        <v>310.3185424804688</v>
+        <v>310.0050048828125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>307.6797180175781</v>
+        <v>304.6621704101562</v>
       </c>
       <c r="AR3" t="n">
-        <v>306.6969909667969</v>
+        <v>300.6067199707031</v>
       </c>
       <c r="AS3" t="n">
-        <v>307.7814025878906</v>
+        <v>296.4225769042969</v>
       </c>
       <c r="AT3" t="n">
-        <v>309.165283203125</v>
+        <v>293.2799072265625</v>
       </c>
       <c r="AU3" t="n">
-        <v>309.471435546875</v>
+        <v>293.3579406738281</v>
       </c>
       <c r="AV3" t="n">
-        <v>309.0452270507812</v>
+        <v>293.4091186523438</v>
       </c>
       <c r="AW3" t="n">
-        <v>309.259521484375</v>
+        <v>292.9881896972656</v>
       </c>
       <c r="AX3" t="n">
-        <v>311.6257629394531</v>
+        <v>291.8598022460938</v>
       </c>
       <c r="AY3" t="n">
-        <v>323.3795166015625</v>
+        <v>291.2056884765625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>337.4464721679688</v>
+        <v>291.3655090332031</v>
       </c>
       <c r="BA3" t="n">
-        <v>347.3291931152344</v>
+        <v>292.1258239746094</v>
       </c>
       <c r="BB3" t="n">
-        <v>347.7458190917969</v>
+        <v>293.4050903320312</v>
       </c>
       <c r="BC3" t="n">
-        <v>348.6805725097656</v>
+        <v>293.7184143066406</v>
       </c>
       <c r="BD3" t="n">
-        <v>350.6241149902344</v>
+        <v>293.6260986328125</v>
       </c>
       <c r="BE3" t="n">
-        <v>349.8851928710938</v>
+        <v>293.3179931640625</v>
       </c>
       <c r="BF3" t="n">
-        <v>351.0937805175781</v>
+        <v>292.2014770507812</v>
       </c>
       <c r="BG3" t="n">
-        <v>352.5022277832031</v>
+        <v>289.7963256835938</v>
       </c>
       <c r="BH3" t="n">
-        <v>352.6544189453125</v>
+        <v>289.9919738769531</v>
       </c>
       <c r="BI3" t="n">
-        <v>352.0540771484375</v>
+        <v>288.0315246582031</v>
       </c>
       <c r="BJ3" t="n">
-        <v>350.7127685546875</v>
+        <v>284.5771179199219</v>
       </c>
       <c r="BK3" t="n">
-        <v>349.5727844238281</v>
+        <v>280.7546691894531</v>
       </c>
       <c r="BL3" t="n">
-        <v>344.472900390625</v>
+        <v>278.6387329101562</v>
       </c>
       <c r="BM3" t="n">
-        <v>341.8315734863281</v>
+        <v>282.2902526855469</v>
       </c>
       <c r="BN3" t="n">
-        <v>339.7127990722656</v>
+        <v>292.2966918945312</v>
       </c>
       <c r="BO3" t="n">
-        <v>338.3919067382812</v>
+        <v>296.6240844726562</v>
       </c>
       <c r="BP3" t="n">
-        <v>337.2882690429688</v>
+        <v>303.478759765625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>334.65234375</v>
+        <v>302.5491638183594</v>
       </c>
       <c r="BR3" t="n">
-        <v>333.6665954589844</v>
+        <v>297.2629699707031</v>
       </c>
       <c r="BS3" t="n">
-        <v>333.4010620117188</v>
+        <v>293.9786376953125</v>
       </c>
       <c r="BT3" t="n">
-        <v>332.1380310058594</v>
+        <v>295.1018676757812</v>
       </c>
       <c r="BU3" t="n">
-        <v>331.6407470703125</v>
+        <v>294.5250854492188</v>
       </c>
       <c r="BV3" t="n">
-        <v>331.7076721191406</v>
+        <v>294.5168151855469</v>
       </c>
       <c r="BW3" t="n">
-        <v>332.4162902832031</v>
+        <v>294.451416015625</v>
       </c>
       <c r="BX3" t="n">
-        <v>333.6127014160156</v>
+        <v>293.8631591796875</v>
       </c>
       <c r="BY3" t="n">
-        <v>333.5986633300781</v>
+        <v>294.2705078125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>332.90478515625</v>
+        <v>294.7544860839844</v>
       </c>
       <c r="CA3" t="n">
-        <v>331.7324829101562</v>
+        <v>295.4611206054688</v>
       </c>
       <c r="CB3" t="n">
-        <v>329.8554077148438</v>
+        <v>295.6608581542969</v>
       </c>
       <c r="CC3" t="n">
-        <v>322.6170959472656</v>
+        <v>306.4784851074219</v>
       </c>
       <c r="CD3" t="n">
-        <v>310.3894348144531</v>
+        <v>294.4455871582031</v>
       </c>
       <c r="CE3" t="n">
-        <v>296.8147888183594</v>
+        <v>290.6486511230469</v>
       </c>
       <c r="CF3" t="n">
-        <v>283.1564636230469</v>
+        <v>291.8361206054688</v>
       </c>
       <c r="CG3" t="n">
-        <v>266.9233703613281</v>
+        <v>291.8789367675781</v>
       </c>
       <c r="CH3" t="n">
-        <v>249.0534820556641</v>
+        <v>291.5958862304688</v>
       </c>
       <c r="CI3" t="n">
-        <v>232.5336608886719</v>
+        <v>290.6346740722656</v>
       </c>
       <c r="CJ3" t="n">
-        <v>216.7293548583984</v>
+        <v>292.5276489257812</v>
       </c>
       <c r="CK3" t="n">
-        <v>206.5220642089844</v>
+        <v>295.6032104492188</v>
       </c>
       <c r="CL3" t="n">
-        <v>193.7846832275391</v>
+        <v>297.0604248046875</v>
       </c>
       <c r="CM3" t="n">
-        <v>189.3733520507812</v>
+        <v>296.428955078125</v>
       </c>
       <c r="CN3" t="n">
-        <v>188.8330841064453</v>
+        <v>294.3218383789062</v>
       </c>
       <c r="CO3" t="n">
-        <v>191.0237121582031</v>
+        <v>291.3149108886719</v>
       </c>
       <c r="CP3" t="n">
-        <v>197.5450286865234</v>
+        <v>286.5877075195312</v>
       </c>
       <c r="CQ3" t="n">
-        <v>210.3267211914062</v>
+        <v>283.7713623046875</v>
       </c>
       <c r="CR3" t="n">
-        <v>245.1695251464844</v>
+        <v>282.1834106445312</v>
       </c>
       <c r="CS3" t="n">
-        <v>266.8424072265625</v>
+        <v>280.790283203125</v>
       </c>
       <c r="CT3" t="n">
-        <v>289.8672790527344</v>
+        <v>284.7471313476562</v>
       </c>
       <c r="CU3" t="n">
-        <v>303.354248046875</v>
+        <v>286.5275573730469</v>
       </c>
       <c r="CV3" t="n">
-        <v>312.4585266113281</v>
+        <v>288.94384765625</v>
       </c>
       <c r="CW3" t="n">
-        <v>326.3049926757812</v>
+        <v>290.7875671386719</v>
       </c>
       <c r="CX3" t="n">
-        <v>338.0391540527344</v>
+        <v>291.5737915039062</v>
       </c>
       <c r="CY3" t="n">
-        <v>346.8860778808594</v>
+        <v>293.8134765625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>354.3359985351562</v>
+        <v>294.3134765625</v>
       </c>
       <c r="DA3" t="n">
-        <v>357.9221801757812</v>
+        <v>294.5281982421875</v>
       </c>
       <c r="DB3" t="n">
-        <v>359.5526123046875</v>
+        <v>293.2967834472656</v>
       </c>
       <c r="DC3" t="n">
-        <v>358.1690979003906</v>
+        <v>292.8997802734375</v>
       </c>
       <c r="DD3" t="n">
-        <v>358.2447204589844</v>
+        <v>292.8830871582031</v>
       </c>
       <c r="DE3" t="n">
-        <v>358.1957092285156</v>
+        <v>292.7439575195312</v>
       </c>
       <c r="DF3" t="n">
-        <v>358.7354125976562</v>
+        <v>292.6082153320312</v>
       </c>
       <c r="DG3" t="n">
-        <v>359.8696594238281</v>
+        <v>292.5208435058594</v>
       </c>
       <c r="DH3" t="n">
-        <v>359.8004150390625</v>
+        <v>292.1125183105469</v>
       </c>
       <c r="DI3" t="n">
-        <v>359.9846496582031</v>
+        <v>290.1985168457031</v>
       </c>
       <c r="DJ3" t="n">
-        <v>356.4360656738281</v>
+        <v>288.1103515625</v>
       </c>
       <c r="DK3" t="n">
-        <v>356.3168640136719</v>
+        <v>279.2413940429688</v>
       </c>
       <c r="DL3" t="n">
-        <v>357.1534729003906</v>
+        <v>273.1531677246094</v>
       </c>
       <c r="DM3" t="n">
-        <v>356.4044189453125</v>
+        <v>287.6185302734375</v>
       </c>
       <c r="DN3" t="n">
-        <v>353.9349975585938</v>
+        <v>299.8166198730469</v>
       </c>
       <c r="DO3" t="n">
-        <v>349.9264831542969</v>
+        <v>300.3569946289062</v>
       </c>
       <c r="DP3" t="n">
-        <v>348.8176879882812</v>
+        <v>300.6380004882812</v>
       </c>
       <c r="DQ3" t="n">
-        <v>352.20263671875</v>
+        <v>300.0377197265625</v>
       </c>
       <c r="DR3" t="n">
-        <v>353.7931213378906</v>
+        <v>299.1358947753906</v>
       </c>
       <c r="DS3" t="n">
-        <v>358.5126037597656</v>
+        <v>298.1522521972656</v>
       </c>
       <c r="DT3" t="n">
-        <v>362.2592163085938</v>
+        <v>298.7399597167969</v>
       </c>
       <c r="DU3" t="n">
-        <v>364.1993713378906</v>
+        <v>300.0370483398438</v>
       </c>
       <c r="DV3" t="n">
-        <v>359.4949340820312</v>
+        <v>302.770263671875</v>
       </c>
       <c r="DW3" t="n">
-        <v>351.8302307128906</v>
+        <v>302.6220397949219</v>
       </c>
       <c r="DX3" t="n">
-        <v>346.98828125</v>
+        <v>302.4494323730469</v>
       </c>
       <c r="DY3" t="n">
-        <v>343.5771789550781</v>
+        <v>302.5257263183594</v>
       </c>
       <c r="DZ3" t="n">
-        <v>340.8429565429688</v>
+        <v>302.5892944335938</v>
       </c>
       <c r="EA3" t="n">
-        <v>336.8160400390625</v>
+        <v>302.8317565917969</v>
       </c>
       <c r="EB3" t="n">
-        <v>335.5440368652344</v>
+        <v>303.1908264160156</v>
       </c>
       <c r="EC3" t="n">
-        <v>335.6215209960938</v>
+        <v>304.5108032226562</v>
       </c>
       <c r="ED3" t="n">
-        <v>335.4473876953125</v>
+        <v>304.7190856933594</v>
       </c>
       <c r="EE3" t="n">
-        <v>334.7774353027344</v>
+        <v>304.8229675292969</v>
       </c>
       <c r="EF3" t="n">
-        <v>333.7920532226562</v>
+        <v>306.9104309082031</v>
       </c>
       <c r="EG3" t="n">
-        <v>332.587646484375</v>
+        <v>309.2281188964844</v>
       </c>
       <c r="EH3" t="n">
-        <v>334.993408203125</v>
+        <v>303.808837890625</v>
       </c>
       <c r="EI3" t="n">
-        <v>341.0447998046875</v>
+        <v>298.9491882324219</v>
       </c>
       <c r="EJ3" t="n">
-        <v>347.1252746582031</v>
+        <v>293.2027282714844</v>
       </c>
       <c r="EK3" t="n">
-        <v>356.3178100585938</v>
+        <v>279.6731872558594</v>
       </c>
       <c r="EL3" t="n">
-        <v>356.8642272949219</v>
+        <v>287.3364868164062</v>
       </c>
       <c r="EM3" t="n">
-        <v>361.3266906738281</v>
+        <v>286.7276916503906</v>
       </c>
       <c r="EN3" t="n">
-        <v>363.7613525390625</v>
+        <v>287.8840026855469</v>
       </c>
       <c r="EO3" t="n">
-        <v>366.8585510253906</v>
+        <v>292.6995239257812</v>
       </c>
       <c r="EP3" t="n">
-        <v>368.7138977050781</v>
+        <v>293.6556396484375</v>
       </c>
       <c r="EQ3" t="n">
-        <v>377.7897338867188</v>
+        <v>295.7471618652344</v>
       </c>
       <c r="ER3" t="n">
-        <v>380.694580078125</v>
+        <v>296.6365051269531</v>
       </c>
       <c r="ES3" t="n">
-        <v>383.783935546875</v>
+        <v>296.8843078613281</v>
       </c>
       <c r="ET3" t="n">
-        <v>386.1137390136719</v>
+        <v>296.8629455566406</v>
       </c>
       <c r="EU3" t="n">
-        <v>387.2859802246094</v>
+        <v>296.8934631347656</v>
       </c>
       <c r="EV3" t="n">
-        <v>390.6945495605469</v>
+        <v>296.9950561523438</v>
       </c>
       <c r="EW3" t="n">
-        <v>395.2456665039062</v>
+        <v>296.1076354980469</v>
       </c>
       <c r="EX3" t="n">
-        <v>397.581787109375</v>
+        <v>291.7090148925781</v>
       </c>
       <c r="EY3" t="n">
-        <v>403.5586242675781</v>
+        <v>289.6578979492188</v>
       </c>
       <c r="EZ3" t="n">
-        <v>406.5147399902344</v>
+        <v>284.3531188964844</v>
       </c>
       <c r="FA3" t="n">
-        <v>405.8092346191406</v>
+        <v>281.3628540039062</v>
       </c>
       <c r="FB3" t="n">
-        <v>405.4446105957031</v>
+        <v>290.984130859375</v>
       </c>
       <c r="FC3" t="n">
-        <v>408.97314453125</v>
+        <v>304.2095031738281</v>
       </c>
       <c r="FD3" t="n">
-        <v>420.9248962402344</v>
+        <v>303.572509765625</v>
       </c>
       <c r="FE3" t="n">
-        <v>434.5478515625</v>
+        <v>301.4554443359375</v>
       </c>
       <c r="FF3" t="n">
-        <v>445.9133605957031</v>
+        <v>302.3555908203125</v>
       </c>
       <c r="FG3" t="n">
-        <v>450.0562133789062</v>
+        <v>301.4061889648438</v>
       </c>
       <c r="FH3" t="n">
-        <v>464.7662048339844</v>
+        <v>301.6104125976562</v>
       </c>
       <c r="FI3" t="n">
-        <v>471.6138916015625</v>
+        <v>302.0709838867188</v>
       </c>
       <c r="FJ3" t="n">
-        <v>494.0526123046875</v>
+        <v>302.3390808105469</v>
       </c>
       <c r="FK3" t="n">
-        <v>507.8798217773438</v>
+        <v>302.1461791992188</v>
       </c>
       <c r="FL3" t="n">
-        <v>522.9456176757812</v>
+        <v>301.7072143554688</v>
       </c>
       <c r="FM3" t="n">
-        <v>529.5714721679688</v>
+        <v>301.6611633300781</v>
       </c>
       <c r="FN3" t="n">
-        <v>543.9708251953125</v>
+        <v>301.5057983398438</v>
       </c>
       <c r="FO3" t="n">
-        <v>568.7623901367188</v>
+        <v>301.5170593261719</v>
       </c>
       <c r="FP3" t="n">
-        <v>425.8736877441406</v>
+        <v>302.60107421875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>599.372802734375</v>
+        <v>301.5661010742188</v>
       </c>
       <c r="FR3" t="n">
-        <v>584.2554931640625</v>
+        <v>301.812255859375</v>
       </c>
       <c r="FS3" t="n">
-        <v>582.3511352539062</v>
+        <v>301.8776245117188</v>
       </c>
       <c r="FT3" t="n">
-        <v>575.5460205078125</v>
+        <v>301.8089904785156</v>
       </c>
       <c r="FU3" t="n">
-        <v>557.2098999023438</v>
+        <v>294.7520141601562</v>
       </c>
       <c r="FV3" t="n">
-        <v>591.8827514648438</v>
+        <v>298.1994934082031</v>
       </c>
       <c r="FW3" t="n">
-        <v>591.000244140625</v>
+        <v>280.730712890625</v>
       </c>
       <c r="FX3" t="n">
-        <v>591.4805297851562</v>
+        <v>284.7875366210938</v>
       </c>
       <c r="FY3" t="n">
-        <v>552.1490478515625</v>
+        <v>288.6889343261719</v>
       </c>
       <c r="FZ3" t="n">
-        <v>548.6427001953125</v>
+        <v>289.5155639648438</v>
       </c>
       <c r="GA3" t="n">
-        <v>542.8430786132812</v>
+        <v>293.0656433105469</v>
       </c>
       <c r="GB3" t="n">
-        <v>579.9144897460938</v>
+        <v>294.0602111816406</v>
       </c>
       <c r="GC3" t="n">
-        <v>582.5478515625</v>
+        <v>296.2105407714844</v>
       </c>
       <c r="GD3" t="n">
-        <v>546.0034790039062</v>
+        <v>296.9283752441406</v>
       </c>
       <c r="GE3" t="n">
-        <v>553.1260986328125</v>
+        <v>297.623046875</v>
       </c>
       <c r="GF3" t="n">
-        <v>573.1917114257812</v>
+        <v>296.9425354003906</v>
       </c>
       <c r="GG3" t="n">
-        <v>596.2996215820312</v>
+        <v>297.0690612792969</v>
       </c>
       <c r="GH3" t="n">
-        <v>572.83203125</v>
+        <v>297.3276977539062</v>
       </c>
       <c r="GI3" t="n">
-        <v>579.9292602539062</v>
+        <v>295.8640441894531</v>
       </c>
       <c r="GJ3" t="n">
-        <v>589.7359008789062</v>
+        <v>291.6349792480469</v>
       </c>
       <c r="GK3" t="n">
-        <v>610.0846557617188</v>
+        <v>283.7332458496094</v>
       </c>
       <c r="GL3" t="n">
-        <v>624.6290893554688</v>
+        <v>278.4058837890625</v>
       </c>
       <c r="GM3" t="n">
-        <v>616.0509033203125</v>
+        <v>293.5082397460938</v>
       </c>
       <c r="GN3" t="n">
-        <v>611.9822387695312</v>
+        <v>316.0674743652344</v>
       </c>
       <c r="GO3" t="n">
-        <v>609.6141357421875</v>
+        <v>307.1275634765625</v>
       </c>
       <c r="GP3" t="n">
-        <v>611.5909423828125</v>
+        <v>301.4188537597656</v>
       </c>
       <c r="GQ3" t="n">
-        <v>613.285888671875</v>
+        <v>304.9792175292969</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>302.1385498046875</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>301.9507141113281</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>302.428955078125</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>302.1848449707031</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>302.4096374511719</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>302.2759399414062</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>302.6764526367188</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>303.4482116699219</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>305.0984497070312</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>303.6014404296875</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>306.9838256835938</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>299.9104614257812</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>277.974365234375</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>277.8175048828125</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>278.554443359375</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>287.7228698730469</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>291.8446044921875</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>296.0036315917969</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>295.8479309082031</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>295.5770874023438</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>295.4290466308594</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>295.5106506347656</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>295.2866516113281</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>293.7925109863281</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>290.9649963378906</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>286.250244140625</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>281.0581970214844</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>289.4627075195312</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>306.3932800292969</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>305.1093139648438</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>304.293701171875</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>302.3070983886719</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>301.5579833984375</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>301.5478820800781</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>302.4970397949219</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>302.44775390625</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>302.51025390625</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>302.450927734375</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>302.4231872558594</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>302.7088012695312</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>303.4255065917969</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>304.585693359375</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>303.3262939453125</v>
+      </c>
+      <c r="II3" t="n">
+        <v>305.155517578125</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>304.0425109863281</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>289.0277709960938</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>285.0992126464844</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>288.0823974609375</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>289.2828063964844</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>292.0523071289062</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>292.8718566894531</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>293.4657897949219</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>293.1845703125</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>292.9482421875</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>292.8446655273438</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>292.4783325195312</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>292.4280395507812</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>277.4560241699219</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>283.1197509765625</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>298.1856994628906</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>295.2949523925781</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>294.0635681152344</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>296.3872985839844</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>300.094482421875</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>302.3232727050781</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>301.7239379882812</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>301.0758361816406</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>301.0780029296875</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>299.7730102539062</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>295.7488708496094</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>295.6224365234375</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>298.9216918945312</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>300.2081604003906</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>300.8159484863281</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>308.9185180664062</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>288.0211791992188</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>284.5105895996094</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>282.1004943847656</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>295.2066650390625</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>293.4285583496094</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>298.6992797851562</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>297.6690979003906</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>297.2168273925781</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>297.3602905273438</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>297.6923217773438</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>297.812255859375</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>296.7685241699219</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>300.1029968261719</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>304.9046936035156</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>312.6073913574219</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>358.6409301757812</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>364.4139404296875</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>377.6871337890625</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>387.9606018066406</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>388.7996215820312</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>386.7820129394531</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>385.340576171875</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>390.7022705078125</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>398.6488647460938</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>407.6157836914062</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>408.7298278808594</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>401.7174987792969</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>393.68603515625</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>381.5289001464844</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>379.7812805175781</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>371.6925354003906</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>373.6278991699219</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>385.438232421875</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>399.6315612792969</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>412.8413391113281</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>421.7393493652344</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>430.4630432128906</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>443.9970397949219</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>499.2575378417969</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>512.702392578125</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>514.2247924804688</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>518.8012084960938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1090.91748046875</v>
+        <v>381.9331359863281</v>
       </c>
       <c r="B4" t="n">
-        <v>1126.471313476562</v>
+        <v>394.5270385742188</v>
       </c>
       <c r="C4" t="n">
-        <v>1162.036010742188</v>
+        <v>375.9229125976562</v>
       </c>
       <c r="D4" t="n">
-        <v>1176.700073242188</v>
+        <v>408.009033203125</v>
       </c>
       <c r="E4" t="n">
-        <v>1181.387329101562</v>
+        <v>451.7498779296875</v>
       </c>
       <c r="F4" t="n">
-        <v>1193.694458007812</v>
+        <v>502.0396728515625</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.120361328125</v>
+        <v>556.1837768554688</v>
       </c>
       <c r="H4" t="n">
-        <v>1218.488891601562</v>
+        <v>612.5521850585938</v>
       </c>
       <c r="I4" t="n">
-        <v>1253.1162109375</v>
+        <v>676.44677734375</v>
       </c>
       <c r="J4" t="n">
-        <v>1348.37548828125</v>
+        <v>750.42919921875</v>
       </c>
       <c r="K4" t="n">
-        <v>1474.936645507812</v>
+        <v>866.457763671875</v>
       </c>
       <c r="L4" t="n">
-        <v>1539.253540039062</v>
+        <v>943.0424194335938</v>
       </c>
       <c r="M4" t="n">
-        <v>1281.253051757812</v>
+        <v>1018.716735839844</v>
       </c>
       <c r="N4" t="n">
-        <v>1432.119262695312</v>
+        <v>1087.939697265625</v>
       </c>
       <c r="O4" t="n">
-        <v>1421.71142578125</v>
+        <v>1154.836181640625</v>
       </c>
       <c r="P4" t="n">
-        <v>1416.606079101562</v>
+        <v>1225.519287109375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1426.035400390625</v>
+        <v>1293.2646484375</v>
       </c>
       <c r="R4" t="n">
-        <v>1439.989990234375</v>
+        <v>1361.89892578125</v>
       </c>
       <c r="S4" t="n">
-        <v>1462.708129882812</v>
+        <v>1414.164428710938</v>
       </c>
       <c r="T4" t="n">
-        <v>1464.538940429688</v>
+        <v>1450.34228515625</v>
       </c>
       <c r="U4" t="n">
-        <v>1464.87451171875</v>
+        <v>1492.969604492188</v>
       </c>
       <c r="V4" t="n">
-        <v>1462.947143554688</v>
+        <v>1519.538208007812</v>
       </c>
       <c r="W4" t="n">
-        <v>1462.71923828125</v>
+        <v>1527.333984375</v>
       </c>
       <c r="X4" t="n">
-        <v>1465.6171875</v>
+        <v>1530.515502929688</v>
       </c>
       <c r="Y4" t="n">
-        <v>1471.40234375</v>
+        <v>1527.150390625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1472.904174804688</v>
+        <v>1528.217407226562</v>
       </c>
       <c r="AA4" t="n">
-        <v>1474.556030273438</v>
+        <v>1553.668579101562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1473.666625976562</v>
+        <v>1577.743408203125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1471.15625</v>
+        <v>1595.591796875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1346.19482421875</v>
+        <v>1614.80908203125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1319.45556640625</v>
+        <v>1624.553344726562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1318.841186523438</v>
+        <v>1633.118896484375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1299.945678710938</v>
+        <v>1647.515991210938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1280.1279296875</v>
+        <v>1656.840454101562</v>
       </c>
       <c r="AI4" t="n">
-        <v>1263.076538085938</v>
+        <v>1675.37451171875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1247.732299804688</v>
+        <v>1684.693969726562</v>
       </c>
       <c r="AK4" t="n">
-        <v>1237.892456054688</v>
+        <v>1694.63818359375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1227.607299804688</v>
+        <v>1705.495727539062</v>
       </c>
       <c r="AM4" t="n">
-        <v>1220.028564453125</v>
+        <v>1721.981689453125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1212.431030273438</v>
+        <v>1731.780883789062</v>
       </c>
       <c r="AO4" t="n">
-        <v>1211.8515625</v>
+        <v>1756.155395507812</v>
       </c>
       <c r="AP4" t="n">
-        <v>1213.982666015625</v>
+        <v>1781.234252929688</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1210.114135742188</v>
+        <v>1785.896606445312</v>
       </c>
       <c r="AR4" t="n">
-        <v>1206.84716796875</v>
+        <v>1788.048583984375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1208.830200195312</v>
+        <v>1791.78515625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1209.962890625</v>
+        <v>1799.043823242188</v>
       </c>
       <c r="AU4" t="n">
-        <v>1208.804565429688</v>
+        <v>1803.820922851562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1209.619750976562</v>
+        <v>1806.266479492188</v>
       </c>
       <c r="AW4" t="n">
-        <v>1210.314697265625</v>
+        <v>1809.208618164062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1211.528930664062</v>
+        <v>1806.961547851562</v>
       </c>
       <c r="AY4" t="n">
-        <v>1209.971923828125</v>
+        <v>1804.878173828125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1214.361206054688</v>
+        <v>1804.89501953125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1219.082275390625</v>
+        <v>1808.905883789062</v>
       </c>
       <c r="BB4" t="n">
-        <v>1228.721923828125</v>
+        <v>1817.262329101562</v>
       </c>
       <c r="BC4" t="n">
-        <v>1231.799072265625</v>
+        <v>1819.128051757812</v>
       </c>
       <c r="BD4" t="n">
-        <v>1235.584838867188</v>
+        <v>1823.052001953125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1234.732177734375</v>
+        <v>1829.405517578125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1236.766479492188</v>
+        <v>1835.611938476562</v>
       </c>
       <c r="BG4" t="n">
-        <v>1243.523071289062</v>
+        <v>1851.68212890625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1247.520385742188</v>
+        <v>1848.2099609375</v>
       </c>
       <c r="BI4" t="n">
-        <v>1253.7373046875</v>
+        <v>1830.174438476562</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1257.73193359375</v>
+        <v>1806.6689453125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1255.193359375</v>
+        <v>1787.546630859375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1260.293823242188</v>
+        <v>1780.976196289062</v>
       </c>
       <c r="BM4" t="n">
-        <v>1262.404663085938</v>
+        <v>1781.78271484375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1264.95361328125</v>
+        <v>1797.8779296875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1265.162231445312</v>
+        <v>1809.39599609375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1259.599365234375</v>
+        <v>1813.985595703125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1252.796142578125</v>
+        <v>1828.697021484375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1256.427001953125</v>
+        <v>1857.48388671875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1254.990356445312</v>
+        <v>1868.375122070312</v>
       </c>
       <c r="BT4" t="n">
-        <v>1252.677368164062</v>
+        <v>1878.964599609375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1251.391845703125</v>
+        <v>1900.566040039062</v>
       </c>
       <c r="BV4" t="n">
-        <v>1250.364624023438</v>
+        <v>1913.51318359375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1248.352294921875</v>
+        <v>1926.633056640625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1244.991333007812</v>
+        <v>1936.201904296875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1236.989013671875</v>
+        <v>1931.36376953125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1221.245849609375</v>
+        <v>1928.175537109375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1206.662475585938</v>
+        <v>1919.855712890625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1196.350463867188</v>
+        <v>1915.262084960938</v>
       </c>
       <c r="CC4" t="n">
-        <v>1175.266845703125</v>
+        <v>1886.396484375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1155.4794921875</v>
+        <v>1889.149536132812</v>
       </c>
       <c r="CE4" t="n">
-        <v>1141.561157226562</v>
+        <v>1875.128051757812</v>
       </c>
       <c r="CF4" t="n">
-        <v>1126.411987304688</v>
+        <v>1860.469116210938</v>
       </c>
       <c r="CG4" t="n">
-        <v>1103.807983398438</v>
+        <v>1847.541137695312</v>
       </c>
       <c r="CH4" t="n">
-        <v>1089.94189453125</v>
+        <v>1835.230834960938</v>
       </c>
       <c r="CI4" t="n">
-        <v>1086.634643554688</v>
+        <v>1825.35205078125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1086.99951171875</v>
+        <v>1807.062622070312</v>
       </c>
       <c r="CK4" t="n">
-        <v>1088.03173828125</v>
+        <v>1794.1787109375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1094.839233398438</v>
+        <v>1787.78466796875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1101.12939453125</v>
+        <v>1782.893920898438</v>
       </c>
       <c r="CN4" t="n">
-        <v>1101.77978515625</v>
+        <v>1777.247192382812</v>
       </c>
       <c r="CO4" t="n">
-        <v>1095.037719726562</v>
+        <v>1771.355224609375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1074.569946289062</v>
+        <v>1771.115844726562</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1051.741333007812</v>
+        <v>1752.59033203125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1010.967346191406</v>
+        <v>1772.866088867188</v>
       </c>
       <c r="CS4" t="n">
-        <v>1007.2548828125</v>
+        <v>1793.108764648438</v>
       </c>
       <c r="CT4" t="n">
-        <v>1020.091430664062</v>
+        <v>1810.716186523438</v>
       </c>
       <c r="CU4" t="n">
-        <v>1032.007934570312</v>
+        <v>1819.625610351562</v>
       </c>
       <c r="CV4" t="n">
-        <v>1045.724365234375</v>
+        <v>1822.61865234375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1071.228271484375</v>
+        <v>1823.241943359375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1091.7841796875</v>
+        <v>1827.794555664062</v>
       </c>
       <c r="CY4" t="n">
-        <v>1110.641479492188</v>
+        <v>1846.328125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1135.967895507812</v>
+        <v>1849.755615234375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1157.158813476562</v>
+        <v>1851.213134765625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1176.397705078125</v>
+        <v>1841.6181640625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1189.80126953125</v>
+        <v>1838.140258789062</v>
       </c>
       <c r="DD4" t="n">
-        <v>1196.0107421875</v>
+        <v>1837.3388671875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1195.519165039062</v>
+        <v>1835.54931640625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1192.879150390625</v>
+        <v>1833.755859375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1187.606811523438</v>
+        <v>1832.358642578125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1180.540649414062</v>
+        <v>1828.463745117188</v>
       </c>
       <c r="DI4" t="n">
-        <v>1169.224243164062</v>
+        <v>1814.541137695312</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1153.895751953125</v>
+        <v>1800.717895507812</v>
       </c>
       <c r="DK4" t="n">
-        <v>1139.707275390625</v>
+        <v>1763.851928710938</v>
       </c>
       <c r="DL4" t="n">
-        <v>1126.393920898438</v>
+        <v>1764.242065429688</v>
       </c>
       <c r="DM4" t="n">
-        <v>1119.911010742188</v>
+        <v>1764.138061523438</v>
       </c>
       <c r="DN4" t="n">
-        <v>1118.073364257812</v>
+        <v>1781.488403320312</v>
       </c>
       <c r="DO4" t="n">
-        <v>1117.432006835938</v>
+        <v>1792.869018554688</v>
       </c>
       <c r="DP4" t="n">
-        <v>1116.035766601562</v>
+        <v>1803.764526367188</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1113.848510742188</v>
+        <v>1810.964111328125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1113.740600585938</v>
+        <v>1815.333251953125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1120.329833984375</v>
+        <v>1824.965576171875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1131.401489257812</v>
+        <v>1838.41162109375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1144.208740234375</v>
+        <v>1840.7861328125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1163.632568359375</v>
+        <v>1836.833740234375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1167.055541992188</v>
+        <v>1836.491943359375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1168.868774414062</v>
+        <v>1836.746215820312</v>
       </c>
       <c r="DY4" t="n">
-        <v>1167.174560546875</v>
+        <v>1835.7734375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1152.31494140625</v>
+        <v>1833.855224609375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1136.098388671875</v>
+        <v>1820.362426757812</v>
       </c>
       <c r="EB4" t="n">
-        <v>1118.875244140625</v>
+        <v>1806.546875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1113.347412109375</v>
+        <v>1798.580078125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1114.890869140625</v>
+        <v>1786.81298828125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1116.74951171875</v>
+        <v>1782.775146484375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1119.32470703125</v>
+        <v>1776.3095703125</v>
       </c>
       <c r="EG4" t="n">
-        <v>1128.2529296875</v>
+        <v>1769.478271484375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1135.515747070312</v>
+        <v>1773.467407226562</v>
       </c>
       <c r="EI4" t="n">
-        <v>1139.379760742188</v>
+        <v>1751.341918945312</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1132.745727539062</v>
+        <v>1742.126708984375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1144.852172851562</v>
+        <v>1765.316162109375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1145.704223632812</v>
+        <v>1752.920043945312</v>
       </c>
       <c r="EM4" t="n">
-        <v>1144.052001953125</v>
+        <v>1792.878662109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1143.431518554688</v>
+        <v>1791.064208984375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1107.479858398438</v>
+        <v>1815.687255859375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1085.732666015625</v>
+        <v>1823.811889648438</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1048.520751953125</v>
+        <v>1820.454711914062</v>
       </c>
       <c r="ER4" t="n">
-        <v>1032.86279296875</v>
+        <v>1842.49462890625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1017.447143554688</v>
+        <v>1843.890747070312</v>
       </c>
       <c r="ET4" t="n">
-        <v>1005.660217285156</v>
+        <v>1840.334350585938</v>
       </c>
       <c r="EU4" t="n">
-        <v>995.5489501953125</v>
+        <v>1837.407836914062</v>
       </c>
       <c r="EV4" t="n">
-        <v>965.9982299804688</v>
+        <v>1835.100708007812</v>
       </c>
       <c r="EW4" t="n">
-        <v>945.504638671875</v>
+        <v>1819.932861328125</v>
       </c>
       <c r="EX4" t="n">
-        <v>942.8372192382812</v>
+        <v>1787.788818359375</v>
       </c>
       <c r="EY4" t="n">
-        <v>931.2791748046875</v>
+        <v>1776.179077148438</v>
       </c>
       <c r="EZ4" t="n">
-        <v>923.2149658203125</v>
+        <v>1760.667358398438</v>
       </c>
       <c r="FA4" t="n">
-        <v>919.8085327148438</v>
+        <v>1751.857666015625</v>
       </c>
       <c r="FB4" t="n">
-        <v>914.3733520507812</v>
+        <v>1753.074584960938</v>
       </c>
       <c r="FC4" t="n">
-        <v>898.2669067382812</v>
+        <v>1772.179077148438</v>
       </c>
       <c r="FD4" t="n">
-        <v>882.120849609375</v>
+        <v>1791.95703125</v>
       </c>
       <c r="FE4" t="n">
-        <v>872.2657470703125</v>
+        <v>1801.49755859375</v>
       </c>
       <c r="FF4" t="n">
-        <v>868.9149780273438</v>
+        <v>1807.6318359375</v>
       </c>
       <c r="FG4" t="n">
-        <v>869.7484130859375</v>
+        <v>1821.203002929688</v>
       </c>
       <c r="FH4" t="n">
-        <v>864.5556030273438</v>
+        <v>1825.958129882812</v>
       </c>
       <c r="FI4" t="n">
-        <v>861.7560424804688</v>
+        <v>1829.650268554688</v>
       </c>
       <c r="FJ4" t="n">
-        <v>858.1527099609375</v>
+        <v>1827.892944335938</v>
       </c>
       <c r="FK4" t="n">
-        <v>851.5700073242188</v>
+        <v>1827.90380859375</v>
       </c>
       <c r="FL4" t="n">
-        <v>854.7704467773438</v>
+        <v>1827.392333984375</v>
       </c>
       <c r="FM4" t="n">
-        <v>855.590087890625</v>
+        <v>1826.317016601562</v>
       </c>
       <c r="FN4" t="n">
-        <v>843.7061767578125</v>
+        <v>1818.955688476562</v>
       </c>
       <c r="FO4" t="n">
-        <v>814.8411254882812</v>
+        <v>1812.738647460938</v>
       </c>
       <c r="FP4" t="n">
-        <v>355.3898315429688</v>
+        <v>1789.45263671875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>626.40625</v>
+        <v>1786.18115234375</v>
       </c>
       <c r="FR4" t="n">
-        <v>915.0899047851562</v>
+        <v>1782.71484375</v>
       </c>
       <c r="FS4" t="n">
-        <v>907.2576293945312</v>
+        <v>1779.45361328125</v>
       </c>
       <c r="FT4" t="n">
-        <v>906.3604125976562</v>
+        <v>1765.980834960938</v>
       </c>
       <c r="FU4" t="n">
-        <v>676.5376586914062</v>
+        <v>1730.818603515625</v>
       </c>
       <c r="FV4" t="n">
-        <v>629.35888671875</v>
+        <v>1727.008178710938</v>
       </c>
       <c r="FW4" t="n">
-        <v>623.4852294921875</v>
+        <v>1764.361450195312</v>
       </c>
       <c r="FX4" t="n">
-        <v>621.0166625976562</v>
+        <v>1773.947875976562</v>
       </c>
       <c r="FY4" t="n">
-        <v>661.6676635742188</v>
+        <v>1797.63134765625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>661.20703125</v>
+        <v>1809.804931640625</v>
       </c>
       <c r="GA4" t="n">
-        <v>668.20703125</v>
+        <v>1821.126953125</v>
       </c>
       <c r="GB4" t="n">
-        <v>630.801513671875</v>
+        <v>1828.166259765625</v>
       </c>
       <c r="GC4" t="n">
-        <v>622.3359375</v>
+        <v>1836.41796875</v>
       </c>
       <c r="GD4" t="n">
-        <v>664.8198852539062</v>
+        <v>1838.186645507812</v>
       </c>
       <c r="GE4" t="n">
-        <v>654.084716796875</v>
+        <v>1836.606323242188</v>
       </c>
       <c r="GF4" t="n">
-        <v>630.617919921875</v>
+        <v>1832.151000976562</v>
       </c>
       <c r="GG4" t="n">
-        <v>610.8469848632812</v>
+        <v>1833.1953125</v>
       </c>
       <c r="GH4" t="n">
-        <v>879.525390625</v>
+        <v>1834.657470703125</v>
       </c>
       <c r="GI4" t="n">
-        <v>867.1778564453125</v>
+        <v>1826.959228515625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>861.1141357421875</v>
+        <v>1789.708862304688</v>
       </c>
       <c r="GK4" t="n">
-        <v>852.077880859375</v>
+        <v>1745.707397460938</v>
       </c>
       <c r="GL4" t="n">
-        <v>825.5328979492188</v>
+        <v>1748.05517578125</v>
       </c>
       <c r="GM4" t="n">
-        <v>838.7572631835938</v>
+        <v>1753.177734375</v>
       </c>
       <c r="GN4" t="n">
-        <v>831.3522338867188</v>
+        <v>1753.065673828125</v>
       </c>
       <c r="GO4" t="n">
-        <v>830.56689453125</v>
+        <v>1785.4111328125</v>
       </c>
       <c r="GP4" t="n">
-        <v>794.6765747070312</v>
+        <v>1810.225219726562</v>
       </c>
       <c r="GQ4" t="n">
-        <v>784.9254150390625</v>
+        <v>1821.078857421875</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1837.403076171875</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1850.996215820312</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1853.81005859375</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1850.63720703125</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1845.00537109375</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1843.9814453125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1829.311889648438</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1799.53173828125</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1774.343505859375</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1767.048461914062</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1756.888305664062</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1726.478149414062</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1740.87646484375</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1770.376953125</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1773.248168945312</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1760.673950195312</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1801.886962890625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1832.442504882812</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1828.756103515625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1823.941650390625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1820.67041015625</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1820.782836914062</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1819.045532226562</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1813.515502929688</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1792.570068359375</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1771.322875976562</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1750.267700195312</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1733.400024414062</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1749.340454101562</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1782.958862304688</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1797.693359375</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1819.162231445312</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1832.30322265625</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1847.876708984375</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1850.207641601562</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1847.588745117188</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1848.331787109375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1846.70556640625</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1839.153076171875</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1822.129272460938</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1802.375366210938</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1783.490966796875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1768.554565429688</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1766.59326171875</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1758.699462890625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1733.22216796875</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1738.089233398438</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1766.908569335938</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1781.876220703125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1798.411499023438</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1801.610717773438</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1804.048217773438</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1815.045043945312</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1824.26025390625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1821.509521484375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1811.432739257812</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1773.748291015625</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1761.339599609375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1745.54248046875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1773.561157226562</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1797.377563476562</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1823.4384765625</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1840.894165039062</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1846.729370117188</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1856.365966796875</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1855.176635742188</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1849.905639648438</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1843.1083984375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1826.038818359375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1818.124633789062</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1794.612670898438</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1778.068603515625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1763.419067382812</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1758.744262695312</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1743.741088867188</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1737.61474609375</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1671.2265625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1745.728149414062</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1750.380615234375</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1775.931762695312</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1822.665771484375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1817.519409179688</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1814.755981445312</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1815.20166015625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1813.315063476562</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1808.470581054688</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1791.014526367188</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1783.65869140625</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1758.541137695312</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1756.334716796875</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1702.99853515625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1703.89599609375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1724.248779296875</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1799.907592773438</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1841.92041015625</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1865.958251953125</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1845.637573242188</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1808.45263671875</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1659.725219726562</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1573.82421875</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1469.85888671875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1330.0390625</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1235.748168945312</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1156.03369140625</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1089.498413085938</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1023.316162109375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>968.7073974609375</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>861.7884521484375</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>773.0315551757812</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>694.3783569335938</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>587.8414916992188</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>523.708984375</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>472.5148620605469</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>431.2603759765625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>402.1764221191406</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>387.2821960449219</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>377.9347229003906</v>
       </c>
     </row>
   </sheetData>

--- a/right_hand_Data.xlsx
+++ b/right_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>282.889892578125</v>
+        <v>160.1082763671875</v>
       </c>
       <c r="B2" t="n">
-        <v>294.1457824707031</v>
+        <v>166.0581665039062</v>
       </c>
       <c r="C2" t="n">
-        <v>302.3309020996094</v>
+        <v>171.8051147460938</v>
       </c>
       <c r="D2" t="n">
-        <v>288.1466064453125</v>
+        <v>175.2004241943359</v>
       </c>
       <c r="E2" t="n">
-        <v>276.57666015625</v>
+        <v>176.4512939453125</v>
       </c>
       <c r="F2" t="n">
-        <v>256.9535217285156</v>
+        <v>175.6105804443359</v>
       </c>
       <c r="G2" t="n">
-        <v>240.3211059570312</v>
+        <v>183.6634674072266</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3190612792969</v>
+        <v>188.3080749511719</v>
       </c>
       <c r="I2" t="n">
-        <v>236.8676910400391</v>
+        <v>188.7830963134766</v>
       </c>
       <c r="J2" t="n">
-        <v>235.1212158203125</v>
+        <v>183.2985229492188</v>
       </c>
       <c r="K2" t="n">
-        <v>234.8950958251953</v>
+        <v>178.8206176757812</v>
       </c>
       <c r="L2" t="n">
-        <v>239.0257263183594</v>
+        <v>178.3558959960938</v>
       </c>
       <c r="M2" t="n">
-        <v>242.7723999023438</v>
+        <v>178.9302368164062</v>
       </c>
       <c r="N2" t="n">
-        <v>242.0956115722656</v>
+        <v>179.8403625488281</v>
       </c>
       <c r="O2" t="n">
-        <v>243.1102752685547</v>
+        <v>183.8776245117188</v>
       </c>
       <c r="P2" t="n">
-        <v>242.7711181640625</v>
+        <v>187.1138305664062</v>
       </c>
       <c r="Q2" t="n">
-        <v>240.6684112548828</v>
+        <v>190.2317504882812</v>
       </c>
       <c r="R2" t="n">
-        <v>244.0302429199219</v>
+        <v>193.3536987304688</v>
       </c>
       <c r="S2" t="n">
-        <v>244.8823699951172</v>
+        <v>196.7561187744141</v>
       </c>
       <c r="T2" t="n">
-        <v>246.4291229248047</v>
+        <v>200.0158843994141</v>
       </c>
       <c r="U2" t="n">
-        <v>247.2543334960938</v>
+        <v>203.6792144775391</v>
       </c>
       <c r="V2" t="n">
-        <v>247.6827392578125</v>
+        <v>206.1977233886719</v>
       </c>
       <c r="W2" t="n">
-        <v>248.186279296875</v>
+        <v>208.2539520263672</v>
       </c>
       <c r="X2" t="n">
-        <v>249.1283874511719</v>
+        <v>211.582763671875</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.1094207763672</v>
+        <v>221.1213836669922</v>
       </c>
       <c r="Z2" t="n">
-        <v>251.7440948486328</v>
+        <v>229.9713439941406</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.1826477050781</v>
+        <v>235.2115173339844</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.3316040039062</v>
+        <v>240.6204376220703</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.106689453125</v>
+        <v>245.6867980957031</v>
       </c>
       <c r="AD2" t="n">
-        <v>260.0007629394531</v>
+        <v>251.053466796875</v>
       </c>
       <c r="AE2" t="n">
-        <v>260.5911560058594</v>
+        <v>251.3240051269531</v>
       </c>
       <c r="AF2" t="n">
-        <v>261.5596923828125</v>
+        <v>253.5565032958984</v>
       </c>
       <c r="AG2" t="n">
-        <v>263.4637451171875</v>
+        <v>254.4876403808594</v>
       </c>
       <c r="AH2" t="n">
-        <v>266.0430603027344</v>
+        <v>256.1733093261719</v>
       </c>
       <c r="AI2" t="n">
-        <v>270.9320068359375</v>
+        <v>256.9532470703125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>274.9035949707031</v>
+        <v>257.6752014160156</v>
       </c>
       <c r="AK2" t="n">
-        <v>282.3669128417969</v>
+        <v>258.5653381347656</v>
       </c>
       <c r="AL2" t="n">
-        <v>287.9296264648438</v>
+        <v>259.6473388671875</v>
       </c>
       <c r="AM2" t="n">
-        <v>292.512451171875</v>
+        <v>260.2553405761719</v>
       </c>
       <c r="AN2" t="n">
-        <v>300.3014831542969</v>
+        <v>259.9084777832031</v>
       </c>
       <c r="AO2" t="n">
-        <v>306.8799743652344</v>
+        <v>259.3533935546875</v>
       </c>
       <c r="AP2" t="n">
-        <v>311.8130493164062</v>
+        <v>257.8628845214844</v>
       </c>
       <c r="AQ2" t="n">
-        <v>312.8985290527344</v>
+        <v>254.7572174072266</v>
       </c>
       <c r="AR2" t="n">
-        <v>314.5282287597656</v>
+        <v>253.4117889404297</v>
       </c>
       <c r="AS2" t="n">
-        <v>317.5964965820312</v>
+        <v>253.1183166503906</v>
       </c>
       <c r="AT2" t="n">
-        <v>318.799560546875</v>
+        <v>253.0110168457031</v>
       </c>
       <c r="AU2" t="n">
-        <v>320.1466674804688</v>
+        <v>254.1074981689453</v>
       </c>
       <c r="AV2" t="n">
-        <v>320.0802917480469</v>
+        <v>255.0368957519531</v>
       </c>
       <c r="AW2" t="n">
-        <v>320.6225891113281</v>
+        <v>255.6793518066406</v>
       </c>
       <c r="AX2" t="n">
-        <v>321.1672668457031</v>
+        <v>255.9212036132812</v>
       </c>
       <c r="AY2" t="n">
-        <v>321.5236206054688</v>
+        <v>255.7323608398438</v>
       </c>
       <c r="AZ2" t="n">
-        <v>321.2909545898438</v>
+        <v>255.9692077636719</v>
       </c>
       <c r="BA2" t="n">
-        <v>320.4181518554688</v>
+        <v>256.2947082519531</v>
       </c>
       <c r="BB2" t="n">
-        <v>318.8097534179688</v>
+        <v>257.0040283203125</v>
       </c>
       <c r="BC2" t="n">
-        <v>318.6419982910156</v>
+        <v>257.6403503417969</v>
       </c>
       <c r="BD2" t="n">
-        <v>318.3328552246094</v>
+        <v>259.2973022460938</v>
       </c>
       <c r="BE2" t="n">
-        <v>318.3807678222656</v>
+        <v>263.3912048339844</v>
       </c>
       <c r="BF2" t="n">
-        <v>319.8535461425781</v>
+        <v>267.8975830078125</v>
       </c>
       <c r="BG2" t="n">
-        <v>322.2276306152344</v>
+        <v>271.4866638183594</v>
       </c>
       <c r="BH2" t="n">
-        <v>321.0022277832031</v>
+        <v>270.2269592285156</v>
       </c>
       <c r="BI2" t="n">
-        <v>314.3766784667969</v>
+        <v>268.1132507324219</v>
       </c>
       <c r="BJ2" t="n">
-        <v>302.6775207519531</v>
+        <v>271.4431457519531</v>
       </c>
       <c r="BK2" t="n">
-        <v>290.2352905273438</v>
+        <v>278.5852355957031</v>
       </c>
       <c r="BL2" t="n">
-        <v>279.4619140625</v>
+        <v>285.0210266113281</v>
       </c>
       <c r="BM2" t="n">
-        <v>269.3254699707031</v>
+        <v>287.7392578125</v>
       </c>
       <c r="BN2" t="n">
-        <v>257.4634094238281</v>
+        <v>284.962158203125</v>
       </c>
       <c r="BO2" t="n">
-        <v>248.8422393798828</v>
+        <v>282.450927734375</v>
       </c>
       <c r="BP2" t="n">
-        <v>247.0515594482422</v>
+        <v>281.552001953125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>241.23095703125</v>
+        <v>281.6750183105469</v>
       </c>
       <c r="BR2" t="n">
-        <v>231.6048889160156</v>
+        <v>282.9033813476562</v>
       </c>
       <c r="BS2" t="n">
-        <v>229.2243194580078</v>
+        <v>285.1802062988281</v>
       </c>
       <c r="BT2" t="n">
-        <v>224.6279907226562</v>
+        <v>286.2336730957031</v>
       </c>
       <c r="BU2" t="n">
-        <v>219.9285736083984</v>
+        <v>287.9458312988281</v>
       </c>
       <c r="BV2" t="n">
-        <v>218.5896301269531</v>
+        <v>294.1504211425781</v>
       </c>
       <c r="BW2" t="n">
-        <v>217.5533142089844</v>
+        <v>299.8163452148438</v>
       </c>
       <c r="BX2" t="n">
-        <v>217.1663513183594</v>
+        <v>299.9678955078125</v>
       </c>
       <c r="BY2" t="n">
-        <v>216.847412109375</v>
+        <v>300.2142944335938</v>
       </c>
       <c r="BZ2" t="n">
-        <v>216.8047790527344</v>
+        <v>300.49853515625</v>
       </c>
       <c r="CA2" t="n">
-        <v>216.6809844970703</v>
+        <v>302.1609191894531</v>
       </c>
       <c r="CB2" t="n">
-        <v>216.6952667236328</v>
+        <v>306.2864685058594</v>
       </c>
       <c r="CC2" t="n">
-        <v>215.8390655517578</v>
+        <v>308.1069030761719</v>
       </c>
       <c r="CD2" t="n">
-        <v>220.1121520996094</v>
+        <v>307.7920227050781</v>
       </c>
       <c r="CE2" t="n">
-        <v>223.5704040527344</v>
+        <v>307.2885131835938</v>
       </c>
       <c r="CF2" t="n">
-        <v>224.435546875</v>
+        <v>304.798828125</v>
       </c>
       <c r="CG2" t="n">
-        <v>226.8275146484375</v>
+        <v>302.8338623046875</v>
       </c>
       <c r="CH2" t="n">
-        <v>228.8521575927734</v>
+        <v>299.519287109375</v>
       </c>
       <c r="CI2" t="n">
-        <v>233.2780151367188</v>
+        <v>297.2355651855469</v>
       </c>
       <c r="CJ2" t="n">
-        <v>239.9931640625</v>
+        <v>298.8109741210938</v>
       </c>
       <c r="CK2" t="n">
-        <v>244.3824005126953</v>
+        <v>298.0044250488281</v>
       </c>
       <c r="CL2" t="n">
-        <v>249.9874572753906</v>
+        <v>297.1988220214844</v>
       </c>
       <c r="CM2" t="n">
-        <v>256.3287048339844</v>
+        <v>297.5310974121094</v>
       </c>
       <c r="CN2" t="n">
-        <v>267.0126342773438</v>
+        <v>297.430908203125</v>
       </c>
       <c r="CO2" t="n">
-        <v>275.8843078613281</v>
+        <v>297.4896850585938</v>
       </c>
       <c r="CP2" t="n">
-        <v>284.9140319824219</v>
+        <v>295.6827697753906</v>
       </c>
       <c r="CQ2" t="n">
-        <v>287.1183166503906</v>
+        <v>287.300048828125</v>
       </c>
       <c r="CR2" t="n">
-        <v>295.6903381347656</v>
+        <v>288.0426330566406</v>
       </c>
       <c r="CS2" t="n">
-        <v>302.7308959960938</v>
+        <v>299.3418273925781</v>
       </c>
       <c r="CT2" t="n">
-        <v>306.7748718261719</v>
+        <v>287.8358764648438</v>
       </c>
       <c r="CU2" t="n">
-        <v>309.6371459960938</v>
+        <v>285.7641906738281</v>
       </c>
       <c r="CV2" t="n">
-        <v>311.1203918457031</v>
+        <v>285.3363342285156</v>
       </c>
       <c r="CW2" t="n">
-        <v>314.2521362304688</v>
+        <v>288.5166015625</v>
       </c>
       <c r="CX2" t="n">
-        <v>317.3468933105469</v>
+        <v>287.1410217285156</v>
       </c>
       <c r="CY2" t="n">
-        <v>323.4212646484375</v>
+        <v>287.8748168945312</v>
       </c>
       <c r="CZ2" t="n">
-        <v>323.9832153320312</v>
+        <v>288.4730529785156</v>
       </c>
       <c r="DA2" t="n">
-        <v>325.1829833984375</v>
+        <v>289.7295532226562</v>
       </c>
       <c r="DB2" t="n">
-        <v>324.5661010742188</v>
+        <v>295.8451843261719</v>
       </c>
       <c r="DC2" t="n">
-        <v>325.17578125</v>
+        <v>284.1350402832031</v>
       </c>
       <c r="DD2" t="n">
-        <v>325.9887084960938</v>
+        <v>259.7027587890625</v>
       </c>
       <c r="DE2" t="n">
-        <v>326.4241943359375</v>
+        <v>248.7066802978516</v>
       </c>
       <c r="DF2" t="n">
-        <v>326.9166870117188</v>
+        <v>242.1215667724609</v>
       </c>
       <c r="DG2" t="n">
-        <v>327.2823791503906</v>
+        <v>274.1138305664062</v>
       </c>
       <c r="DH2" t="n">
-        <v>326.1837463378906</v>
+        <v>221.3950805664062</v>
       </c>
       <c r="DI2" t="n">
-        <v>320.6437377929688</v>
+        <v>208.9626922607422</v>
       </c>
       <c r="DJ2" t="n">
-        <v>313.6735534667969</v>
+        <v>205.0459594726562</v>
       </c>
       <c r="DK2" t="n">
-        <v>297.6788635253906</v>
+        <v>206.4006042480469</v>
       </c>
       <c r="DL2" t="n">
-        <v>272.6989135742188</v>
+        <v>203.5242004394531</v>
       </c>
       <c r="DM2" t="n">
-        <v>261.6661987304688</v>
+        <v>201.4213714599609</v>
       </c>
       <c r="DN2" t="n">
-        <v>246.4956970214844</v>
+        <v>202.9209594726562</v>
       </c>
       <c r="DO2" t="n">
-        <v>241.1347961425781</v>
+        <v>202.9109497070312</v>
       </c>
       <c r="DP2" t="n">
-        <v>235.2942810058594</v>
+        <v>202.8576354980469</v>
       </c>
       <c r="DQ2" t="n">
-        <v>231.4582824707031</v>
+        <v>202.4232482910156</v>
       </c>
       <c r="DR2" t="n">
-        <v>229.1228637695312</v>
+        <v>202.3932800292969</v>
       </c>
       <c r="DS2" t="n">
-        <v>225.1183929443359</v>
+        <v>202.6290588378906</v>
       </c>
       <c r="DT2" t="n">
-        <v>220.5060424804688</v>
+        <v>202.7526550292969</v>
       </c>
       <c r="DU2" t="n">
-        <v>218.5577697753906</v>
+        <v>202.8304748535156</v>
       </c>
       <c r="DV2" t="n">
-        <v>217.530517578125</v>
+        <v>203.6767578125</v>
       </c>
       <c r="DW2" t="n">
-        <v>217.5516967773438</v>
+        <v>208.9727478027344</v>
       </c>
       <c r="DX2" t="n">
-        <v>217.581298828125</v>
+        <v>212.5130615234375</v>
       </c>
       <c r="DY2" t="n">
-        <v>218.186767578125</v>
+        <v>219.0457763671875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>218.789306640625</v>
+        <v>279.453857421875</v>
       </c>
       <c r="EA2" t="n">
-        <v>222.2183380126953</v>
+        <v>269.6278686523438</v>
       </c>
       <c r="EB2" t="n">
-        <v>226.2309417724609</v>
+        <v>274.269775390625</v>
       </c>
       <c r="EC2" t="n">
-        <v>228.8159942626953</v>
+        <v>276.037841796875</v>
       </c>
       <c r="ED2" t="n">
-        <v>236.2720489501953</v>
+        <v>287.9739379882812</v>
       </c>
       <c r="EE2" t="n">
-        <v>240.8363647460938</v>
+        <v>266.8309020996094</v>
       </c>
       <c r="EF2" t="n">
-        <v>248.18505859375</v>
+        <v>256.7817993164062</v>
       </c>
       <c r="EG2" t="n">
-        <v>254.3415679931641</v>
+        <v>266.0755920410156</v>
       </c>
       <c r="EH2" t="n">
-        <v>258.6946716308594</v>
+        <v>276.9970092773438</v>
       </c>
       <c r="EI2" t="n">
-        <v>265.8723754882812</v>
+        <v>265.1474914550781</v>
       </c>
       <c r="EJ2" t="n">
-        <v>272.5089111328125</v>
+        <v>256.443115234375</v>
       </c>
       <c r="EK2" t="n">
-        <v>286.8691101074219</v>
+        <v>263.4824829101562</v>
       </c>
       <c r="EL2" t="n">
-        <v>286.9572143554688</v>
+        <v>268.6112365722656</v>
       </c>
       <c r="EM2" t="n">
-        <v>300.2920227050781</v>
+        <v>265.8097229003906</v>
       </c>
       <c r="EN2" t="n">
-        <v>304.3763122558594</v>
+        <v>272.412353515625</v>
       </c>
       <c r="EO2" t="n">
-        <v>308.1050720214844</v>
+        <v>216.3275451660156</v>
       </c>
       <c r="EP2" t="n">
-        <v>313.4740295410156</v>
+        <v>202.9119567871094</v>
       </c>
       <c r="EQ2" t="n">
-        <v>313.6488647460938</v>
+        <v>196.5859832763672</v>
       </c>
       <c r="ER2" t="n">
-        <v>319.4646606445312</v>
+        <v>201.6850128173828</v>
       </c>
       <c r="ES2" t="n">
-        <v>319.9892883300781</v>
+        <v>201.761962890625</v>
       </c>
       <c r="ET2" t="n">
-        <v>320.390625</v>
+        <v>200.3404846191406</v>
       </c>
       <c r="EU2" t="n">
-        <v>320.560302734375</v>
+        <v>199.2961273193359</v>
       </c>
       <c r="EV2" t="n">
-        <v>320.2315063476562</v>
+        <v>200.0358581542969</v>
       </c>
       <c r="EW2" t="n">
-        <v>317.3493041992188</v>
+        <v>200.1162872314453</v>
       </c>
       <c r="EX2" t="n">
-        <v>302.9806213378906</v>
+        <v>200.260498046875</v>
       </c>
       <c r="EY2" t="n">
-        <v>297.5630798339844</v>
+        <v>200.3136901855469</v>
       </c>
       <c r="EZ2" t="n">
-        <v>291.4125061035156</v>
+        <v>200.5277709960938</v>
       </c>
       <c r="FA2" t="n">
-        <v>273.1706237792969</v>
+        <v>200.9271545410156</v>
       </c>
       <c r="FB2" t="n">
-        <v>257.5832214355469</v>
+        <v>201.8355407714844</v>
       </c>
       <c r="FC2" t="n">
-        <v>245.7409057617188</v>
+        <v>203.866455078125</v>
       </c>
       <c r="FD2" t="n">
-        <v>236.0965270996094</v>
+        <v>206.6804656982422</v>
       </c>
       <c r="FE2" t="n">
-        <v>234.419921875</v>
+        <v>214.9671630859375</v>
       </c>
       <c r="FF2" t="n">
-        <v>231.7892456054688</v>
+        <v>219.7376403808594</v>
       </c>
       <c r="FG2" t="n">
-        <v>228.6339416503906</v>
+        <v>222.8457794189453</v>
       </c>
       <c r="FH2" t="n">
-        <v>227.6048431396484</v>
+        <v>276.2464599609375</v>
       </c>
       <c r="FI2" t="n">
-        <v>225.2949829101562</v>
+        <v>276.2713012695312</v>
       </c>
       <c r="FJ2" t="n">
-        <v>225.6253967285156</v>
+        <v>276.2843627929688</v>
       </c>
       <c r="FK2" t="n">
-        <v>225.4573822021484</v>
+        <v>265.3158874511719</v>
       </c>
       <c r="FL2" t="n">
-        <v>225.5601806640625</v>
+        <v>265.38037109375</v>
       </c>
       <c r="FM2" t="n">
-        <v>225.4405212402344</v>
+        <v>265.3301391601562</v>
       </c>
       <c r="FN2" t="n">
-        <v>225.36865234375</v>
+        <v>264.8350219726562</v>
       </c>
       <c r="FO2" t="n">
-        <v>226.2715148925781</v>
+        <v>262.6952209472656</v>
       </c>
       <c r="FP2" t="n">
-        <v>233.4023742675781</v>
+        <v>269.0999450683594</v>
       </c>
       <c r="FQ2" t="n">
-        <v>238.0184631347656</v>
+        <v>272.4543151855469</v>
       </c>
       <c r="FR2" t="n">
-        <v>245.19970703125</v>
+        <v>225.9456176757812</v>
       </c>
       <c r="FS2" t="n">
-        <v>248.6873016357422</v>
+        <v>202.5682678222656</v>
       </c>
       <c r="FT2" t="n">
-        <v>260.1420288085938</v>
+        <v>189.85302734375</v>
       </c>
       <c r="FU2" t="n">
-        <v>269.5177612304688</v>
+        <v>198.8736267089844</v>
       </c>
       <c r="FV2" t="n">
-        <v>274.5462951660156</v>
+        <v>198.5589904785156</v>
       </c>
       <c r="FW2" t="n">
-        <v>289.4797973632812</v>
+        <v>198.4631652832031</v>
       </c>
       <c r="FX2" t="n">
-        <v>292.3845520019531</v>
+        <v>198.3295593261719</v>
       </c>
       <c r="FY2" t="n">
-        <v>302.1180419921875</v>
+        <v>198.3579711914062</v>
       </c>
       <c r="FZ2" t="n">
-        <v>305.2301940917969</v>
+        <v>198.4663391113281</v>
       </c>
       <c r="GA2" t="n">
-        <v>309.7730102539062</v>
+        <v>198.823974609375</v>
       </c>
       <c r="GB2" t="n">
-        <v>314.1638488769531</v>
+        <v>199.0884552001953</v>
       </c>
       <c r="GC2" t="n">
-        <v>315.9173583984375</v>
+        <v>199.1068420410156</v>
       </c>
       <c r="GD2" t="n">
-        <v>316.2821960449219</v>
+        <v>199.4192199707031</v>
       </c>
       <c r="GE2" t="n">
-        <v>315.16455078125</v>
+        <v>199.7990112304688</v>
       </c>
       <c r="GF2" t="n">
-        <v>313.4860229492188</v>
+        <v>203.6311950683594</v>
       </c>
       <c r="GG2" t="n">
-        <v>313.4318542480469</v>
+        <v>214.5846252441406</v>
       </c>
       <c r="GH2" t="n">
-        <v>313.7497863769531</v>
+        <v>228.5748596191406</v>
       </c>
       <c r="GI2" t="n">
-        <v>312.86962890625</v>
+        <v>275.1412353515625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>299.3782653808594</v>
+        <v>275.0853576660156</v>
       </c>
       <c r="GK2" t="n">
-        <v>289.3012084960938</v>
+        <v>262.8108825683594</v>
       </c>
       <c r="GL2" t="n">
-        <v>282.4904479980469</v>
+        <v>262.7629699707031</v>
       </c>
       <c r="GM2" t="n">
-        <v>257.1787109375</v>
+        <v>262.7442016601562</v>
       </c>
       <c r="GN2" t="n">
-        <v>249.8891906738281</v>
+        <v>262.8552856445312</v>
       </c>
       <c r="GO2" t="n">
-        <v>238.4299926757812</v>
+        <v>262.8562622070312</v>
       </c>
       <c r="GP2" t="n">
-        <v>231.4123229980469</v>
+        <v>262.8704833984375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>223.4351806640625</v>
+        <v>262.9859313964844</v>
       </c>
       <c r="GR2" t="n">
-        <v>220.8230590820312</v>
+        <v>263.047607421875</v>
       </c>
       <c r="GS2" t="n">
-        <v>218.3592529296875</v>
+        <v>263.6432800292969</v>
       </c>
       <c r="GT2" t="n">
-        <v>216.4783935546875</v>
+        <v>265.154296875</v>
       </c>
       <c r="GU2" t="n">
-        <v>216.6894836425781</v>
+        <v>265.0520629882812</v>
       </c>
       <c r="GV2" t="n">
-        <v>218.6261291503906</v>
+        <v>264.5149841308594</v>
       </c>
       <c r="GW2" t="n">
-        <v>218.9524841308594</v>
+        <v>204.0345764160156</v>
       </c>
       <c r="GX2" t="n">
-        <v>219.7612609863281</v>
+        <v>198.3941955566406</v>
       </c>
       <c r="GY2" t="n">
-        <v>229.2532653808594</v>
+        <v>197.6204071044922</v>
       </c>
       <c r="GZ2" t="n">
-        <v>238.0752563476562</v>
+        <v>198.7539367675781</v>
       </c>
       <c r="HA2" t="n">
-        <v>246.3351440429688</v>
+        <v>198.3784332275391</v>
       </c>
       <c r="HB2" t="n">
-        <v>253.2108764648438</v>
+        <v>198.5136413574219</v>
       </c>
       <c r="HC2" t="n">
-        <v>266.484619140625</v>
+        <v>198.4849853515625</v>
       </c>
       <c r="HD2" t="n">
-        <v>281.5957641601562</v>
+        <v>198.4556274414062</v>
       </c>
       <c r="HE2" t="n">
-        <v>293.2920227050781</v>
+        <v>198.640869140625</v>
       </c>
       <c r="HF2" t="n">
-        <v>294.4834289550781</v>
+        <v>198.81884765625</v>
       </c>
       <c r="HG2" t="n">
-        <v>306.173095703125</v>
+        <v>198.7655334472656</v>
       </c>
       <c r="HH2" t="n">
-        <v>311.0530090332031</v>
+        <v>199.5628967285156</v>
       </c>
       <c r="HI2" t="n">
-        <v>317.0870056152344</v>
+        <v>202.968017578125</v>
       </c>
       <c r="HJ2" t="n">
-        <v>314.2320861816406</v>
+        <v>208.3644256591797</v>
       </c>
       <c r="HK2" t="n">
-        <v>313.6743469238281</v>
+        <v>215.5181579589844</v>
       </c>
       <c r="HL2" t="n">
-        <v>314.9556274414062</v>
+        <v>229.1134338378906</v>
       </c>
       <c r="HM2" t="n">
-        <v>315.7121887207031</v>
+        <v>262.7498474121094</v>
       </c>
       <c r="HN2" t="n">
-        <v>316.6529541015625</v>
+        <v>264.0474548339844</v>
       </c>
       <c r="HO2" t="n">
-        <v>315.7461547851562</v>
+        <v>264.0039978027344</v>
       </c>
       <c r="HP2" t="n">
-        <v>304.8332214355469</v>
+        <v>263.5528564453125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>292.3646850585938</v>
+        <v>262.3063659667969</v>
       </c>
       <c r="HR2" t="n">
-        <v>284.380126953125</v>
+        <v>262.2893371582031</v>
       </c>
       <c r="HS2" t="n">
-        <v>276.6494445800781</v>
+        <v>262.7910461425781</v>
       </c>
       <c r="HT2" t="n">
-        <v>248.6084747314453</v>
+        <v>263.9000549316406</v>
       </c>
       <c r="HU2" t="n">
-        <v>241.276123046875</v>
+        <v>264.4854736328125</v>
       </c>
       <c r="HV2" t="n">
-        <v>232.5964965820312</v>
+        <v>265.2908630371094</v>
       </c>
       <c r="HW2" t="n">
-        <v>224.6303100585938</v>
+        <v>259.3434143066406</v>
       </c>
       <c r="HX2" t="n">
-        <v>222.1205902099609</v>
+        <v>200.3096008300781</v>
       </c>
       <c r="HY2" t="n">
-        <v>218.193359375</v>
+        <v>199.7943420410156</v>
       </c>
       <c r="HZ2" t="n">
-        <v>216.7475738525391</v>
+        <v>202.451904296875</v>
       </c>
       <c r="IA2" t="n">
-        <v>216.2239227294922</v>
+        <v>200.3504791259766</v>
       </c>
       <c r="IB2" t="n">
-        <v>216.3583221435547</v>
+        <v>199.3817138671875</v>
       </c>
       <c r="IC2" t="n">
-        <v>217.2069702148438</v>
+        <v>200.19775390625</v>
       </c>
       <c r="ID2" t="n">
-        <v>218.9342956542969</v>
+        <v>200.8854064941406</v>
       </c>
       <c r="IE2" t="n">
-        <v>221.5734100341797</v>
+        <v>201.2919311523438</v>
       </c>
       <c r="IF2" t="n">
-        <v>227.7772521972656</v>
+        <v>201.0568237304688</v>
       </c>
       <c r="IG2" t="n">
-        <v>233.7263793945312</v>
+        <v>199.0089111328125</v>
       </c>
       <c r="IH2" t="n">
-        <v>240.6942596435547</v>
+        <v>198.5345153808594</v>
       </c>
       <c r="II2" t="n">
-        <v>250.5791625976562</v>
+        <v>207.674072265625</v>
       </c>
       <c r="IJ2" t="n">
-        <v>259.3094177246094</v>
+        <v>212.1969299316406</v>
       </c>
       <c r="IK2" t="n">
-        <v>269.4983520507812</v>
+        <v>269.1029968261719</v>
       </c>
       <c r="IL2" t="n">
-        <v>281.3299560546875</v>
+        <v>271.8380737304688</v>
       </c>
       <c r="IM2" t="n">
-        <v>297.3012390136719</v>
+        <v>281.9273986816406</v>
       </c>
       <c r="IN2" t="n">
-        <v>301.0716857910156</v>
+        <v>275.8271484375</v>
       </c>
       <c r="IO2" t="n">
-        <v>307.1410827636719</v>
+        <v>267.8464050292969</v>
       </c>
       <c r="IP2" t="n">
-        <v>308.5107421875</v>
+        <v>269.1849365234375</v>
       </c>
       <c r="IQ2" t="n">
-        <v>309.4726867675781</v>
+        <v>271.4064331054688</v>
       </c>
       <c r="IR2" t="n">
-        <v>311.8374938964844</v>
+        <v>264.4464416503906</v>
       </c>
       <c r="IS2" t="n">
-        <v>313.24755859375</v>
+        <v>264.2935791015625</v>
       </c>
       <c r="IT2" t="n">
-        <v>313.3733215332031</v>
+        <v>260.3184509277344</v>
       </c>
       <c r="IU2" t="n">
-        <v>311.3032836914062</v>
+        <v>203.686767578125</v>
       </c>
       <c r="IV2" t="n">
-        <v>296.7712097167969</v>
+        <v>197.5632934570312</v>
       </c>
       <c r="IW2" t="n">
-        <v>287.934326171875</v>
+        <v>198.132080078125</v>
       </c>
       <c r="IX2" t="n">
-        <v>265.9612731933594</v>
+        <v>200.3575134277344</v>
       </c>
       <c r="IY2" t="n">
-        <v>242.8766479492188</v>
+        <v>197.8634796142578</v>
       </c>
       <c r="IZ2" t="n">
-        <v>231.2804870605469</v>
+        <v>197.065673828125</v>
       </c>
       <c r="JA2" t="n">
-        <v>224.5042419433594</v>
+        <v>196.9499816894531</v>
       </c>
       <c r="JB2" t="n">
-        <v>218.2888488769531</v>
+        <v>197.2416534423828</v>
       </c>
       <c r="JC2" t="n">
-        <v>216.5397338867188</v>
+        <v>200.5551452636719</v>
       </c>
       <c r="JD2" t="n">
-        <v>215.3701477050781</v>
+        <v>205.1946411132812</v>
       </c>
       <c r="JE2" t="n">
-        <v>213.0912475585938</v>
+        <v>224.3800048828125</v>
       </c>
       <c r="JF2" t="n">
-        <v>212.9909973144531</v>
+        <v>234.2652587890625</v>
       </c>
       <c r="JG2" t="n">
-        <v>213.9794158935547</v>
+        <v>264.2352905273438</v>
       </c>
       <c r="JH2" t="n">
-        <v>215.8635559082031</v>
+        <v>264.8754272460938</v>
       </c>
       <c r="JI2" t="n">
-        <v>218.7667694091797</v>
+        <v>263.6898193359375</v>
       </c>
       <c r="JJ2" t="n">
-        <v>226.5204162597656</v>
+        <v>263.2498474121094</v>
       </c>
       <c r="JK2" t="n">
-        <v>231.6633911132812</v>
+        <v>267.073974609375</v>
       </c>
       <c r="JL2" t="n">
-        <v>240.1491088867188</v>
+        <v>257.3870239257812</v>
       </c>
       <c r="JM2" t="n">
-        <v>247.8020324707031</v>
+        <v>216.2803649902344</v>
       </c>
       <c r="JN2" t="n">
-        <v>259.6976318359375</v>
+        <v>195.0673522949219</v>
       </c>
       <c r="JO2" t="n">
-        <v>269.4509887695312</v>
+        <v>197.0701751708984</v>
       </c>
       <c r="JP2" t="n">
-        <v>273.933837890625</v>
+        <v>197.6575622558594</v>
       </c>
       <c r="JQ2" t="n">
-        <v>292.0082397460938</v>
+        <v>198.5333557128906</v>
       </c>
       <c r="JR2" t="n">
-        <v>298.4875183105469</v>
+        <v>200.0413208007812</v>
       </c>
       <c r="JS2" t="n">
-        <v>299.1600952148438</v>
+        <v>200.7577819824219</v>
       </c>
       <c r="JT2" t="n">
-        <v>313.1080932617188</v>
+        <v>201.6594696044922</v>
       </c>
       <c r="JU2" t="n">
-        <v>313.5422058105469</v>
+        <v>201.4810791015625</v>
       </c>
       <c r="JV2" t="n">
-        <v>313.0287475585938</v>
+        <v>199.3811340332031</v>
       </c>
       <c r="JW2" t="n">
-        <v>313.1292419433594</v>
+        <v>199.3458251953125</v>
       </c>
       <c r="JX2" t="n">
-        <v>312.7273559570312</v>
+        <v>199.9640502929688</v>
       </c>
       <c r="JY2" t="n">
-        <v>312.6636352539062</v>
+        <v>200.0046691894531</v>
       </c>
       <c r="JZ2" t="n">
-        <v>309.140625</v>
+        <v>198.2541046142578</v>
       </c>
       <c r="KA2" t="n">
-        <v>308.7932739257812</v>
+        <v>198.0845031738281</v>
       </c>
       <c r="KB2" t="n">
-        <v>302.2350158691406</v>
+        <v>201.5966491699219</v>
       </c>
       <c r="KC2" t="n">
-        <v>302.9322814941406</v>
+        <v>212.4503784179688</v>
       </c>
       <c r="KD2" t="n">
-        <v>274.7817077636719</v>
+        <v>223.1111145019531</v>
       </c>
       <c r="KE2" t="n">
-        <v>264.3334350585938</v>
+        <v>239.8656921386719</v>
       </c>
       <c r="KF2" t="n">
-        <v>253.2241058349609</v>
+        <v>259.9186401367188</v>
       </c>
       <c r="KG2" t="n">
-        <v>244.4998474121094</v>
+        <v>273.0137023925781</v>
       </c>
       <c r="KH2" t="n">
-        <v>237.9844360351562</v>
+        <v>310.3025207519531</v>
       </c>
       <c r="KI2" t="n">
-        <v>234.5753479003906</v>
+        <v>299.4349060058594</v>
       </c>
       <c r="KJ2" t="n">
-        <v>233.6871643066406</v>
+        <v>292.7369384765625</v>
       </c>
       <c r="KK2" t="n">
-        <v>232.49267578125</v>
+        <v>292.6426086425781</v>
       </c>
       <c r="KL2" t="n">
-        <v>228.6027374267578</v>
+        <v>293.5507507324219</v>
       </c>
       <c r="KM2" t="n">
-        <v>238.4125061035156</v>
+        <v>275.2049255371094</v>
       </c>
       <c r="KN2" t="n">
-        <v>243.3697509765625</v>
+        <v>275.8661499023438</v>
       </c>
       <c r="KO2" t="n">
-        <v>254.2227478027344</v>
+        <v>277.9123840332031</v>
       </c>
       <c r="KP2" t="n">
-        <v>257.5248413085938</v>
+        <v>266.5001831054688</v>
       </c>
       <c r="KQ2" t="n">
-        <v>255.9297790527344</v>
+        <v>264.5621032714844</v>
       </c>
       <c r="KR2" t="n">
-        <v>264.355224609375</v>
+        <v>263.1242370605469</v>
       </c>
       <c r="KS2" t="n">
-        <v>262.2455139160156</v>
+        <v>265.1930541992188</v>
       </c>
       <c r="KT2" t="n">
-        <v>257.2916564941406</v>
+        <v>262.3165283203125</v>
       </c>
       <c r="KU2" t="n">
-        <v>248.7993469238281</v>
+        <v>258.890380859375</v>
       </c>
       <c r="KV2" t="n">
-        <v>241.4357757568359</v>
+        <v>255.9335174560547</v>
       </c>
       <c r="KW2" t="n">
-        <v>219.3650970458984</v>
+        <v>253.4999694824219</v>
       </c>
       <c r="KX2" t="n">
-        <v>184.3047790527344</v>
+        <v>247.0297088623047</v>
       </c>
       <c r="KY2" t="n">
-        <v>170.1797790527344</v>
+        <v>242.8854064941406</v>
       </c>
       <c r="KZ2" t="n">
-        <v>140.9114990234375</v>
+        <v>234.6230926513672</v>
       </c>
       <c r="LA2" t="n">
-        <v>52.91789245605469</v>
+        <v>224.1493530273438</v>
       </c>
       <c r="LB2" t="n">
-        <v>39.49866485595703</v>
+        <v>212.2017669677734</v>
       </c>
       <c r="LC2" t="n">
-        <v>39.09320831298828</v>
+        <v>198.3231811523438</v>
       </c>
       <c r="LD2" t="n">
-        <v>43.49660873413086</v>
+        <v>191.0098266601562</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>181.2490081787109</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>159.0798950195312</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>138.9160766601562</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>99.92851257324219</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>52.89037322998047</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>-129.9911956787109</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>-282.75439453125</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>49.81220245361328</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>18.97352027893066</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>16.95210266113281</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>44.07650756835938</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>42.07501983642578</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>25.221435546875</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>30.29644775390625</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>62.26984405517578</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>50.73677825927734</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>361.8576049804688</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>345.0313720703125</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>163.0337524414062</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>98.78227996826172</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>110.0831756591797</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>120.1371078491211</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>134.2205047607422</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>153.4139709472656</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>153.6537170410156</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>165.5493469238281</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>169.0343933105469</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>-177.9287414550781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>528.8387451171875</v>
+        <v>444.358154296875</v>
       </c>
       <c r="B3" t="n">
-        <v>490.8623962402344</v>
+        <v>450.6056213378906</v>
       </c>
       <c r="C3" t="n">
-        <v>509.3597106933594</v>
+        <v>449.7569580078125</v>
       </c>
       <c r="D3" t="n">
-        <v>482.3858032226562</v>
+        <v>448.7336730957031</v>
       </c>
       <c r="E3" t="n">
-        <v>464.7088317871094</v>
+        <v>445.0697631835938</v>
       </c>
       <c r="F3" t="n">
-        <v>454.1796875</v>
+        <v>445.1443786621094</v>
       </c>
       <c r="G3" t="n">
-        <v>449.1907043457031</v>
+        <v>442.7490844726562</v>
       </c>
       <c r="H3" t="n">
-        <v>445.8255920410156</v>
+        <v>434.4827575683594</v>
       </c>
       <c r="I3" t="n">
-        <v>440.8627014160156</v>
+        <v>432.5728149414062</v>
       </c>
       <c r="J3" t="n">
-        <v>435.8866577148438</v>
+        <v>430.8507080078125</v>
       </c>
       <c r="K3" t="n">
-        <v>416.3106994628906</v>
+        <v>425.5127258300781</v>
       </c>
       <c r="L3" t="n">
-        <v>417.4658508300781</v>
+        <v>420.4429626464844</v>
       </c>
       <c r="M3" t="n">
-        <v>416.5338134765625</v>
+        <v>412.7854309082031</v>
       </c>
       <c r="N3" t="n">
-        <v>412.9733581542969</v>
+        <v>401.7486572265625</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2366027832031</v>
+        <v>393.9510498046875</v>
       </c>
       <c r="P3" t="n">
-        <v>406.1651000976562</v>
+        <v>388.6348266601562</v>
       </c>
       <c r="Q3" t="n">
-        <v>402.4953918457031</v>
+        <v>385.6864318847656</v>
       </c>
       <c r="R3" t="n">
-        <v>394.7190551757812</v>
+        <v>379.2749633789062</v>
       </c>
       <c r="S3" t="n">
-        <v>389.0576171875</v>
+        <v>375.8117065429688</v>
       </c>
       <c r="T3" t="n">
-        <v>383.4174194335938</v>
+        <v>370.6672058105469</v>
       </c>
       <c r="U3" t="n">
-        <v>380.4398193359375</v>
+        <v>368.001953125</v>
       </c>
       <c r="V3" t="n">
-        <v>377.8226623535156</v>
+        <v>366.8639221191406</v>
       </c>
       <c r="W3" t="n">
-        <v>377.6917114257812</v>
+        <v>364.7233276367188</v>
       </c>
       <c r="X3" t="n">
-        <v>376.8773498535156</v>
+        <v>363.8997802734375</v>
       </c>
       <c r="Y3" t="n">
-        <v>378.7088623046875</v>
+        <v>362.2340698242188</v>
       </c>
       <c r="Z3" t="n">
-        <v>380.0553283691406</v>
+        <v>359.9192199707031</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.1025390625</v>
+        <v>359.0282592773438</v>
       </c>
       <c r="AB3" t="n">
-        <v>385.3670349121094</v>
+        <v>357.0735473632812</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.5193176269531</v>
+        <v>353.61181640625</v>
       </c>
       <c r="AD3" t="n">
-        <v>384.6221618652344</v>
+        <v>349.8622741699219</v>
       </c>
       <c r="AE3" t="n">
-        <v>381.9618530273438</v>
+        <v>350.54248046875</v>
       </c>
       <c r="AF3" t="n">
-        <v>382.571533203125</v>
+        <v>350.5904235839844</v>
       </c>
       <c r="AG3" t="n">
-        <v>381.6085510253906</v>
+        <v>346.6150207519531</v>
       </c>
       <c r="AH3" t="n">
-        <v>378.1914367675781</v>
+        <v>340.2491149902344</v>
       </c>
       <c r="AI3" t="n">
-        <v>374.6437072753906</v>
+        <v>339.3093872070312</v>
       </c>
       <c r="AJ3" t="n">
-        <v>366.5640563964844</v>
+        <v>336.1051635742188</v>
       </c>
       <c r="AK3" t="n">
-        <v>358.99169921875</v>
+        <v>334.37451171875</v>
       </c>
       <c r="AL3" t="n">
-        <v>349.8627624511719</v>
+        <v>332.1970825195312</v>
       </c>
       <c r="AM3" t="n">
-        <v>340.687255859375</v>
+        <v>329.3513793945312</v>
       </c>
       <c r="AN3" t="n">
-        <v>331.6181030273438</v>
+        <v>326.4998474121094</v>
       </c>
       <c r="AO3" t="n">
-        <v>320.5621643066406</v>
+        <v>323.8142395019531</v>
       </c>
       <c r="AP3" t="n">
-        <v>310.0050048828125</v>
+        <v>320.5055236816406</v>
       </c>
       <c r="AQ3" t="n">
-        <v>304.6621704101562</v>
+        <v>320.052734375</v>
       </c>
       <c r="AR3" t="n">
-        <v>300.6067199707031</v>
+        <v>321.1584777832031</v>
       </c>
       <c r="AS3" t="n">
-        <v>296.4225769042969</v>
+        <v>322.712890625</v>
       </c>
       <c r="AT3" t="n">
-        <v>293.2799072265625</v>
+        <v>325.0377197265625</v>
       </c>
       <c r="AU3" t="n">
-        <v>293.3579406738281</v>
+        <v>326.7485656738281</v>
       </c>
       <c r="AV3" t="n">
-        <v>293.4091186523438</v>
+        <v>326.8238220214844</v>
       </c>
       <c r="AW3" t="n">
-        <v>292.9881896972656</v>
+        <v>326.0527648925781</v>
       </c>
       <c r="AX3" t="n">
-        <v>291.8598022460938</v>
+        <v>321.9335021972656</v>
       </c>
       <c r="AY3" t="n">
-        <v>291.2056884765625</v>
+        <v>314.4109191894531</v>
       </c>
       <c r="AZ3" t="n">
-        <v>291.3655090332031</v>
+        <v>310.4046325683594</v>
       </c>
       <c r="BA3" t="n">
-        <v>292.1258239746094</v>
+        <v>307.8214416503906</v>
       </c>
       <c r="BB3" t="n">
-        <v>293.4050903320312</v>
+        <v>306.9687194824219</v>
       </c>
       <c r="BC3" t="n">
-        <v>293.7184143066406</v>
+        <v>305.5490112304688</v>
       </c>
       <c r="BD3" t="n">
-        <v>293.6260986328125</v>
+        <v>306.3006591796875</v>
       </c>
       <c r="BE3" t="n">
-        <v>293.3179931640625</v>
+        <v>304.2071838378906</v>
       </c>
       <c r="BF3" t="n">
-        <v>292.2014770507812</v>
+        <v>301.59765625</v>
       </c>
       <c r="BG3" t="n">
-        <v>289.7963256835938</v>
+        <v>300.8076171875</v>
       </c>
       <c r="BH3" t="n">
-        <v>289.9919738769531</v>
+        <v>301.3472595214844</v>
       </c>
       <c r="BI3" t="n">
-        <v>288.0315246582031</v>
+        <v>298.9471435546875</v>
       </c>
       <c r="BJ3" t="n">
-        <v>284.5771179199219</v>
+        <v>296.3692626953125</v>
       </c>
       <c r="BK3" t="n">
-        <v>280.7546691894531</v>
+        <v>297.4653015136719</v>
       </c>
       <c r="BL3" t="n">
-        <v>278.6387329101562</v>
+        <v>303.5865173339844</v>
       </c>
       <c r="BM3" t="n">
-        <v>282.2902526855469</v>
+        <v>309.3377075195312</v>
       </c>
       <c r="BN3" t="n">
-        <v>292.2966918945312</v>
+        <v>308.5677185058594</v>
       </c>
       <c r="BO3" t="n">
-        <v>296.6240844726562</v>
+        <v>301.6002502441406</v>
       </c>
       <c r="BP3" t="n">
-        <v>303.478759765625</v>
+        <v>297.0101928710938</v>
       </c>
       <c r="BQ3" t="n">
-        <v>302.5491638183594</v>
+        <v>294.0928039550781</v>
       </c>
       <c r="BR3" t="n">
-        <v>297.2629699707031</v>
+        <v>294.2771606445312</v>
       </c>
       <c r="BS3" t="n">
-        <v>293.9786376953125</v>
+        <v>293.8370361328125</v>
       </c>
       <c r="BT3" t="n">
-        <v>295.1018676757812</v>
+        <v>292.8146667480469</v>
       </c>
       <c r="BU3" t="n">
-        <v>294.5250854492188</v>
+        <v>290.9110107421875</v>
       </c>
       <c r="BV3" t="n">
-        <v>294.5168151855469</v>
+        <v>288.5941162109375</v>
       </c>
       <c r="BW3" t="n">
-        <v>294.451416015625</v>
+        <v>290.9349365234375</v>
       </c>
       <c r="BX3" t="n">
-        <v>293.8631591796875</v>
+        <v>287.5631713867188</v>
       </c>
       <c r="BY3" t="n">
-        <v>294.2705078125</v>
+        <v>286.0620727539062</v>
       </c>
       <c r="BZ3" t="n">
-        <v>294.7544860839844</v>
+        <v>284.5229187011719</v>
       </c>
       <c r="CA3" t="n">
-        <v>295.4611206054688</v>
+        <v>285.7257995605469</v>
       </c>
       <c r="CB3" t="n">
-        <v>295.6608581542969</v>
+        <v>288.8650817871094</v>
       </c>
       <c r="CC3" t="n">
-        <v>306.4784851074219</v>
+        <v>289.7640380859375</v>
       </c>
       <c r="CD3" t="n">
-        <v>294.4455871582031</v>
+        <v>284.2314453125</v>
       </c>
       <c r="CE3" t="n">
-        <v>290.6486511230469</v>
+        <v>281.5217590332031</v>
       </c>
       <c r="CF3" t="n">
-        <v>291.8361206054688</v>
+        <v>279.7241821289062</v>
       </c>
       <c r="CG3" t="n">
-        <v>291.8789367675781</v>
+        <v>278.7547302246094</v>
       </c>
       <c r="CH3" t="n">
-        <v>291.5958862304688</v>
+        <v>275.8441162109375</v>
       </c>
       <c r="CI3" t="n">
-        <v>290.6346740722656</v>
+        <v>274.2980651855469</v>
       </c>
       <c r="CJ3" t="n">
-        <v>292.5276489257812</v>
+        <v>272.4490356445312</v>
       </c>
       <c r="CK3" t="n">
-        <v>295.6032104492188</v>
+        <v>271.1843872070312</v>
       </c>
       <c r="CL3" t="n">
-        <v>297.0604248046875</v>
+        <v>271.0362548828125</v>
       </c>
       <c r="CM3" t="n">
-        <v>296.428955078125</v>
+        <v>270.9717712402344</v>
       </c>
       <c r="CN3" t="n">
-        <v>294.3218383789062</v>
+        <v>271.0319519042969</v>
       </c>
       <c r="CO3" t="n">
-        <v>291.3149108886719</v>
+        <v>271.2019958496094</v>
       </c>
       <c r="CP3" t="n">
-        <v>286.5877075195312</v>
+        <v>271.4833984375</v>
       </c>
       <c r="CQ3" t="n">
-        <v>283.7713623046875</v>
+        <v>269.9034423828125</v>
       </c>
       <c r="CR3" t="n">
-        <v>282.1834106445312</v>
+        <v>271.1502685546875</v>
       </c>
       <c r="CS3" t="n">
-        <v>280.790283203125</v>
+        <v>273.8567199707031</v>
       </c>
       <c r="CT3" t="n">
-        <v>284.7471313476562</v>
+        <v>269.1107788085938</v>
       </c>
       <c r="CU3" t="n">
-        <v>286.5275573730469</v>
+        <v>266.4956359863281</v>
       </c>
       <c r="CV3" t="n">
-        <v>288.94384765625</v>
+        <v>264.8950500488281</v>
       </c>
       <c r="CW3" t="n">
-        <v>290.7875671386719</v>
+        <v>262.0834045410156</v>
       </c>
       <c r="CX3" t="n">
-        <v>291.5737915039062</v>
+        <v>261.5386657714844</v>
       </c>
       <c r="CY3" t="n">
-        <v>293.8134765625</v>
+        <v>261.2225646972656</v>
       </c>
       <c r="CZ3" t="n">
-        <v>294.3134765625</v>
+        <v>263.9435119628906</v>
       </c>
       <c r="DA3" t="n">
-        <v>294.5281982421875</v>
+        <v>267.0634155273438</v>
       </c>
       <c r="DB3" t="n">
-        <v>293.2967834472656</v>
+        <v>268.4051818847656</v>
       </c>
       <c r="DC3" t="n">
-        <v>292.8997802734375</v>
+        <v>260.7910766601562</v>
       </c>
       <c r="DD3" t="n">
-        <v>292.8830871582031</v>
+        <v>255.4329833984375</v>
       </c>
       <c r="DE3" t="n">
-        <v>292.7439575195312</v>
+        <v>266.9205322265625</v>
       </c>
       <c r="DF3" t="n">
-        <v>292.6082153320312</v>
+        <v>275.7781066894531</v>
       </c>
       <c r="DG3" t="n">
-        <v>292.5208435058594</v>
+        <v>334.1681518554688</v>
       </c>
       <c r="DH3" t="n">
-        <v>292.1125183105469</v>
+        <v>269.0165710449219</v>
       </c>
       <c r="DI3" t="n">
-        <v>290.1985168457031</v>
+        <v>270.9032287597656</v>
       </c>
       <c r="DJ3" t="n">
-        <v>288.1103515625</v>
+        <v>271.4298095703125</v>
       </c>
       <c r="DK3" t="n">
-        <v>279.2413940429688</v>
+        <v>268.9508972167969</v>
       </c>
       <c r="DL3" t="n">
-        <v>273.1531677246094</v>
+        <v>268.8192443847656</v>
       </c>
       <c r="DM3" t="n">
-        <v>287.6185302734375</v>
+        <v>269.2369384765625</v>
       </c>
       <c r="DN3" t="n">
-        <v>299.8166198730469</v>
+        <v>267.7039794921875</v>
       </c>
       <c r="DO3" t="n">
-        <v>300.3569946289062</v>
+        <v>267.4315490722656</v>
       </c>
       <c r="DP3" t="n">
-        <v>300.6380004882812</v>
+        <v>267.0355529785156</v>
       </c>
       <c r="DQ3" t="n">
-        <v>300.0377197265625</v>
+        <v>265.7210083007812</v>
       </c>
       <c r="DR3" t="n">
-        <v>299.1358947753906</v>
+        <v>265.5601501464844</v>
       </c>
       <c r="DS3" t="n">
-        <v>298.1522521972656</v>
+        <v>264.1763610839844</v>
       </c>
       <c r="DT3" t="n">
-        <v>298.7399597167969</v>
+        <v>264.8197326660156</v>
       </c>
       <c r="DU3" t="n">
-        <v>300.0370483398438</v>
+        <v>264.7784729003906</v>
       </c>
       <c r="DV3" t="n">
-        <v>302.770263671875</v>
+        <v>264.8397216796875</v>
       </c>
       <c r="DW3" t="n">
-        <v>302.6220397949219</v>
+        <v>265.4543151855469</v>
       </c>
       <c r="DX3" t="n">
-        <v>302.4494323730469</v>
+        <v>265.9208374023438</v>
       </c>
       <c r="DY3" t="n">
-        <v>302.5257263183594</v>
+        <v>266.404541015625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>302.5892944335938</v>
+        <v>330.859619140625</v>
       </c>
       <c r="EA3" t="n">
-        <v>302.8317565917969</v>
+        <v>333.4403381347656</v>
       </c>
       <c r="EB3" t="n">
-        <v>303.1908264160156</v>
+        <v>333.3534851074219</v>
       </c>
       <c r="EC3" t="n">
-        <v>304.5108032226562</v>
+        <v>333.231689453125</v>
       </c>
       <c r="ED3" t="n">
-        <v>304.7190856933594</v>
+        <v>322.0402221679688</v>
       </c>
       <c r="EE3" t="n">
-        <v>304.8229675292969</v>
+        <v>263.4927978515625</v>
       </c>
       <c r="EF3" t="n">
-        <v>306.9104309082031</v>
+        <v>255.5033111572266</v>
       </c>
       <c r="EG3" t="n">
-        <v>309.2281188964844</v>
+        <v>260.0366516113281</v>
       </c>
       <c r="EH3" t="n">
-        <v>303.808837890625</v>
+        <v>258.5163269042969</v>
       </c>
       <c r="EI3" t="n">
-        <v>298.9491882324219</v>
+        <v>259.8594055175781</v>
       </c>
       <c r="EJ3" t="n">
-        <v>293.2027282714844</v>
+        <v>249.9195404052734</v>
       </c>
       <c r="EK3" t="n">
-        <v>279.6731872558594</v>
+        <v>256.8883972167969</v>
       </c>
       <c r="EL3" t="n">
-        <v>287.3364868164062</v>
+        <v>269.5645751953125</v>
       </c>
       <c r="EM3" t="n">
-        <v>286.7276916503906</v>
+        <v>296.854248046875</v>
       </c>
       <c r="EN3" t="n">
-        <v>287.8840026855469</v>
+        <v>334.2298583984375</v>
       </c>
       <c r="EO3" t="n">
-        <v>292.6995239257812</v>
+        <v>270.6863403320312</v>
       </c>
       <c r="EP3" t="n">
-        <v>293.6556396484375</v>
+        <v>265.7218627929688</v>
       </c>
       <c r="EQ3" t="n">
-        <v>295.7471618652344</v>
+        <v>264.3244934082031</v>
       </c>
       <c r="ER3" t="n">
-        <v>296.6365051269531</v>
+        <v>260.5339965820312</v>
       </c>
       <c r="ES3" t="n">
-        <v>296.8843078613281</v>
+        <v>259.0472106933594</v>
       </c>
       <c r="ET3" t="n">
-        <v>296.8629455566406</v>
+        <v>256.2264404296875</v>
       </c>
       <c r="EU3" t="n">
-        <v>296.8934631347656</v>
+        <v>256.7100830078125</v>
       </c>
       <c r="EV3" t="n">
-        <v>296.9950561523438</v>
+        <v>257.1791687011719</v>
       </c>
       <c r="EW3" t="n">
-        <v>296.1076354980469</v>
+        <v>257.3889465332031</v>
       </c>
       <c r="EX3" t="n">
-        <v>291.7090148925781</v>
+        <v>258.1986083984375</v>
       </c>
       <c r="EY3" t="n">
-        <v>289.6578979492188</v>
+        <v>258.0619201660156</v>
       </c>
       <c r="EZ3" t="n">
-        <v>284.3531188964844</v>
+        <v>257.8820190429688</v>
       </c>
       <c r="FA3" t="n">
-        <v>281.3628540039062</v>
+        <v>258.0776977539062</v>
       </c>
       <c r="FB3" t="n">
-        <v>290.984130859375</v>
+        <v>258.3255310058594</v>
       </c>
       <c r="FC3" t="n">
-        <v>304.2095031738281</v>
+        <v>258.5392456054688</v>
       </c>
       <c r="FD3" t="n">
-        <v>303.572509765625</v>
+        <v>258.9034729003906</v>
       </c>
       <c r="FE3" t="n">
-        <v>301.4554443359375</v>
+        <v>259.882080078125</v>
       </c>
       <c r="FF3" t="n">
-        <v>302.3555908203125</v>
+        <v>261.7859802246094</v>
       </c>
       <c r="FG3" t="n">
-        <v>301.4061889648438</v>
+        <v>264.5325012207031</v>
       </c>
       <c r="FH3" t="n">
-        <v>301.6104125976562</v>
+        <v>333.4788513183594</v>
       </c>
       <c r="FI3" t="n">
-        <v>302.0709838867188</v>
+        <v>333.4410095214844</v>
       </c>
       <c r="FJ3" t="n">
-        <v>302.3390808105469</v>
+        <v>333.4344787597656</v>
       </c>
       <c r="FK3" t="n">
-        <v>302.1461791992188</v>
+        <v>333.8357543945312</v>
       </c>
       <c r="FL3" t="n">
-        <v>301.7072143554688</v>
+        <v>333.9116821289062</v>
       </c>
       <c r="FM3" t="n">
-        <v>301.6611633300781</v>
+        <v>333.95361328125</v>
       </c>
       <c r="FN3" t="n">
-        <v>301.5057983398438</v>
+        <v>274.8712463378906</v>
       </c>
       <c r="FO3" t="n">
-        <v>301.5170593261719</v>
+        <v>272.623046875</v>
       </c>
       <c r="FP3" t="n">
-        <v>302.60107421875</v>
+        <v>271.9045715332031</v>
       </c>
       <c r="FQ3" t="n">
-        <v>301.5661010742188</v>
+        <v>275.7009582519531</v>
       </c>
       <c r="FR3" t="n">
-        <v>301.812255859375</v>
+        <v>279.0039978027344</v>
       </c>
       <c r="FS3" t="n">
-        <v>301.8776245117188</v>
+        <v>266.8610229492188</v>
       </c>
       <c r="FT3" t="n">
-        <v>301.8089904785156</v>
+        <v>257.9417724609375</v>
       </c>
       <c r="FU3" t="n">
-        <v>294.7520141601562</v>
+        <v>254.8087768554688</v>
       </c>
       <c r="FV3" t="n">
-        <v>298.1994934082031</v>
+        <v>254.8605499267578</v>
       </c>
       <c r="FW3" t="n">
-        <v>280.730712890625</v>
+        <v>254.7995910644531</v>
       </c>
       <c r="FX3" t="n">
-        <v>284.7875366210938</v>
+        <v>254.8900146484375</v>
       </c>
       <c r="FY3" t="n">
-        <v>288.6889343261719</v>
+        <v>254.8417510986328</v>
       </c>
       <c r="FZ3" t="n">
-        <v>289.5155639648438</v>
+        <v>254.9642333984375</v>
       </c>
       <c r="GA3" t="n">
-        <v>293.0656433105469</v>
+        <v>255.5697937011719</v>
       </c>
       <c r="GB3" t="n">
-        <v>294.0602111816406</v>
+        <v>256.4757385253906</v>
       </c>
       <c r="GC3" t="n">
-        <v>296.2105407714844</v>
+        <v>257.4088439941406</v>
       </c>
       <c r="GD3" t="n">
-        <v>296.9283752441406</v>
+        <v>257.3546752929688</v>
       </c>
       <c r="GE3" t="n">
-        <v>297.623046875</v>
+        <v>257.3622436523438</v>
       </c>
       <c r="GF3" t="n">
-        <v>296.9425354003906</v>
+        <v>257.706298828125</v>
       </c>
       <c r="GG3" t="n">
-        <v>297.0690612792969</v>
+        <v>259.2901000976562</v>
       </c>
       <c r="GH3" t="n">
-        <v>297.3276977539062</v>
+        <v>262.5309753417969</v>
       </c>
       <c r="GI3" t="n">
-        <v>295.8640441894531</v>
+        <v>333.737548828125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>291.6349792480469</v>
+        <v>333.7686157226562</v>
       </c>
       <c r="GK3" t="n">
-        <v>283.7332458496094</v>
+        <v>333.9930419921875</v>
       </c>
       <c r="GL3" t="n">
-        <v>278.4058837890625</v>
+        <v>334.0216064453125</v>
       </c>
       <c r="GM3" t="n">
-        <v>293.5082397460938</v>
+        <v>334.0338745117188</v>
       </c>
       <c r="GN3" t="n">
-        <v>316.0674743652344</v>
+        <v>334.0593872070312</v>
       </c>
       <c r="GO3" t="n">
-        <v>307.1275634765625</v>
+        <v>334.0647583007812</v>
       </c>
       <c r="GP3" t="n">
-        <v>301.4188537597656</v>
+        <v>334.0924987792969</v>
       </c>
       <c r="GQ3" t="n">
-        <v>304.9792175292969</v>
+        <v>334.1009826660156</v>
       </c>
       <c r="GR3" t="n">
-        <v>302.1385498046875</v>
+        <v>334.0926818847656</v>
       </c>
       <c r="GS3" t="n">
-        <v>301.9507141113281</v>
+        <v>334.0777893066406</v>
       </c>
       <c r="GT3" t="n">
-        <v>302.428955078125</v>
+        <v>334.3307800292969</v>
       </c>
       <c r="GU3" t="n">
-        <v>302.1848449707031</v>
+        <v>334.2294616699219</v>
       </c>
       <c r="GV3" t="n">
-        <v>302.4096374511719</v>
+        <v>334.0924682617188</v>
       </c>
       <c r="GW3" t="n">
-        <v>302.2759399414062</v>
+        <v>265.2447509765625</v>
       </c>
       <c r="GX3" t="n">
-        <v>302.6764526367188</v>
+        <v>261.9552307128906</v>
       </c>
       <c r="GY3" t="n">
-        <v>303.4482116699219</v>
+        <v>255.47802734375</v>
       </c>
       <c r="GZ3" t="n">
-        <v>305.0984497070312</v>
+        <v>254.29736328125</v>
       </c>
       <c r="HA3" t="n">
-        <v>303.6014404296875</v>
+        <v>253.6939086914062</v>
       </c>
       <c r="HB3" t="n">
-        <v>306.9838256835938</v>
+        <v>253.8379974365234</v>
       </c>
       <c r="HC3" t="n">
-        <v>299.9104614257812</v>
+        <v>253.9060668945312</v>
       </c>
       <c r="HD3" t="n">
-        <v>277.974365234375</v>
+        <v>253.9975280761719</v>
       </c>
       <c r="HE3" t="n">
-        <v>277.8175048828125</v>
+        <v>254.2185668945312</v>
       </c>
       <c r="HF3" t="n">
-        <v>278.554443359375</v>
+        <v>254.3425598144531</v>
       </c>
       <c r="HG3" t="n">
-        <v>287.7228698730469</v>
+        <v>254.1695861816406</v>
       </c>
       <c r="HH3" t="n">
-        <v>291.8446044921875</v>
+        <v>253.8860626220703</v>
       </c>
       <c r="HI3" t="n">
-        <v>296.0036315917969</v>
+        <v>253.7151184082031</v>
       </c>
       <c r="HJ3" t="n">
-        <v>295.8479309082031</v>
+        <v>254.8450164794922</v>
       </c>
       <c r="HK3" t="n">
-        <v>295.5770874023438</v>
+        <v>263.9518432617188</v>
       </c>
       <c r="HL3" t="n">
-        <v>295.4290466308594</v>
+        <v>270.2012939453125</v>
       </c>
       <c r="HM3" t="n">
-        <v>295.5106506347656</v>
+        <v>331.9801940917969</v>
       </c>
       <c r="HN3" t="n">
-        <v>295.2866516113281</v>
+        <v>333.194091796875</v>
       </c>
       <c r="HO3" t="n">
-        <v>293.7925109863281</v>
+        <v>333.1061706542969</v>
       </c>
       <c r="HP3" t="n">
-        <v>290.9649963378906</v>
+        <v>333.0103759765625</v>
       </c>
       <c r="HQ3" t="n">
-        <v>286.250244140625</v>
+        <v>332.7668762207031</v>
       </c>
       <c r="HR3" t="n">
-        <v>281.0581970214844</v>
+        <v>332.5086364746094</v>
       </c>
       <c r="HS3" t="n">
-        <v>289.4627075195312</v>
+        <v>332.2377624511719</v>
       </c>
       <c r="HT3" t="n">
-        <v>306.3932800292969</v>
+        <v>332.5220336914062</v>
       </c>
       <c r="HU3" t="n">
-        <v>305.1093139648438</v>
+        <v>332.6690979003906</v>
       </c>
       <c r="HV3" t="n">
-        <v>304.293701171875</v>
+        <v>332.746826171875</v>
       </c>
       <c r="HW3" t="n">
-        <v>302.3070983886719</v>
+        <v>331.1889038085938</v>
       </c>
       <c r="HX3" t="n">
-        <v>301.5579833984375</v>
+        <v>256.6784057617188</v>
       </c>
       <c r="HY3" t="n">
-        <v>301.5478820800781</v>
+        <v>252.6820831298828</v>
       </c>
       <c r="HZ3" t="n">
-        <v>302.4970397949219</v>
+        <v>251.5186462402344</v>
       </c>
       <c r="IA3" t="n">
-        <v>302.44775390625</v>
+        <v>250.9965667724609</v>
       </c>
       <c r="IB3" t="n">
-        <v>302.51025390625</v>
+        <v>250.9299621582031</v>
       </c>
       <c r="IC3" t="n">
-        <v>302.450927734375</v>
+        <v>251.1246643066406</v>
       </c>
       <c r="ID3" t="n">
-        <v>302.4231872558594</v>
+        <v>251.2397918701172</v>
       </c>
       <c r="IE3" t="n">
-        <v>302.7088012695312</v>
+        <v>251.3736877441406</v>
       </c>
       <c r="IF3" t="n">
-        <v>303.4255065917969</v>
+        <v>251.3083648681641</v>
       </c>
       <c r="IG3" t="n">
-        <v>304.585693359375</v>
+        <v>250.8452758789062</v>
       </c>
       <c r="IH3" t="n">
-        <v>303.3262939453125</v>
+        <v>250.6551055908203</v>
       </c>
       <c r="II3" t="n">
-        <v>305.155517578125</v>
+        <v>251.5998229980469</v>
       </c>
       <c r="IJ3" t="n">
-        <v>304.0425109863281</v>
+        <v>253.5658874511719</v>
       </c>
       <c r="IK3" t="n">
-        <v>289.0277709960938</v>
+        <v>321.8575744628906</v>
       </c>
       <c r="IL3" t="n">
-        <v>285.0992126464844</v>
+        <v>332.83447265625</v>
       </c>
       <c r="IM3" t="n">
-        <v>288.0823974609375</v>
+        <v>332.4048767089844</v>
       </c>
       <c r="IN3" t="n">
-        <v>289.2828063964844</v>
+        <v>333.67724609375</v>
       </c>
       <c r="IO3" t="n">
-        <v>292.0523071289062</v>
+        <v>333.6546325683594</v>
       </c>
       <c r="IP3" t="n">
-        <v>292.8718566894531</v>
+        <v>333.2826843261719</v>
       </c>
       <c r="IQ3" t="n">
-        <v>293.4657897949219</v>
+        <v>333.8672485351562</v>
       </c>
       <c r="IR3" t="n">
-        <v>293.1845703125</v>
+        <v>333.25146484375</v>
       </c>
       <c r="IS3" t="n">
-        <v>292.9482421875</v>
+        <v>333.2020263671875</v>
       </c>
       <c r="IT3" t="n">
-        <v>292.8446655273438</v>
+        <v>332.11181640625</v>
       </c>
       <c r="IU3" t="n">
-        <v>292.4783325195312</v>
+        <v>260.7219543457031</v>
       </c>
       <c r="IV3" t="n">
-        <v>292.4280395507812</v>
+        <v>255.0695495605469</v>
       </c>
       <c r="IW3" t="n">
-        <v>277.4560241699219</v>
+        <v>253.312255859375</v>
       </c>
       <c r="IX3" t="n">
-        <v>283.1197509765625</v>
+        <v>251.8374328613281</v>
       </c>
       <c r="IY3" t="n">
-        <v>298.1856994628906</v>
+        <v>253.0791320800781</v>
       </c>
       <c r="IZ3" t="n">
-        <v>295.2949523925781</v>
+        <v>255.2061157226562</v>
       </c>
       <c r="JA3" t="n">
-        <v>294.0635681152344</v>
+        <v>256.2536926269531</v>
       </c>
       <c r="JB3" t="n">
-        <v>296.3872985839844</v>
+        <v>256.0437316894531</v>
       </c>
       <c r="JC3" t="n">
-        <v>300.094482421875</v>
+        <v>255.9273376464844</v>
       </c>
       <c r="JD3" t="n">
-        <v>302.3232727050781</v>
+        <v>255.5231018066406</v>
       </c>
       <c r="JE3" t="n">
-        <v>301.7239379882812</v>
+        <v>259.8948364257812</v>
       </c>
       <c r="JF3" t="n">
-        <v>301.0758361816406</v>
+        <v>255.7035522460938</v>
       </c>
       <c r="JG3" t="n">
-        <v>301.0780029296875</v>
+        <v>270.5944519042969</v>
       </c>
       <c r="JH3" t="n">
-        <v>299.7730102539062</v>
+        <v>253.3870391845703</v>
       </c>
       <c r="JI3" t="n">
-        <v>295.7488708496094</v>
+        <v>257.3512573242188</v>
       </c>
       <c r="JJ3" t="n">
-        <v>295.6224365234375</v>
+        <v>247.7975158691406</v>
       </c>
       <c r="JK3" t="n">
-        <v>298.9216918945312</v>
+        <v>261.7693176269531</v>
       </c>
       <c r="JL3" t="n">
-        <v>300.2081604003906</v>
+        <v>282.4717102050781</v>
       </c>
       <c r="JM3" t="n">
-        <v>300.8159484863281</v>
+        <v>270.2590637207031</v>
       </c>
       <c r="JN3" t="n">
-        <v>308.9185180664062</v>
+        <v>266.5623779296875</v>
       </c>
       <c r="JO3" t="n">
-        <v>288.0211791992188</v>
+        <v>259.3624572753906</v>
       </c>
       <c r="JP3" t="n">
-        <v>284.5105895996094</v>
+        <v>255.6505737304688</v>
       </c>
       <c r="JQ3" t="n">
-        <v>282.1004943847656</v>
+        <v>254.1188659667969</v>
       </c>
       <c r="JR3" t="n">
-        <v>295.2066650390625</v>
+        <v>254.0929412841797</v>
       </c>
       <c r="JS3" t="n">
-        <v>293.4285583496094</v>
+        <v>254.3097534179688</v>
       </c>
       <c r="JT3" t="n">
-        <v>298.6992797851562</v>
+        <v>254.6310119628906</v>
       </c>
       <c r="JU3" t="n">
-        <v>297.6690979003906</v>
+        <v>254.8140106201172</v>
       </c>
       <c r="JV3" t="n">
-        <v>297.2168273925781</v>
+        <v>254.5240173339844</v>
       </c>
       <c r="JW3" t="n">
-        <v>297.3602905273438</v>
+        <v>254.5995178222656</v>
       </c>
       <c r="JX3" t="n">
-        <v>297.6923217773438</v>
+        <v>254.7184143066406</v>
       </c>
       <c r="JY3" t="n">
-        <v>297.812255859375</v>
+        <v>254.6899261474609</v>
       </c>
       <c r="JZ3" t="n">
-        <v>296.7685241699219</v>
+        <v>254.4559783935547</v>
       </c>
       <c r="KA3" t="n">
-        <v>300.1029968261719</v>
+        <v>253.71240234375</v>
       </c>
       <c r="KB3" t="n">
-        <v>304.9046936035156</v>
+        <v>253.46728515625</v>
       </c>
       <c r="KC3" t="n">
-        <v>312.6073913574219</v>
+        <v>255.5844421386719</v>
       </c>
       <c r="KD3" t="n">
-        <v>358.6409301757812</v>
+        <v>260.1443176269531</v>
       </c>
       <c r="KE3" t="n">
-        <v>364.4139404296875</v>
+        <v>295.4983825683594</v>
       </c>
       <c r="KF3" t="n">
-        <v>377.6871337890625</v>
+        <v>274.909912109375</v>
       </c>
       <c r="KG3" t="n">
-        <v>387.9606018066406</v>
+        <v>263.5225524902344</v>
       </c>
       <c r="KH3" t="n">
-        <v>388.7996215820312</v>
+        <v>263.4323120117188</v>
       </c>
       <c r="KI3" t="n">
-        <v>386.7820129394531</v>
+        <v>275.2698059082031</v>
       </c>
       <c r="KJ3" t="n">
-        <v>385.340576171875</v>
+        <v>289.92041015625</v>
       </c>
       <c r="KK3" t="n">
-        <v>390.7022705078125</v>
+        <v>286.9218139648438</v>
       </c>
       <c r="KL3" t="n">
-        <v>398.6488647460938</v>
+        <v>285.2752990722656</v>
       </c>
       <c r="KM3" t="n">
-        <v>407.6157836914062</v>
+        <v>284.2930603027344</v>
       </c>
       <c r="KN3" t="n">
-        <v>408.7298278808594</v>
+        <v>293.6719970703125</v>
       </c>
       <c r="KO3" t="n">
-        <v>401.7174987792969</v>
+        <v>320.4468383789062</v>
       </c>
       <c r="KP3" t="n">
-        <v>393.68603515625</v>
+        <v>324.1021423339844</v>
       </c>
       <c r="KQ3" t="n">
-        <v>381.5289001464844</v>
+        <v>327.5039978027344</v>
       </c>
       <c r="KR3" t="n">
-        <v>379.7812805175781</v>
+        <v>327.2867431640625</v>
       </c>
       <c r="KS3" t="n">
-        <v>371.6925354003906</v>
+        <v>324.3709106445312</v>
       </c>
       <c r="KT3" t="n">
-        <v>373.6278991699219</v>
+        <v>331.3170471191406</v>
       </c>
       <c r="KU3" t="n">
-        <v>385.438232421875</v>
+        <v>340.040283203125</v>
       </c>
       <c r="KV3" t="n">
-        <v>399.6315612792969</v>
+        <v>352.2477416992188</v>
       </c>
       <c r="KW3" t="n">
-        <v>412.8413391113281</v>
+        <v>363.1810607910156</v>
       </c>
       <c r="KX3" t="n">
-        <v>421.7393493652344</v>
+        <v>367.1282653808594</v>
       </c>
       <c r="KY3" t="n">
-        <v>430.4630432128906</v>
+        <v>371.19775390625</v>
       </c>
       <c r="KZ3" t="n">
-        <v>443.9970397949219</v>
+        <v>374.7038269042969</v>
       </c>
       <c r="LA3" t="n">
-        <v>499.2575378417969</v>
+        <v>376.6508178710938</v>
       </c>
       <c r="LB3" t="n">
-        <v>512.702392578125</v>
+        <v>382.9455871582031</v>
       </c>
       <c r="LC3" t="n">
-        <v>514.2247924804688</v>
+        <v>403.9219055175781</v>
       </c>
       <c r="LD3" t="n">
-        <v>518.8012084960938</v>
+        <v>427.8133850097656</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>443.7879028320312</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>442.4541015625</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>440.1371765136719</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>427.1327209472656</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>383.0225219726562</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>462.8619689941406</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>536.554931640625</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>777.4188842773438</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>856.984375</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>877.3765869140625</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>886.211669921875</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>874.3812866210938</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>893.6054077148438</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>900.440673828125</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>909.7138061523438</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>959.6767578125</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>40.96496200561523</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>24.28572463989258</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>-41.58908462524414</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>48.89273071289062</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>68.16387939453125</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>57.23770904541016</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>42.1176872253418</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>46.49655151367188</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>55.62466049194336</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>82.66490173339844</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>81.50993347167969</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>1386.235229492188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>381.9331359863281</v>
+        <v>536.1818237304688</v>
       </c>
       <c r="B4" t="n">
-        <v>394.5270385742188</v>
+        <v>580.4474487304688</v>
       </c>
       <c r="C4" t="n">
-        <v>375.9229125976562</v>
+        <v>622.8536376953125</v>
       </c>
       <c r="D4" t="n">
-        <v>408.009033203125</v>
+        <v>660.3135375976562</v>
       </c>
       <c r="E4" t="n">
-        <v>451.7498779296875</v>
+        <v>690.0525512695312</v>
       </c>
       <c r="F4" t="n">
-        <v>502.0396728515625</v>
+        <v>717.4132080078125</v>
       </c>
       <c r="G4" t="n">
-        <v>556.1837768554688</v>
+        <v>748.6793823242188</v>
       </c>
       <c r="H4" t="n">
-        <v>612.5521850585938</v>
+        <v>781.8173217773438</v>
       </c>
       <c r="I4" t="n">
-        <v>676.44677734375</v>
+        <v>813.9405517578125</v>
       </c>
       <c r="J4" t="n">
-        <v>750.42919921875</v>
+        <v>852.20654296875</v>
       </c>
       <c r="K4" t="n">
-        <v>866.457763671875</v>
+        <v>888.6131591796875</v>
       </c>
       <c r="L4" t="n">
-        <v>943.0424194335938</v>
+        <v>931.8652954101562</v>
       </c>
       <c r="M4" t="n">
-        <v>1018.716735839844</v>
+        <v>982.934814453125</v>
       </c>
       <c r="N4" t="n">
-        <v>1087.939697265625</v>
+        <v>1029.940551757812</v>
       </c>
       <c r="O4" t="n">
-        <v>1154.836181640625</v>
+        <v>1070.725952148438</v>
       </c>
       <c r="P4" t="n">
-        <v>1225.519287109375</v>
+        <v>1113.757080078125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1293.2646484375</v>
+        <v>1160.246704101562</v>
       </c>
       <c r="R4" t="n">
-        <v>1361.89892578125</v>
+        <v>1192.610717773438</v>
       </c>
       <c r="S4" t="n">
-        <v>1414.164428710938</v>
+        <v>1227.635375976562</v>
       </c>
       <c r="T4" t="n">
-        <v>1450.34228515625</v>
+        <v>1260.72265625</v>
       </c>
       <c r="U4" t="n">
-        <v>1492.969604492188</v>
+        <v>1302.981201171875</v>
       </c>
       <c r="V4" t="n">
-        <v>1519.538208007812</v>
+        <v>1331.941040039062</v>
       </c>
       <c r="W4" t="n">
-        <v>1527.333984375</v>
+        <v>1356.856689453125</v>
       </c>
       <c r="X4" t="n">
-        <v>1530.515502929688</v>
+        <v>1385.337158203125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1527.150390625</v>
+        <v>1428.27880859375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1528.217407226562</v>
+        <v>1467.048828125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1553.668579101562</v>
+        <v>1488.665283203125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1577.743408203125</v>
+        <v>1518.546020507812</v>
       </c>
       <c r="AC4" t="n">
-        <v>1595.591796875</v>
+        <v>1540.474365234375</v>
       </c>
       <c r="AD4" t="n">
-        <v>1614.80908203125</v>
+        <v>1576.844604492188</v>
       </c>
       <c r="AE4" t="n">
-        <v>1624.553344726562</v>
+        <v>1613.422729492188</v>
       </c>
       <c r="AF4" t="n">
-        <v>1633.118896484375</v>
+        <v>1675.425170898438</v>
       </c>
       <c r="AG4" t="n">
-        <v>1647.515991210938</v>
+        <v>1677.920532226562</v>
       </c>
       <c r="AH4" t="n">
-        <v>1656.840454101562</v>
+        <v>1698.723754882812</v>
       </c>
       <c r="AI4" t="n">
-        <v>1675.37451171875</v>
+        <v>1729.646728515625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1684.693969726562</v>
+        <v>1749.186645507812</v>
       </c>
       <c r="AK4" t="n">
-        <v>1694.63818359375</v>
+        <v>1764.183349609375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1705.495727539062</v>
+        <v>1783.794067382812</v>
       </c>
       <c r="AM4" t="n">
-        <v>1721.981689453125</v>
+        <v>1795.740478515625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1731.780883789062</v>
+        <v>1800.222534179688</v>
       </c>
       <c r="AO4" t="n">
-        <v>1756.155395507812</v>
+        <v>1811.66552734375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1781.234252929688</v>
+        <v>1831.240478515625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1785.896606445312</v>
+        <v>1841.9892578125</v>
       </c>
       <c r="AR4" t="n">
-        <v>1788.048583984375</v>
+        <v>1854.892578125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1791.78515625</v>
+        <v>1856.502075195312</v>
       </c>
       <c r="AT4" t="n">
-        <v>1799.043823242188</v>
+        <v>1860.6318359375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1803.820922851562</v>
+        <v>1873.25341796875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1806.266479492188</v>
+        <v>1880.892944335938</v>
       </c>
       <c r="AW4" t="n">
-        <v>1809.208618164062</v>
+        <v>1889.720825195312</v>
       </c>
       <c r="AX4" t="n">
-        <v>1806.961547851562</v>
+        <v>1911.552490234375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1804.878173828125</v>
+        <v>1915.69580078125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1804.89501953125</v>
+        <v>1936.301513671875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1808.905883789062</v>
+        <v>1958.826049804688</v>
       </c>
       <c r="BB4" t="n">
-        <v>1817.262329101562</v>
+        <v>1972.252563476562</v>
       </c>
       <c r="BC4" t="n">
-        <v>1819.128051757812</v>
+        <v>1981.362060546875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1823.052001953125</v>
+        <v>1977.43896484375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1829.405517578125</v>
+        <v>1985.090087890625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1835.611938476562</v>
+        <v>1997.388916015625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1851.68212890625</v>
+        <v>2017.727294921875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1848.2099609375</v>
+        <v>2026.03955078125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1830.174438476562</v>
+        <v>2040.943725585938</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1806.6689453125</v>
+        <v>2070.48193359375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1787.546630859375</v>
+        <v>2062.52978515625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1780.976196289062</v>
+        <v>2049.573974609375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1781.78271484375</v>
+        <v>2043.124389648438</v>
       </c>
       <c r="BN4" t="n">
-        <v>1797.8779296875</v>
+        <v>2035.558715820312</v>
       </c>
       <c r="BO4" t="n">
-        <v>1809.39599609375</v>
+        <v>2052.156494140625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1813.985595703125</v>
+        <v>2073.278564453125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1828.697021484375</v>
+        <v>2092.534912109375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1857.48388671875</v>
+        <v>2101.234130859375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1868.375122070312</v>
+        <v>2104.053955078125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1878.964599609375</v>
+        <v>2097.718505859375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1900.566040039062</v>
+        <v>2088.103515625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1913.51318359375</v>
+        <v>2051.951416015625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1926.633056640625</v>
+        <v>2024.167358398438</v>
       </c>
       <c r="BX4" t="n">
-        <v>1936.201904296875</v>
+        <v>2012.677978515625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1931.36376953125</v>
+        <v>2008.630981445312</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1928.175537109375</v>
+        <v>2000.781616210938</v>
       </c>
       <c r="CA4" t="n">
-        <v>1919.855712890625</v>
+        <v>1990.168823242188</v>
       </c>
       <c r="CB4" t="n">
-        <v>1915.262084960938</v>
+        <v>1980.840942382812</v>
       </c>
       <c r="CC4" t="n">
-        <v>1886.396484375</v>
+        <v>1977.623291015625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1889.149536132812</v>
+        <v>1978.092407226562</v>
       </c>
       <c r="CE4" t="n">
-        <v>1875.128051757812</v>
+        <v>1978.307006835938</v>
       </c>
       <c r="CF4" t="n">
-        <v>1860.469116210938</v>
+        <v>1984.603149414062</v>
       </c>
       <c r="CG4" t="n">
-        <v>1847.541137695312</v>
+        <v>1989.619140625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1835.230834960938</v>
+        <v>1998.39794921875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1825.35205078125</v>
+        <v>2000.087280273438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1807.062622070312</v>
+        <v>2003.20458984375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1794.1787109375</v>
+        <v>2003.304931640625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1787.78466796875</v>
+        <v>2007.417358398438</v>
       </c>
       <c r="CM4" t="n">
-        <v>1782.893920898438</v>
+        <v>2006.3466796875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1777.247192382812</v>
+        <v>2005.533813476562</v>
       </c>
       <c r="CO4" t="n">
-        <v>1771.355224609375</v>
+        <v>2002.965087890625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1771.115844726562</v>
+        <v>1999.45556640625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1752.59033203125</v>
+        <v>2035.594116210938</v>
       </c>
       <c r="CR4" t="n">
-        <v>1772.866088867188</v>
+        <v>2004.450927734375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1793.108764648438</v>
+        <v>1988.015869140625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1810.716186523438</v>
+        <v>2041.06103515625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1819.625610351562</v>
+        <v>2021.466796875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1822.61865234375</v>
+        <v>2030.082275390625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1823.241943359375</v>
+        <v>2011.224609375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1827.794555664062</v>
+        <v>2020.434814453125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1846.328125</v>
+        <v>2015.822387695312</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1849.755615234375</v>
+        <v>2013.322509765625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1851.213134765625</v>
+        <v>2005.019775390625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1841.6181640625</v>
+        <v>1944.41357421875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1838.140258789062</v>
+        <v>1917.121459960938</v>
       </c>
       <c r="DD4" t="n">
-        <v>1837.3388671875</v>
+        <v>1842.621215820312</v>
       </c>
       <c r="DE4" t="n">
-        <v>1835.54931640625</v>
+        <v>1843.313110351562</v>
       </c>
       <c r="DF4" t="n">
-        <v>1833.755859375</v>
+        <v>1867.387939453125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1832.358642578125</v>
+        <v>2187.51904296875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1828.463745117188</v>
+        <v>1912.859741210938</v>
       </c>
       <c r="DI4" t="n">
-        <v>1814.541137695312</v>
+        <v>1936.867309570312</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1800.717895507812</v>
+        <v>1954.841918945312</v>
       </c>
       <c r="DK4" t="n">
-        <v>1763.851928710938</v>
+        <v>2046.836791992188</v>
       </c>
       <c r="DL4" t="n">
-        <v>1764.242065429688</v>
+        <v>2073.435302734375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1764.138061523438</v>
+        <v>2109.001220703125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1781.488403320312</v>
+        <v>2096.675048828125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1792.869018554688</v>
+        <v>2100.271728515625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1803.764526367188</v>
+        <v>2097.99658203125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1810.964111328125</v>
+        <v>2098.557373046875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1815.333251953125</v>
+        <v>2098.08056640625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1824.965576171875</v>
+        <v>2097.510009765625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1838.41162109375</v>
+        <v>2095.706298828125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1840.7861328125</v>
+        <v>2094.09912109375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1836.833740234375</v>
+        <v>2083.334228515625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1836.491943359375</v>
+        <v>2038.7294921875</v>
       </c>
       <c r="DX4" t="n">
-        <v>1836.746215820312</v>
+        <v>2019.33837890625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1835.7734375</v>
+        <v>1993.0595703125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1833.855224609375</v>
+        <v>2165.1298828125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1820.362426757812</v>
+        <v>2200.07421875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1806.546875</v>
+        <v>2191.621337890625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1798.580078125</v>
+        <v>2166.4453125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1786.81298828125</v>
+        <v>2004.166015625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1782.775146484375</v>
+        <v>1854.582885742188</v>
       </c>
       <c r="EF4" t="n">
-        <v>1776.3095703125</v>
+        <v>1845.54541015625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1769.478271484375</v>
+        <v>1844.351806640625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1773.467407226562</v>
+        <v>1853.59716796875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1751.341918945312</v>
+        <v>1844.814453125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1742.126708984375</v>
+        <v>1843.362182617188</v>
       </c>
       <c r="EK4" t="n">
-        <v>1765.316162109375</v>
+        <v>1844.29736328125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1752.920043945312</v>
+        <v>1848.956298828125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1792.878662109375</v>
+        <v>1877.12451171875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1791.064208984375</v>
+        <v>2192.214111328125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1815.687255859375</v>
+        <v>1907.115112304688</v>
       </c>
       <c r="EP4" t="n">
-        <v>1823.811889648438</v>
+        <v>1970.279174804688</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1820.454711914062</v>
+        <v>2012.873046875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1842.49462890625</v>
+        <v>2096.5869140625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1843.890747070312</v>
+        <v>2108.32763671875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1840.334350585938</v>
+        <v>2134.5380859375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1837.407836914062</v>
+        <v>2148.552490234375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1835.100708007812</v>
+        <v>2147.986328125</v>
       </c>
       <c r="EW4" t="n">
-        <v>1819.932861328125</v>
+        <v>2148.215087890625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1787.788818359375</v>
+        <v>2147.50244140625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1776.179077148438</v>
+        <v>2146.99658203125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1760.667358398438</v>
+        <v>2143.6328125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1751.857666015625</v>
+        <v>2134.272705078125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1753.074584960938</v>
+        <v>2117.126953125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1772.179077148438</v>
+        <v>2091.372314453125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1791.95703125</v>
+        <v>2066.42724609375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1801.49755859375</v>
+        <v>2017.699951171875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1807.6318359375</v>
+        <v>1973.293823242188</v>
       </c>
       <c r="FG4" t="n">
-        <v>1821.203002929688</v>
+        <v>1950.101806640625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1825.958129882812</v>
+        <v>2275.868896484375</v>
       </c>
       <c r="FI4" t="n">
-        <v>1829.650268554688</v>
+        <v>2276.85546875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1827.892944335938</v>
+        <v>2276.973876953125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1827.90380859375</v>
+        <v>2219.291015625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1827.392333984375</v>
+        <v>2219.78369140625</v>
       </c>
       <c r="FM4" t="n">
-        <v>1826.317016601562</v>
+        <v>2219.396484375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1818.955688476562</v>
+        <v>1852.43310546875</v>
       </c>
       <c r="FO4" t="n">
-        <v>1812.738647460938</v>
+        <v>1899.916015625</v>
       </c>
       <c r="FP4" t="n">
-        <v>1789.45263671875</v>
+        <v>1860.509887695312</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1786.18115234375</v>
+        <v>1872.549560546875</v>
       </c>
       <c r="FR4" t="n">
-        <v>1782.71484375</v>
+        <v>1895.607666015625</v>
       </c>
       <c r="FS4" t="n">
-        <v>1779.45361328125</v>
+        <v>1971.27880859375</v>
       </c>
       <c r="FT4" t="n">
-        <v>1765.980834960938</v>
+        <v>2072.52783203125</v>
       </c>
       <c r="FU4" t="n">
-        <v>1730.818603515625</v>
+        <v>2166.35546875</v>
       </c>
       <c r="FV4" t="n">
-        <v>1727.008178710938</v>
+        <v>2176.04736328125</v>
       </c>
       <c r="FW4" t="n">
-        <v>1764.361450195312</v>
+        <v>2201.483642578125</v>
       </c>
       <c r="FX4" t="n">
-        <v>1773.947875976562</v>
+        <v>2197.80322265625</v>
       </c>
       <c r="FY4" t="n">
-        <v>1797.63134765625</v>
+        <v>2200.568603515625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1809.804931640625</v>
+        <v>2192.400390625</v>
       </c>
       <c r="GA4" t="n">
-        <v>1821.126953125</v>
+        <v>2172.19775390625</v>
       </c>
       <c r="GB4" t="n">
-        <v>1828.166259765625</v>
+        <v>2157.229248046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>1836.41796875</v>
+        <v>2154.7578125</v>
       </c>
       <c r="GD4" t="n">
-        <v>1838.186645507812</v>
+        <v>2147.509765625</v>
       </c>
       <c r="GE4" t="n">
-        <v>1836.606323242188</v>
+        <v>2140.69482421875</v>
       </c>
       <c r="GF4" t="n">
-        <v>1832.151000976562</v>
+        <v>2092.643310546875</v>
       </c>
       <c r="GG4" t="n">
-        <v>1833.1953125</v>
+        <v>2020.33837890625</v>
       </c>
       <c r="GH4" t="n">
-        <v>1834.657470703125</v>
+        <v>1953.99951171875</v>
       </c>
       <c r="GI4" t="n">
-        <v>1826.959228515625</v>
+        <v>2277.9814453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1789.708862304688</v>
+        <v>2277.945068359375</v>
       </c>
       <c r="GK4" t="n">
-        <v>1745.707397460938</v>
+        <v>2211.52880859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>1748.05517578125</v>
+        <v>2213.544677734375</v>
       </c>
       <c r="GM4" t="n">
-        <v>1753.177734375</v>
+        <v>2213.53759765625</v>
       </c>
       <c r="GN4" t="n">
-        <v>1753.065673828125</v>
+        <v>2220.5390625</v>
       </c>
       <c r="GO4" t="n">
-        <v>1785.4111328125</v>
+        <v>2221.94384765625</v>
       </c>
       <c r="GP4" t="n">
-        <v>1810.225219726562</v>
+        <v>2220.546142578125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1821.078857421875</v>
+        <v>2222.1923828125</v>
       </c>
       <c r="GR4" t="n">
-        <v>1837.403076171875</v>
+        <v>2223.494140625</v>
       </c>
       <c r="GS4" t="n">
-        <v>1850.996215820312</v>
+        <v>2224.860107421875</v>
       </c>
       <c r="GT4" t="n">
-        <v>1853.81005859375</v>
+        <v>2232.41259765625</v>
       </c>
       <c r="GU4" t="n">
-        <v>1850.63720703125</v>
+        <v>2233.792724609375</v>
       </c>
       <c r="GV4" t="n">
-        <v>1845.00537109375</v>
+        <v>2235.298095703125</v>
       </c>
       <c r="GW4" t="n">
-        <v>1843.9814453125</v>
+        <v>2066.56787109375</v>
       </c>
       <c r="GX4" t="n">
-        <v>1829.311889648438</v>
+        <v>2134.020263671875</v>
       </c>
       <c r="GY4" t="n">
-        <v>1799.53173828125</v>
+        <v>2175.84033203125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1774.343505859375</v>
+        <v>2190.5400390625</v>
       </c>
       <c r="HA4" t="n">
-        <v>1767.048461914062</v>
+        <v>2202.633544921875</v>
       </c>
       <c r="HB4" t="n">
-        <v>1756.888305664062</v>
+        <v>2203.800537109375</v>
       </c>
       <c r="HC4" t="n">
-        <v>1726.478149414062</v>
+        <v>2202.404541015625</v>
       </c>
       <c r="HD4" t="n">
-        <v>1740.87646484375</v>
+        <v>2194.246337890625</v>
       </c>
       <c r="HE4" t="n">
-        <v>1770.376953125</v>
+        <v>2176.31591796875</v>
       </c>
       <c r="HF4" t="n">
-        <v>1773.248168945312</v>
+        <v>2165.85791015625</v>
       </c>
       <c r="HG4" t="n">
-        <v>1760.673950195312</v>
+        <v>2165.360595703125</v>
       </c>
       <c r="HH4" t="n">
-        <v>1801.886962890625</v>
+        <v>2154.909912109375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1832.442504882812</v>
+        <v>2104.500732421875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1828.756103515625</v>
+        <v>2066.2978515625</v>
       </c>
       <c r="HK4" t="n">
-        <v>1823.941650390625</v>
+        <v>2026.680053710938</v>
       </c>
       <c r="HL4" t="n">
-        <v>1820.67041015625</v>
+        <v>1975.935180664062</v>
       </c>
       <c r="HM4" t="n">
-        <v>1820.782836914062</v>
+        <v>2275.85400390625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1819.045532226562</v>
+        <v>2237.959716796875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1813.515502929688</v>
+        <v>2237.98828125</v>
       </c>
       <c r="HP4" t="n">
-        <v>1792.570068359375</v>
+        <v>2236.436767578125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1771.322875976562</v>
+        <v>2223.58544921875</v>
       </c>
       <c r="HR4" t="n">
-        <v>1750.267700195312</v>
+        <v>2226.61181640625</v>
       </c>
       <c r="HS4" t="n">
-        <v>1733.400024414062</v>
+        <v>2238.88134765625</v>
       </c>
       <c r="HT4" t="n">
-        <v>1749.340454101562</v>
+        <v>2242.1875</v>
       </c>
       <c r="HU4" t="n">
-        <v>1782.958862304688</v>
+        <v>2242.67138671875</v>
       </c>
       <c r="HV4" t="n">
-        <v>1797.693359375</v>
+        <v>2247.4423828125</v>
       </c>
       <c r="HW4" t="n">
-        <v>1819.162231445312</v>
+        <v>2251.70751953125</v>
       </c>
       <c r="HX4" t="n">
-        <v>1832.30322265625</v>
+        <v>2129.00439453125</v>
       </c>
       <c r="HY4" t="n">
-        <v>1847.876708984375</v>
+        <v>2220.39404296875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1850.207641601562</v>
+        <v>2236.444580078125</v>
       </c>
       <c r="IA4" t="n">
-        <v>1847.588745117188</v>
+        <v>2234.280029296875</v>
       </c>
       <c r="IB4" t="n">
-        <v>1848.331787109375</v>
+        <v>2214.924560546875</v>
       </c>
       <c r="IC4" t="n">
-        <v>1846.70556640625</v>
+        <v>2209.5869140625</v>
       </c>
       <c r="ID4" t="n">
-        <v>1839.153076171875</v>
+        <v>2207.934326171875</v>
       </c>
       <c r="IE4" t="n">
-        <v>1822.129272460938</v>
+        <v>2202.980712890625</v>
       </c>
       <c r="IF4" t="n">
-        <v>1802.375366210938</v>
+        <v>2203.51123046875</v>
       </c>
       <c r="IG4" t="n">
-        <v>1783.490966796875</v>
+        <v>2200.98486328125</v>
       </c>
       <c r="IH4" t="n">
-        <v>1768.554565429688</v>
+        <v>2162.3232421875</v>
       </c>
       <c r="II4" t="n">
-        <v>1766.59326171875</v>
+        <v>2089.24951171875</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1758.699462890625</v>
+        <v>2027.2744140625</v>
       </c>
       <c r="IK4" t="n">
-        <v>1733.22216796875</v>
+        <v>2201.677734375</v>
       </c>
       <c r="IL4" t="n">
-        <v>1738.089233398438</v>
+        <v>2197.593505859375</v>
       </c>
       <c r="IM4" t="n">
-        <v>1766.908569335938</v>
+        <v>2174.033935546875</v>
       </c>
       <c r="IN4" t="n">
-        <v>1781.876220703125</v>
+        <v>2190.050048828125</v>
       </c>
       <c r="IO4" t="n">
-        <v>1798.411499023438</v>
+        <v>2202.138427734375</v>
       </c>
       <c r="IP4" t="n">
-        <v>1801.610717773438</v>
+        <v>2199.457275390625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1804.048217773438</v>
+        <v>2190.368896484375</v>
       </c>
       <c r="IR4" t="n">
-        <v>1815.045043945312</v>
+        <v>2232.51171875</v>
       </c>
       <c r="IS4" t="n">
-        <v>1824.26025390625</v>
+        <v>2234.962646484375</v>
       </c>
       <c r="IT4" t="n">
-        <v>1821.509521484375</v>
+        <v>2247.12109375</v>
       </c>
       <c r="IU4" t="n">
-        <v>1811.432739257812</v>
+        <v>2083.08154296875</v>
       </c>
       <c r="IV4" t="n">
-        <v>1773.748291015625</v>
+        <v>2160.395263671875</v>
       </c>
       <c r="IW4" t="n">
-        <v>1761.339599609375</v>
+        <v>2197.07470703125</v>
       </c>
       <c r="IX4" t="n">
-        <v>1745.54248046875</v>
+        <v>2207.292236328125</v>
       </c>
       <c r="IY4" t="n">
-        <v>1773.561157226562</v>
+        <v>2196.5205078125</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1797.377563476562</v>
+        <v>2174.6103515625</v>
       </c>
       <c r="JA4" t="n">
-        <v>1823.4384765625</v>
+        <v>2161.39990234375</v>
       </c>
       <c r="JB4" t="n">
-        <v>1840.894165039062</v>
+        <v>2158.935791015625</v>
       </c>
       <c r="JC4" t="n">
-        <v>1846.729370117188</v>
+        <v>2098.908447265625</v>
       </c>
       <c r="JD4" t="n">
-        <v>1856.365966796875</v>
+        <v>2064.64306640625</v>
       </c>
       <c r="JE4" t="n">
-        <v>1855.176635742188</v>
+        <v>1985.203857421875</v>
       </c>
       <c r="JF4" t="n">
-        <v>1849.905639648438</v>
+        <v>1882.809326171875</v>
       </c>
       <c r="JG4" t="n">
-        <v>1843.1083984375</v>
+        <v>1868.12158203125</v>
       </c>
       <c r="JH4" t="n">
-        <v>1826.038818359375</v>
+        <v>1859.265258789062</v>
       </c>
       <c r="JI4" t="n">
-        <v>1818.124633789062</v>
+        <v>1863.953247070312</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1794.612670898438</v>
+        <v>1861.902954101562</v>
       </c>
       <c r="JK4" t="n">
-        <v>1778.068603515625</v>
+        <v>1853.560546875</v>
       </c>
       <c r="JL4" t="n">
-        <v>1763.419067382812</v>
+        <v>1857.015502929688</v>
       </c>
       <c r="JM4" t="n">
-        <v>1758.744262695312</v>
+        <v>1927.274291992188</v>
       </c>
       <c r="JN4" t="n">
-        <v>1743.741088867188</v>
+        <v>2002.251220703125</v>
       </c>
       <c r="JO4" t="n">
-        <v>1737.61474609375</v>
+        <v>2111.788818359375</v>
       </c>
       <c r="JP4" t="n">
-        <v>1671.2265625</v>
+        <v>2164.49853515625</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1745.728149414062</v>
+        <v>2203.57275390625</v>
       </c>
       <c r="JR4" t="n">
-        <v>1750.380615234375</v>
+        <v>2218.59423828125</v>
       </c>
       <c r="JS4" t="n">
-        <v>1775.931762695312</v>
+        <v>2209.53173828125</v>
       </c>
       <c r="JT4" t="n">
-        <v>1822.665771484375</v>
+        <v>2205.86572265625</v>
       </c>
       <c r="JU4" t="n">
-        <v>1817.519409179688</v>
+        <v>2189.81103515625</v>
       </c>
       <c r="JV4" t="n">
-        <v>1814.755981445312</v>
+        <v>2178.89794921875</v>
       </c>
       <c r="JW4" t="n">
-        <v>1815.20166015625</v>
+        <v>2175.9765625</v>
       </c>
       <c r="JX4" t="n">
-        <v>1813.315063476562</v>
+        <v>2169.96240234375</v>
       </c>
       <c r="JY4" t="n">
-        <v>1808.470581054688</v>
+        <v>2164.486083984375</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1791.014526367188</v>
+        <v>2159.439453125</v>
       </c>
       <c r="KA4" t="n">
-        <v>1783.65869140625</v>
+        <v>2118.591064453125</v>
       </c>
       <c r="KB4" t="n">
-        <v>1758.541137695312</v>
+        <v>2090.50341796875</v>
       </c>
       <c r="KC4" t="n">
-        <v>1756.334716796875</v>
+        <v>2007.860107421875</v>
       </c>
       <c r="KD4" t="n">
-        <v>1702.99853515625</v>
+        <v>1968.263549804688</v>
       </c>
       <c r="KE4" t="n">
-        <v>1703.89599609375</v>
+        <v>1977.78857421875</v>
       </c>
       <c r="KF4" t="n">
-        <v>1724.248779296875</v>
+        <v>1880.480712890625</v>
       </c>
       <c r="KG4" t="n">
-        <v>1799.907592773438</v>
+        <v>1891.8623046875</v>
       </c>
       <c r="KH4" t="n">
-        <v>1841.92041015625</v>
+        <v>1960.198120117188</v>
       </c>
       <c r="KI4" t="n">
-        <v>1865.958251953125</v>
+        <v>1929.311889648438</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1845.637573242188</v>
+        <v>1923.919067382812</v>
       </c>
       <c r="KK4" t="n">
-        <v>1808.45263671875</v>
+        <v>1912.538940429688</v>
       </c>
       <c r="KL4" t="n">
-        <v>1659.725219726562</v>
+        <v>1911.267822265625</v>
       </c>
       <c r="KM4" t="n">
-        <v>1573.82421875</v>
+        <v>1884.993896484375</v>
       </c>
       <c r="KN4" t="n">
-        <v>1469.85888671875</v>
+        <v>1896.831787109375</v>
       </c>
       <c r="KO4" t="n">
-        <v>1330.0390625</v>
+        <v>1980.714477539062</v>
       </c>
       <c r="KP4" t="n">
-        <v>1235.748168945312</v>
+        <v>2078.297119140625</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1156.03369140625</v>
+        <v>2135.3603515625</v>
       </c>
       <c r="KR4" t="n">
-        <v>1089.498413085938</v>
+        <v>2175.55615234375</v>
       </c>
       <c r="KS4" t="n">
-        <v>1023.316162109375</v>
+        <v>2152.72509765625</v>
       </c>
       <c r="KT4" t="n">
-        <v>968.7073974609375</v>
+        <v>2068.497802734375</v>
       </c>
       <c r="KU4" t="n">
-        <v>861.7884521484375</v>
+        <v>1971.03125</v>
       </c>
       <c r="KV4" t="n">
-        <v>773.0315551757812</v>
+        <v>1844.59912109375</v>
       </c>
       <c r="KW4" t="n">
-        <v>694.3783569335938</v>
+        <v>1752.404663085938</v>
       </c>
       <c r="KX4" t="n">
-        <v>587.8414916992188</v>
+        <v>1576.469848632812</v>
       </c>
       <c r="KY4" t="n">
-        <v>523.708984375</v>
+        <v>1467.159057617188</v>
       </c>
       <c r="KZ4" t="n">
-        <v>472.5148620605469</v>
+        <v>1310.9404296875</v>
       </c>
       <c r="LA4" t="n">
-        <v>431.2603759765625</v>
+        <v>1160.944702148438</v>
       </c>
       <c r="LB4" t="n">
-        <v>402.1764221191406</v>
+        <v>1021.7919921875</v>
       </c>
       <c r="LC4" t="n">
-        <v>387.2821960449219</v>
+        <v>896.1864013671875</v>
       </c>
       <c r="LD4" t="n">
-        <v>377.9347229003906</v>
+        <v>797.0369873046875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>714.888671875</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>617.8704833984375</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>550.4461669921875</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>451.4468994140625</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>373.1156311035156</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>285.9587097167969</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>213.1569366455078</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>447.2201232910156</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>403.799560546875</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>379.9676818847656</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>361.4381103515625</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>364.7968139648438</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>347.0513305664062</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>344.3382263183594</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>346.5302429199219</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>319.7775268554688</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>298.0372009277344</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>300.9331970214844</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>294.6878356933594</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>298.3312683105469</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>302.5815734863281</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>303.3142700195312</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>301.843505859375</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>305.4266357421875</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>310.6177368164062</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>320.2314453125</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>326.4608154296875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>193.65625</v>
       </c>
     </row>
   </sheetData>
